--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -12,15 +12,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhh8TpTqDioVLue9wxxdgJncIWUsg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="iDjBDSj0dPaZq0ailZ5LG4423jZyENXXXVGMTP1vh5w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="353">
   <si>
     <t>usuario</t>
   </si>
@@ -1146,6 +1146,45 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>Agostina Ferro Franco Sosa</t>
+  </si>
+  <si>
+    <t>Adriana Carolina Cuezzo</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t>Ana Carolina Monmany</t>
+  </si>
+  <si>
+    <t>Investigadora</t>
+  </si>
+  <si>
+    <t>Leandro Macchi</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Pedro Gerardo Blendinger</t>
+  </si>
+  <si>
+    <t>Investigador</t>
+  </si>
+  <si>
+    <t>Silvio Eugenio Castillo</t>
+  </si>
+  <si>
+    <t>Mariano Andrés Ordano</t>
+  </si>
+  <si>
+    <t>Maia Carisa Plaza Behr</t>
+  </si>
+  <si>
+    <t>María Josefina Zelaya</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1324,6 +1363,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -14572,8 +14617,8 @@
       <c r="B3" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="6">
-        <v>45028.0</v>
+      <c r="C3" s="15">
+        <v>45063.0</v>
       </c>
       <c r="D3" s="32">
         <v>123456.0</v>
@@ -16340,15 +16385,132 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="355">
   <si>
     <t>usuario</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>no debe por ajuste de nafta</t>
+  </si>
+  <si>
+    <t>Negro y ceci blundo</t>
+  </si>
+  <si>
+    <t>Paga proyecto</t>
   </si>
   <si>
     <t>fecha</t>
@@ -6304,7 +6310,7 @@
         <v>9000.0</v>
       </c>
       <c r="K128" s="8">
-        <f t="shared" ref="K128:K145" si="5">I128-J128</f>
+        <f t="shared" ref="K128:K149" si="5">I128-J128</f>
         <v>0</v>
       </c>
     </row>
@@ -6928,28 +6934,124 @@
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
+      <c r="A146" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="14">
+        <v>2023.0</v>
+      </c>
+      <c r="E146" s="15">
+        <v>45064.0</v>
+      </c>
+      <c r="F146" s="15">
+        <v>45065.0</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H146" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="I146" s="14">
+        <v>20317.0</v>
+      </c>
+      <c r="J146" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K146" s="8">
+        <f t="shared" si="5"/>
+        <v>20317</v>
+      </c>
+      <c r="L146" s="14" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
+      <c r="A147" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="14">
+        <v>2023.0</v>
+      </c>
+      <c r="E147" s="15">
+        <v>45071.0</v>
+      </c>
+      <c r="F147" s="15">
+        <v>45074.0</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H147" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="I147" s="14">
+        <v>40634.0</v>
+      </c>
+      <c r="J147" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K147" s="8">
+        <f t="shared" si="5"/>
+        <v>40634</v>
+      </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
+      <c r="A148" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="14">
+        <v>2023.0</v>
+      </c>
+      <c r="E148" s="15">
+        <v>45075.0</v>
+      </c>
+      <c r="F148" s="15">
+        <v>45077.0</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H148" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="I148" s="14">
+        <v>30475.0</v>
+      </c>
+      <c r="J148" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K148" s="8">
+        <f t="shared" si="5"/>
+        <v>30475</v>
+      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
+      <c r="K149" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="E150" s="6"/>
@@ -8915,28 +9017,28 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -8950,7 +9052,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5">
@@ -8973,7 +9075,7 @@
         <v>90</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
@@ -8992,7 +9094,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
@@ -9011,7 +9113,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
@@ -9030,7 +9132,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -9049,7 +9151,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
@@ -9068,7 +9170,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
@@ -9087,7 +9189,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
@@ -9106,7 +9208,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
@@ -9125,7 +9227,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
@@ -9144,7 +9246,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
@@ -9163,7 +9265,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
@@ -9182,7 +9284,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -9201,7 +9303,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
@@ -9220,7 +9322,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
@@ -9242,7 +9344,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -9264,7 +9366,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -9286,7 +9388,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
@@ -9308,7 +9410,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
@@ -9327,7 +9429,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5">
@@ -9349,7 +9451,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
@@ -9368,7 +9470,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
@@ -9387,7 +9489,7 @@
         <v>80</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5">
@@ -9406,7 +9508,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5">
@@ -9426,7 +9528,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
@@ -9448,7 +9550,7 @@
         <v>90</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
@@ -9470,7 +9572,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
@@ -9489,7 +9591,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
@@ -9508,7 +9610,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
@@ -9530,7 +9632,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
@@ -9549,7 +9651,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
@@ -9571,7 +9673,7 @@
         <v>17</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
@@ -9590,7 +9692,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
@@ -9612,7 +9714,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
@@ -9634,7 +9736,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
@@ -9652,7 +9754,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
@@ -9670,7 +9772,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
@@ -9692,7 +9794,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
@@ -9714,14 +9816,14 @@
         <v>18</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
         <v>5400.0</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -9735,7 +9837,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5">
@@ -9754,7 +9856,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
@@ -9773,7 +9875,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F43" s="5">
         <f>100+60+20+55</f>
@@ -9792,7 +9894,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
@@ -9811,7 +9913,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
@@ -9830,7 +9932,7 @@
         <v>32</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
@@ -9849,7 +9951,7 @@
         <v>32</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
@@ -9868,7 +9970,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5">
@@ -9887,7 +9989,7 @@
         <v>32</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
@@ -9906,7 +10008,7 @@
         <v>32</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5">
@@ -9925,7 +10027,7 @@
         <v>32</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5">
@@ -9944,7 +10046,7 @@
         <v>32</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
@@ -9963,7 +10065,7 @@
         <v>32</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5">
@@ -9982,7 +10084,7 @@
         <v>32</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5">
@@ -10001,7 +10103,7 @@
         <v>32</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
@@ -10020,7 +10122,7 @@
         <v>32</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5">
@@ -10039,7 +10141,7 @@
         <v>32</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5">
@@ -10058,7 +10160,7 @@
         <v>32</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5">
@@ -10077,7 +10179,7 @@
         <v>32</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
@@ -10096,7 +10198,7 @@
         <v>32</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
@@ -10115,7 +10217,7 @@
         <v>32</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5">
@@ -10134,7 +10236,7 @@
         <v>32</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5">
@@ -10153,7 +10255,7 @@
         <v>32</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5">
@@ -10172,7 +10274,7 @@
         <v>32</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
@@ -10191,7 +10293,7 @@
         <v>32</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5">
@@ -10213,7 +10315,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5">
@@ -10235,7 +10337,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5">
@@ -10254,7 +10356,7 @@
         <v>90</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5">
@@ -10276,7 +10378,7 @@
         <v>90</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5">
@@ -10295,14 +10397,14 @@
         <v>18</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5">
         <v>37600.0</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -10316,7 +10418,7 @@
         <v>18</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5">
@@ -10338,7 +10440,7 @@
         <v>18</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5">
@@ -10360,7 +10462,7 @@
         <v>18</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5">
@@ -10382,7 +10484,7 @@
         <v>18</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5">
@@ -10404,14 +10506,14 @@
         <v>18</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5">
         <v>0.0</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -10425,14 +10527,14 @@
         <v>18</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5">
         <v>0.0</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -10446,14 +10548,14 @@
         <v>18</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5">
         <v>0.0</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -10467,14 +10569,14 @@
         <v>18</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5">
         <v>0.0</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -10488,14 +10590,14 @@
         <v>18</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5">
         <v>0.0</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -10509,7 +10611,7 @@
         <v>18</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5">
@@ -10531,7 +10633,7 @@
         <v>18</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5">
@@ -10553,7 +10655,7 @@
         <v>18</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5">
@@ -10571,7 +10673,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5">
@@ -10589,7 +10691,7 @@
         <v>18</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5">
@@ -10607,7 +10709,7 @@
         <v>18</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F85" s="5">
         <v>9070.0</v>
@@ -10624,7 +10726,7 @@
         <v>90</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5">
@@ -10646,7 +10748,7 @@
         <v>90</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5">
@@ -10668,7 +10770,7 @@
         <v>90</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5">
@@ -10687,7 +10789,7 @@
         <v>90</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5">
@@ -10706,7 +10808,7 @@
         <v>90</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5">
@@ -10728,7 +10830,7 @@
         <v>18</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5">
@@ -10747,7 +10849,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5">
@@ -10766,7 +10868,7 @@
         <v>32</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5">
@@ -10788,7 +10890,7 @@
         <v>32</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5">
@@ -10807,7 +10909,7 @@
         <v>32</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5">
@@ -10826,7 +10928,7 @@
         <v>32</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5">
@@ -10845,7 +10947,7 @@
         <v>32</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5">
@@ -10867,7 +10969,7 @@
         <v>18</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5">
@@ -10886,7 +10988,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5">
@@ -10908,7 +11010,7 @@
         <v>18</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5">
@@ -10930,14 +11032,14 @@
         <v>18</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5">
         <v>685.0</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -10951,7 +11053,7 @@
         <v>18</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5">
@@ -10973,7 +11075,7 @@
         <v>32</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5">
@@ -10995,7 +11097,7 @@
         <v>17</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5">
@@ -11017,10 +11119,10 @@
         <v>18</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F105" s="5">
         <v>27500.0</v>
@@ -11041,7 +11143,7 @@
         <v>18</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F106" s="5">
         <v>1150.0</v>
@@ -11062,7 +11164,7 @@
         <v>18</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F107" s="5">
         <v>600.0</v>
@@ -11083,7 +11185,7 @@
         <v>18</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F108" s="5">
         <v>600.0</v>
@@ -11104,7 +11206,7 @@
         <v>18</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F109" s="5">
         <v>2200.0</v>
@@ -11122,7 +11224,7 @@
         <v>80</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F110" s="5">
         <v>27500.0</v>
@@ -11143,7 +11245,7 @@
         <v>18</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F111" s="5">
         <v>951.0</v>
@@ -11164,7 +11266,7 @@
         <v>18</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F112" s="5">
         <v>850.0</v>
@@ -11185,7 +11287,7 @@
         <v>18</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F113" s="5">
         <v>1500.0</v>
@@ -11203,7 +11305,7 @@
         <v>18</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F114" s="5">
         <v>200.0</v>
@@ -11221,7 +11323,7 @@
         <v>18</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F115" s="5">
         <v>950.0</v>
@@ -11242,7 +11344,7 @@
         <v>18</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F116" s="5">
         <v>1300.0</v>
@@ -11263,10 +11365,10 @@
         <v>17</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F117" s="5">
         <f>6000+4662</f>
@@ -11285,7 +11387,7 @@
         <v>90</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F118" s="5">
         <f>300+75+40</f>
@@ -11304,7 +11406,7 @@
         <v>18</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F119" s="5">
         <v>295.0</v>
@@ -11322,7 +11424,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5">
@@ -11344,10 +11446,10 @@
         <v>18</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F121" s="5">
         <v>12500.0</v>
@@ -11368,7 +11470,7 @@
         <v>18</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F122" s="5">
         <v>1700.0</v>
@@ -11386,10 +11488,10 @@
         <v>18</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F123" s="5">
         <v>5500.0</v>
@@ -11410,7 +11512,7 @@
         <v>18</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F124" s="5">
         <v>200.0</v>
@@ -11431,7 +11533,7 @@
         <v>90</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F125" s="5">
         <v>200.0</v>
@@ -11452,10 +11554,10 @@
         <v>18</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F126" s="5">
         <v>5970.0</v>
@@ -11476,7 +11578,7 @@
         <v>18</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F127" s="5">
         <v>500.0</v>
@@ -11494,7 +11596,7 @@
         <v>18</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F128" s="5">
         <v>500.0</v>
@@ -11512,7 +11614,7 @@
         <v>18</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F129" s="5">
         <v>1800.0</v>
@@ -11530,7 +11632,7 @@
         <v>18</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
@@ -11549,7 +11651,7 @@
         <v>18</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F131" s="5">
         <v>400.0</v>
@@ -11567,7 +11669,7 @@
         <v>18</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F132" s="5">
         <v>20000.0</v>
@@ -11585,7 +11687,7 @@
         <v>18</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F133" s="5">
         <v>10000.0</v>
@@ -11603,16 +11705,16 @@
         <v>24</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F134" s="5">
         <v>22000.0</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
@@ -11626,10 +11728,10 @@
         <v>24</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F135" s="5">
         <v>28576.0</v>
@@ -11647,13 +11749,13 @@
         <v>24</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F136" s="5">
         <v>14000.0</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
@@ -11664,19 +11766,19 @@
         <v>2021.0</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F137" s="5">
         <v>12000.0</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -11690,10 +11792,10 @@
         <v>90</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F138" s="5">
         <v>1500.0</v>
@@ -11711,13 +11813,13 @@
         <v>24</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F139" s="5">
         <v>1600.0</v>
       </c>
       <c r="G139" s="25" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
@@ -11731,10 +11833,10 @@
         <v>24</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F140" s="5">
         <v>2300.0</v>
@@ -11752,16 +11854,16 @@
         <v>90</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F141" s="5">
         <v>13400.0</v>
       </c>
       <c r="G141" s="25" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
@@ -11772,19 +11874,19 @@
         <v>2021.0</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F142" s="5">
         <v>11284.0</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
@@ -11795,19 +11897,19 @@
         <v>2021.0</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F143" s="5">
         <v>25249.0</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
@@ -11821,7 +11923,7 @@
         <v>90</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E144" s="28"/>
       <c r="F144" s="5">
@@ -11840,13 +11942,13 @@
         <v>90</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F145" s="5">
         <v>17200.0</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
@@ -11860,13 +11962,13 @@
         <v>90</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F146" s="5">
         <v>426.0</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
@@ -11880,13 +11982,13 @@
         <v>90</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F147" s="5">
         <v>15000.0</v>
       </c>
       <c r="G147" s="25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -11900,13 +12002,13 @@
         <v>80</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F148" s="5">
         <v>758.0</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
@@ -11920,13 +12022,13 @@
         <v>18</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F149" s="5">
         <v>12000.0</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
@@ -11940,13 +12042,13 @@
         <v>18</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F150" s="5">
         <v>3420.0</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
@@ -11960,7 +12062,7 @@
         <v>18</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F151" s="5">
         <v>60000.0</v>
@@ -11978,10 +12080,10 @@
         <v>18</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="10"/>
@@ -11997,16 +12099,16 @@
         <v>32</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F153" s="5">
         <v>8055.0</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
@@ -12020,16 +12122,16 @@
         <v>32</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F154" s="5">
         <v>600.0</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
@@ -12043,16 +12145,16 @@
         <v>32</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F155" s="5">
         <v>23000.0</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
@@ -12066,16 +12168,16 @@
         <v>32</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F156" s="5">
         <v>23000.0</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
@@ -12089,7 +12191,7 @@
         <v>32</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F157" s="5">
         <v>16000.0</v>
@@ -12107,7 +12209,7 @@
         <v>32</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F158" s="5">
         <v>16300.0</v>
@@ -12125,7 +12227,7 @@
         <v>32</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F159" s="5">
         <v>3200.0</v>
@@ -12140,10 +12242,10 @@
         <v>2023.0</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F160" s="14">
         <v>1184.0</v>
@@ -12160,7 +12262,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F161" s="14">
         <v>35000.0</v>
@@ -13442,13 +13544,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -13456,7 +13558,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C2" s="29">
         <v>44896.0</v>
@@ -13467,7 +13569,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
@@ -13478,7 +13580,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C4" s="30">
         <v>45394.0</v>
@@ -13489,7 +13591,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C5" s="29">
         <v>44052.0</v>
@@ -13500,7 +13602,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C6" s="29">
         <v>41343.0</v>
@@ -13511,7 +13613,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C7" s="29">
         <v>45113.0</v>
@@ -13522,7 +13624,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C8" s="31">
         <v>45323.0</v>
@@ -13533,7 +13635,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C9" s="30">
         <v>45394.0</v>
@@ -13544,7 +13646,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C10" s="29">
         <v>44052.0</v>
@@ -13555,7 +13657,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C11" s="29">
         <v>40822.0</v>
@@ -14572,22 +14674,22 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -14595,7 +14697,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6">
         <v>45028.0</v>
@@ -14615,7 +14717,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C3" s="15">
         <v>45063.0</v>
@@ -14630,7 +14732,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -14645,7 +14747,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -14660,7 +14762,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -14675,7 +14777,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>17</v>
@@ -14690,7 +14792,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
@@ -14705,7 +14807,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
@@ -16359,156 +16461,156 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="D3" s="32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>348</v>
-      </c>
       <c r="C9" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -1295,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1330,7 +1330,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1366,9 +1366,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1739,18 +1736,18 @@
       </c>
       <c r="N2" s="5">
         <f>SUM(J2:J1001)</f>
-        <v>879684</v>
+        <v>893740.55</v>
       </c>
       <c r="O2" s="5">
         <f>N2-gastos!H2</f>
-        <v>69488</v>
+        <v>83544.55</v>
       </c>
       <c r="P2" s="2">
         <v>930.0</v>
       </c>
       <c r="Q2" s="5">
         <f>sum(O2+P2)</f>
-        <v>70418</v>
+        <v>84474.55</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -6887,11 +6884,11 @@
         <v>29056.55</v>
       </c>
       <c r="J144" s="14">
-        <v>15000.0</v>
+        <v>29056.55</v>
       </c>
       <c r="K144" s="8">
         <f t="shared" si="5"/>
-        <v>14056.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
@@ -7047,7 +7044,7 @@
     <row r="149" ht="15.75" customHeight="1">
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="J149" s="8"/>
+      <c r="J149" s="5"/>
       <c r="K149" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7056,1099 +7053,1099 @@
     <row r="150" ht="15.75" customHeight="1">
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
-      <c r="J150" s="8"/>
+      <c r="J150" s="5"/>
       <c r="K150" s="8"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
-      <c r="J151" s="8"/>
+      <c r="J151" s="5"/>
       <c r="K151" s="8"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
-      <c r="J152" s="8"/>
+      <c r="J152" s="5"/>
       <c r="K152" s="8"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
-      <c r="J153" s="8"/>
+      <c r="J153" s="5"/>
       <c r="K153" s="8"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
-      <c r="J154" s="8"/>
+      <c r="J154" s="5"/>
       <c r="K154" s="8"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
-      <c r="J155" s="8"/>
+      <c r="J155" s="5"/>
       <c r="K155" s="8"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
-      <c r="J156" s="8"/>
+      <c r="J156" s="5"/>
       <c r="K156" s="8"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
-      <c r="J157" s="8"/>
+      <c r="J157" s="5"/>
       <c r="K157" s="8"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
-      <c r="J158" s="8"/>
+      <c r="J158" s="5"/>
       <c r="K158" s="8"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
-      <c r="J159" s="8"/>
+      <c r="J159" s="5"/>
       <c r="K159" s="8"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
-      <c r="J160" s="8"/>
+      <c r="J160" s="5"/>
       <c r="K160" s="8"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
-      <c r="J161" s="8"/>
+      <c r="J161" s="5"/>
       <c r="K161" s="8"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
-      <c r="J162" s="8"/>
+      <c r="J162" s="5"/>
       <c r="K162" s="8"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
-      <c r="J163" s="8"/>
+      <c r="J163" s="5"/>
       <c r="K163" s="8"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
-      <c r="J164" s="8"/>
+      <c r="J164" s="5"/>
       <c r="K164" s="8"/>
       <c r="U164" s="10"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
-      <c r="J165" s="8"/>
+      <c r="J165" s="5"/>
       <c r="K165" s="8"/>
       <c r="U165" s="10"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
-      <c r="J166" s="8"/>
+      <c r="J166" s="5"/>
       <c r="K166" s="8"/>
       <c r="U166" s="10"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
-      <c r="J167" s="8"/>
+      <c r="J167" s="5"/>
       <c r="K167" s="8"/>
       <c r="U167" s="10"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
-      <c r="J168" s="8"/>
+      <c r="J168" s="5"/>
       <c r="K168" s="8"/>
       <c r="U168" s="10"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
-      <c r="J169" s="8"/>
+      <c r="J169" s="5"/>
       <c r="K169" s="8"/>
       <c r="U169" s="10"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
-      <c r="J170" s="8"/>
+      <c r="J170" s="5"/>
       <c r="K170" s="8"/>
       <c r="U170" s="10"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
-      <c r="J171" s="8"/>
+      <c r="J171" s="5"/>
       <c r="K171" s="8"/>
       <c r="U171" s="10"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
-      <c r="J172" s="8"/>
+      <c r="J172" s="5"/>
       <c r="K172" s="8"/>
       <c r="U172" s="10"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
-      <c r="J173" s="8"/>
+      <c r="J173" s="5"/>
       <c r="K173" s="8"/>
       <c r="U173" s="10"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
-      <c r="J174" s="8"/>
+      <c r="J174" s="5"/>
       <c r="K174" s="8"/>
       <c r="U174" s="10"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
-      <c r="J175" s="8"/>
+      <c r="J175" s="5"/>
       <c r="K175" s="8"/>
       <c r="U175" s="10"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
-      <c r="J176" s="8"/>
+      <c r="J176" s="5"/>
       <c r="K176" s="8"/>
       <c r="U176" s="10"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
-      <c r="J177" s="8"/>
+      <c r="J177" s="5"/>
       <c r="K177" s="8"/>
       <c r="U177" s="10"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
-      <c r="J178" s="8"/>
+      <c r="J178" s="5"/>
       <c r="K178" s="8"/>
       <c r="U178" s="10"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
-      <c r="J179" s="8"/>
+      <c r="J179" s="5"/>
       <c r="K179" s="8"/>
       <c r="U179" s="10"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
-      <c r="J180" s="8"/>
+      <c r="J180" s="5"/>
       <c r="K180" s="8"/>
       <c r="U180" s="10"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="J181" s="8"/>
+      <c r="J181" s="5"/>
       <c r="K181" s="8"/>
       <c r="U181" s="10"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
-      <c r="J182" s="8"/>
+      <c r="J182" s="5"/>
       <c r="K182" s="8"/>
       <c r="U182" s="10"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
-      <c r="J183" s="8"/>
+      <c r="J183" s="5"/>
       <c r="K183" s="8"/>
       <c r="U183" s="10"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
-      <c r="J184" s="8"/>
+      <c r="J184" s="5"/>
       <c r="K184" s="8"/>
       <c r="U184" s="10"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
-      <c r="J185" s="8"/>
+      <c r="J185" s="5"/>
       <c r="K185" s="8"/>
       <c r="U185" s="10"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
-      <c r="J186" s="8"/>
+      <c r="J186" s="5"/>
       <c r="K186" s="8"/>
       <c r="U186" s="10"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
-      <c r="J187" s="8"/>
+      <c r="J187" s="5"/>
       <c r="K187" s="8"/>
       <c r="U187" s="10"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
-      <c r="J188" s="8"/>
+      <c r="J188" s="5"/>
       <c r="K188" s="8"/>
       <c r="U188" s="10"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
-      <c r="J189" s="8"/>
+      <c r="J189" s="5"/>
       <c r="K189" s="8"/>
       <c r="U189" s="10"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
-      <c r="J190" s="8"/>
+      <c r="J190" s="5"/>
       <c r="K190" s="8"/>
       <c r="U190" s="10"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
-      <c r="J191" s="8"/>
+      <c r="J191" s="5"/>
       <c r="K191" s="8"/>
       <c r="U191" s="10"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
-      <c r="J192" s="8"/>
+      <c r="J192" s="5"/>
       <c r="K192" s="8"/>
       <c r="U192" s="10"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
-      <c r="J193" s="8"/>
+      <c r="J193" s="5"/>
       <c r="K193" s="8"/>
       <c r="U193" s="10"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
-      <c r="J194" s="8"/>
+      <c r="J194" s="5"/>
       <c r="K194" s="8"/>
       <c r="U194" s="10"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
-      <c r="J195" s="8"/>
+      <c r="J195" s="5"/>
       <c r="K195" s="8"/>
       <c r="U195" s="10"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
-      <c r="J196" s="8"/>
+      <c r="J196" s="5"/>
       <c r="K196" s="8"/>
       <c r="U196" s="10"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
-      <c r="J197" s="8"/>
+      <c r="J197" s="5"/>
       <c r="K197" s="8"/>
       <c r="U197" s="10"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
-      <c r="J198" s="8"/>
+      <c r="J198" s="5"/>
       <c r="K198" s="8"/>
       <c r="U198" s="10"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
-      <c r="J199" s="8"/>
+      <c r="J199" s="5"/>
       <c r="K199" s="8"/>
       <c r="U199" s="10"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
-      <c r="J200" s="8"/>
+      <c r="J200" s="5"/>
       <c r="K200" s="8"/>
       <c r="U200" s="10"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
-      <c r="J201" s="8"/>
+      <c r="J201" s="5"/>
       <c r="K201" s="8"/>
       <c r="U201" s="10"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
-      <c r="J202" s="8"/>
+      <c r="J202" s="5"/>
       <c r="K202" s="8"/>
       <c r="U202" s="10"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
-      <c r="J203" s="8"/>
+      <c r="J203" s="5"/>
       <c r="K203" s="8"/>
       <c r="U203" s="10"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
-      <c r="J204" s="8"/>
+      <c r="J204" s="5"/>
       <c r="K204" s="8"/>
       <c r="U204" s="10"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
-      <c r="J205" s="8"/>
+      <c r="J205" s="5"/>
       <c r="K205" s="8"/>
       <c r="U205" s="10"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
-      <c r="J206" s="8"/>
+      <c r="J206" s="5"/>
       <c r="K206" s="8"/>
       <c r="U206" s="10"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
-      <c r="J207" s="8"/>
+      <c r="J207" s="5"/>
       <c r="K207" s="8"/>
       <c r="U207" s="10"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
-      <c r="J208" s="8"/>
+      <c r="J208" s="5"/>
       <c r="K208" s="8"/>
       <c r="U208" s="10"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
-      <c r="J209" s="8"/>
+      <c r="J209" s="5"/>
       <c r="K209" s="8"/>
       <c r="U209" s="10"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
-      <c r="J210" s="8"/>
+      <c r="J210" s="5"/>
       <c r="K210" s="8"/>
       <c r="U210" s="10"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
-      <c r="J211" s="8"/>
+      <c r="J211" s="5"/>
       <c r="K211" s="8"/>
       <c r="U211" s="10"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
-      <c r="J212" s="8"/>
+      <c r="J212" s="5"/>
       <c r="K212" s="8"/>
       <c r="U212" s="10"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
-      <c r="J213" s="8"/>
+      <c r="J213" s="5"/>
       <c r="K213" s="8"/>
       <c r="U213" s="10"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
-      <c r="J214" s="8"/>
+      <c r="J214" s="5"/>
       <c r="K214" s="8"/>
       <c r="U214" s="10"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
-      <c r="J215" s="8"/>
+      <c r="J215" s="5"/>
       <c r="K215" s="8"/>
       <c r="U215" s="10"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
-      <c r="J216" s="8"/>
+      <c r="J216" s="5"/>
       <c r="K216" s="8"/>
       <c r="U216" s="10"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
-      <c r="J217" s="8"/>
+      <c r="J217" s="5"/>
       <c r="K217" s="8"/>
       <c r="U217" s="10"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
-      <c r="J218" s="8"/>
+      <c r="J218" s="5"/>
       <c r="K218" s="8"/>
       <c r="U218" s="10"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
-      <c r="J219" s="8"/>
+      <c r="J219" s="5"/>
       <c r="K219" s="8"/>
       <c r="U219" s="10"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
-      <c r="J220" s="8"/>
+      <c r="J220" s="5"/>
       <c r="K220" s="8"/>
       <c r="U220" s="10"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
-      <c r="J221" s="8"/>
+      <c r="J221" s="5"/>
       <c r="K221" s="8"/>
       <c r="U221" s="10"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
-      <c r="J222" s="8"/>
+      <c r="J222" s="5"/>
       <c r="K222" s="8"/>
       <c r="U222" s="10"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
-      <c r="J223" s="8"/>
+      <c r="J223" s="5"/>
       <c r="K223" s="8"/>
       <c r="U223" s="10"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
-      <c r="J224" s="8"/>
+      <c r="J224" s="5"/>
       <c r="K224" s="8"/>
       <c r="U224" s="10"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
-      <c r="J225" s="8"/>
+      <c r="J225" s="5"/>
       <c r="K225" s="8"/>
       <c r="U225" s="10"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
-      <c r="J226" s="8"/>
+      <c r="J226" s="5"/>
       <c r="K226" s="8"/>
       <c r="U226" s="10"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
-      <c r="J227" s="8"/>
+      <c r="J227" s="5"/>
       <c r="K227" s="8"/>
       <c r="U227" s="10"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
-      <c r="J228" s="8"/>
+      <c r="J228" s="5"/>
       <c r="K228" s="8"/>
       <c r="U228" s="10"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
-      <c r="J229" s="8"/>
+      <c r="J229" s="5"/>
       <c r="K229" s="8"/>
       <c r="U229" s="10"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
-      <c r="J230" s="8"/>
+      <c r="J230" s="5"/>
       <c r="K230" s="8"/>
       <c r="U230" s="10"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
-      <c r="J231" s="8"/>
+      <c r="J231" s="5"/>
       <c r="K231" s="8"/>
       <c r="U231" s="10"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
-      <c r="J232" s="8"/>
+      <c r="J232" s="5"/>
       <c r="K232" s="8"/>
       <c r="U232" s="10"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
-      <c r="J233" s="8"/>
+      <c r="J233" s="5"/>
       <c r="K233" s="8"/>
       <c r="U233" s="10"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
-      <c r="J234" s="8"/>
+      <c r="J234" s="5"/>
       <c r="K234" s="8"/>
       <c r="U234" s="10"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
-      <c r="J235" s="8"/>
+      <c r="J235" s="5"/>
       <c r="K235" s="8"/>
       <c r="U235" s="10"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
-      <c r="J236" s="8"/>
+      <c r="J236" s="5"/>
       <c r="K236" s="8"/>
       <c r="U236" s="10"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
-      <c r="J237" s="8"/>
+      <c r="J237" s="5"/>
       <c r="K237" s="8"/>
       <c r="U237" s="10"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
-      <c r="J238" s="8"/>
+      <c r="J238" s="5"/>
       <c r="K238" s="8"/>
       <c r="U238" s="10"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
-      <c r="J239" s="8"/>
+      <c r="J239" s="5"/>
       <c r="K239" s="8"/>
       <c r="U239" s="10"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
-      <c r="J240" s="8"/>
+      <c r="J240" s="5"/>
       <c r="K240" s="8"/>
       <c r="U240" s="10"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
-      <c r="J241" s="8"/>
+      <c r="J241" s="5"/>
       <c r="K241" s="8"/>
       <c r="U241" s="10"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
-      <c r="J242" s="8"/>
+      <c r="J242" s="5"/>
       <c r="K242" s="8"/>
       <c r="U242" s="10"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
-      <c r="J243" s="8"/>
+      <c r="J243" s="5"/>
       <c r="K243" s="8"/>
       <c r="U243" s="10"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
-      <c r="J244" s="8"/>
+      <c r="J244" s="5"/>
       <c r="K244" s="8"/>
       <c r="U244" s="10"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
-      <c r="J245" s="8"/>
+      <c r="J245" s="5"/>
       <c r="K245" s="8"/>
       <c r="U245" s="10"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
-      <c r="J246" s="8"/>
+      <c r="J246" s="5"/>
       <c r="K246" s="8"/>
       <c r="U246" s="10"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
-      <c r="J247" s="8"/>
+      <c r="J247" s="5"/>
       <c r="K247" s="8"/>
       <c r="U247" s="10"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
-      <c r="J248" s="8"/>
+      <c r="J248" s="5"/>
       <c r="K248" s="8"/>
       <c r="U248" s="10"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
-      <c r="J249" s="8"/>
+      <c r="J249" s="5"/>
       <c r="K249" s="8"/>
       <c r="U249" s="10"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
-      <c r="J250" s="8"/>
+      <c r="J250" s="5"/>
       <c r="K250" s="8"/>
       <c r="U250" s="10"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
-      <c r="J251" s="8"/>
+      <c r="J251" s="5"/>
       <c r="K251" s="8"/>
       <c r="U251" s="10"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
-      <c r="J252" s="8"/>
+      <c r="J252" s="5"/>
       <c r="K252" s="8"/>
       <c r="U252" s="10"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
-      <c r="J253" s="8"/>
+      <c r="J253" s="5"/>
       <c r="K253" s="8"/>
       <c r="U253" s="10"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
-      <c r="J254" s="8"/>
+      <c r="J254" s="5"/>
       <c r="K254" s="8"/>
       <c r="U254" s="10"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
-      <c r="J255" s="8"/>
+      <c r="J255" s="5"/>
       <c r="K255" s="8"/>
       <c r="U255" s="10"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
-      <c r="J256" s="8"/>
+      <c r="J256" s="5"/>
       <c r="K256" s="8"/>
       <c r="U256" s="10"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
-      <c r="J257" s="8"/>
+      <c r="J257" s="5"/>
       <c r="K257" s="8"/>
       <c r="U257" s="10"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
-      <c r="J258" s="8"/>
+      <c r="J258" s="5"/>
       <c r="K258" s="8"/>
       <c r="U258" s="10"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
-      <c r="J259" s="8"/>
+      <c r="J259" s="5"/>
       <c r="K259" s="8"/>
       <c r="U259" s="10"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
-      <c r="J260" s="8"/>
+      <c r="J260" s="5"/>
       <c r="K260" s="8"/>
       <c r="U260" s="10"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
-      <c r="J261" s="8"/>
+      <c r="J261" s="5"/>
       <c r="K261" s="8"/>
       <c r="U261" s="10"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
-      <c r="J262" s="8"/>
+      <c r="J262" s="5"/>
       <c r="K262" s="8"/>
       <c r="U262" s="10"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
-      <c r="J263" s="8"/>
+      <c r="J263" s="5"/>
       <c r="K263" s="8"/>
       <c r="U263" s="10"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
-      <c r="J264" s="8"/>
+      <c r="J264" s="5"/>
       <c r="K264" s="8"/>
       <c r="U264" s="10"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
-      <c r="J265" s="8"/>
+      <c r="J265" s="5"/>
       <c r="K265" s="8"/>
       <c r="U265" s="10"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
-      <c r="J266" s="8"/>
+      <c r="J266" s="5"/>
       <c r="K266" s="8"/>
       <c r="U266" s="10"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
-      <c r="J267" s="8"/>
+      <c r="J267" s="5"/>
       <c r="K267" s="8"/>
       <c r="U267" s="10"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
-      <c r="J268" s="8"/>
+      <c r="J268" s="5"/>
       <c r="K268" s="8"/>
       <c r="U268" s="10"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
-      <c r="J269" s="8"/>
+      <c r="J269" s="5"/>
       <c r="K269" s="8"/>
       <c r="U269" s="10"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
-      <c r="J270" s="8"/>
+      <c r="J270" s="5"/>
       <c r="K270" s="8"/>
       <c r="U270" s="10"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
-      <c r="J271" s="8"/>
+      <c r="J271" s="5"/>
       <c r="K271" s="8"/>
       <c r="U271" s="10"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
-      <c r="J272" s="8"/>
+      <c r="J272" s="5"/>
       <c r="K272" s="8"/>
       <c r="U272" s="10"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
-      <c r="J273" s="8"/>
+      <c r="J273" s="5"/>
       <c r="K273" s="8"/>
       <c r="U273" s="10"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
-      <c r="J274" s="8"/>
+      <c r="J274" s="5"/>
       <c r="K274" s="8"/>
       <c r="U274" s="10"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
-      <c r="J275" s="8"/>
+      <c r="J275" s="5"/>
       <c r="K275" s="8"/>
       <c r="U275" s="10"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
-      <c r="J276" s="8"/>
+      <c r="J276" s="5"/>
       <c r="K276" s="8"/>
       <c r="U276" s="10"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
-      <c r="J277" s="8"/>
+      <c r="J277" s="5"/>
       <c r="K277" s="8"/>
       <c r="U277" s="10"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
-      <c r="J278" s="8"/>
+      <c r="J278" s="5"/>
       <c r="K278" s="8"/>
       <c r="U278" s="10"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
-      <c r="J279" s="8"/>
+      <c r="J279" s="5"/>
       <c r="K279" s="8"/>
       <c r="U279" s="10"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
-      <c r="J280" s="8"/>
+      <c r="J280" s="5"/>
       <c r="K280" s="8"/>
       <c r="U280" s="10"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
-      <c r="J281" s="8"/>
+      <c r="J281" s="5"/>
       <c r="K281" s="8"/>
       <c r="U281" s="10"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
-      <c r="J282" s="8"/>
+      <c r="J282" s="5"/>
       <c r="K282" s="8"/>
       <c r="U282" s="10"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
-      <c r="J283" s="8"/>
+      <c r="J283" s="5"/>
       <c r="K283" s="8"/>
       <c r="U283" s="10"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
-      <c r="J284" s="8"/>
+      <c r="J284" s="5"/>
       <c r="K284" s="8"/>
       <c r="U284" s="10"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
-      <c r="J285" s="8"/>
+      <c r="J285" s="5"/>
       <c r="K285" s="8"/>
       <c r="U285" s="10"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
-      <c r="J286" s="8"/>
+      <c r="J286" s="5"/>
       <c r="K286" s="8"/>
       <c r="U286" s="10"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
-      <c r="J287" s="8"/>
+      <c r="J287" s="5"/>
       <c r="K287" s="8"/>
       <c r="U287" s="10"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
-      <c r="J288" s="8"/>
+      <c r="J288" s="5"/>
       <c r="K288" s="8"/>
       <c r="U288" s="10"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
-      <c r="J289" s="8"/>
+      <c r="J289" s="5"/>
       <c r="K289" s="8"/>
       <c r="U289" s="10"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
-      <c r="J290" s="8"/>
+      <c r="J290" s="5"/>
       <c r="K290" s="8"/>
       <c r="U290" s="10"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
-      <c r="J291" s="8"/>
+      <c r="J291" s="5"/>
       <c r="K291" s="8"/>
       <c r="U291" s="10"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
-      <c r="J292" s="8"/>
+      <c r="J292" s="5"/>
       <c r="K292" s="8"/>
       <c r="U292" s="10"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
-      <c r="J293" s="8"/>
+      <c r="J293" s="5"/>
       <c r="K293" s="8"/>
       <c r="U293" s="10"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
-      <c r="J294" s="8"/>
+      <c r="J294" s="5"/>
       <c r="K294" s="8"/>
       <c r="U294" s="10"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
-      <c r="J295" s="8"/>
+      <c r="J295" s="5"/>
       <c r="K295" s="8"/>
       <c r="U295" s="10"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
-      <c r="J296" s="8"/>
+      <c r="J296" s="5"/>
       <c r="K296" s="8"/>
       <c r="U296" s="10"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
-      <c r="J297" s="8"/>
+      <c r="J297" s="5"/>
       <c r="K297" s="8"/>
       <c r="U297" s="10"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
-      <c r="J298" s="8"/>
+      <c r="J298" s="5"/>
       <c r="K298" s="8"/>
       <c r="U298" s="10"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
-      <c r="J299" s="8"/>
+      <c r="J299" s="5"/>
       <c r="K299" s="8"/>
       <c r="U299" s="10"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
-      <c r="J300" s="8"/>
+      <c r="J300" s="5"/>
       <c r="K300" s="8"/>
       <c r="U300" s="10"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
-      <c r="J301" s="8"/>
+      <c r="J301" s="5"/>
       <c r="K301" s="8"/>
       <c r="U301" s="10"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
-      <c r="J302" s="8"/>
+      <c r="J302" s="5"/>
       <c r="K302" s="8"/>
       <c r="U302" s="10"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
-      <c r="J303" s="8"/>
+      <c r="J303" s="5"/>
       <c r="K303" s="8"/>
       <c r="U303" s="10"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
-      <c r="J304" s="8"/>
+      <c r="J304" s="5"/>
       <c r="K304" s="8"/>
       <c r="U304" s="10"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
-      <c r="J305" s="8"/>
+      <c r="J305" s="5"/>
       <c r="K305" s="8"/>
       <c r="U305" s="10"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
-      <c r="J306" s="8"/>
+      <c r="J306" s="5"/>
       <c r="K306" s="8"/>
       <c r="U306" s="10"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
-      <c r="J307" s="8"/>
+      <c r="J307" s="5"/>
       <c r="K307" s="8"/>
       <c r="U307" s="10"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
-      <c r="J308" s="8"/>
+      <c r="J308" s="5"/>
       <c r="K308" s="8"/>
       <c r="U308" s="10"/>
     </row>
@@ -14722,7 +14719,7 @@
       <c r="C3" s="15">
         <v>45063.0</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="16">
         <v>123456.0</v>
       </c>
       <c r="F3" s="6"/>
@@ -16488,7 +16485,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -16497,12 +16494,12 @@
       <c r="C3" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>343</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -16516,7 +16513,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>345</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -16525,7 +16522,7 @@
       <c r="C5" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="16" t="s">
         <v>341</v>
       </c>
     </row>
@@ -16544,7 +16541,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>349</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -16558,7 +16555,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>351</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -16572,7 +16569,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>352</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -16586,7 +16583,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>353</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -16600,7 +16597,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>354</v>
       </c>
       <c r="B11" s="14" t="s">

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="355">
   <si>
     <t>usuario</t>
   </si>
@@ -7042,12 +7042,39 @@
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="J149" s="5"/>
+      <c r="A149" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="14">
+        <v>2023.0</v>
+      </c>
+      <c r="E149" s="15">
+        <v>45093.0</v>
+      </c>
+      <c r="F149" s="15">
+        <v>45095.0</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H149" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="I149" s="14">
+        <v>32307.0</v>
+      </c>
+      <c r="J149" s="16">
+        <v>0.0</v>
+      </c>
       <c r="K149" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>32307</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="iDjBDSj0dPaZq0ailZ5LG4423jZyENXXXVGMTP1vh5w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="dTiPhSRaOPPddKf80d/FSETynhroJkbTfTjGE0+72bU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="355">
   <si>
     <t>usuario</t>
   </si>
@@ -1735,19 +1735,19 @@
         <v>20</v>
       </c>
       <c r="N2" s="5">
-        <f>SUM(J2:J1001)</f>
-        <v>893740.55</v>
+        <f>SUM(J2:J1000)</f>
+        <v>926047.55</v>
       </c>
       <c r="O2" s="5">
         <f>N2-gastos!H2</f>
-        <v>83544.55</v>
+        <v>115851.55</v>
       </c>
       <c r="P2" s="2">
         <v>930.0</v>
       </c>
       <c r="Q2" s="5">
         <f>sum(O2+P2)</f>
-        <v>84474.55</v>
+        <v>116781.55</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -6307,7 +6307,7 @@
         <v>9000.0</v>
       </c>
       <c r="K128" s="8">
-        <f t="shared" ref="K128:K149" si="5">I128-J128</f>
+        <f t="shared" ref="K128:K148" si="5">I128-J128</f>
         <v>0</v>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>17</v>
@@ -6983,31 +6983,31 @@
         <v>2023.0</v>
       </c>
       <c r="E147" s="15">
-        <v>45071.0</v>
+        <v>45075.0</v>
       </c>
       <c r="F147" s="15">
-        <v>45074.0</v>
+        <v>45077.0</v>
       </c>
       <c r="G147" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H147" s="14">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I147" s="14">
-        <v>40634.0</v>
+        <v>30475.0</v>
       </c>
       <c r="J147" s="16">
         <v>0.0</v>
       </c>
       <c r="K147" s="8">
         <f t="shared" si="5"/>
-        <v>40634</v>
+        <v>30475</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>17</v>
@@ -7019,10 +7019,10 @@
         <v>2023.0</v>
       </c>
       <c r="E148" s="15">
-        <v>45075.0</v>
+        <v>45093.0</v>
       </c>
       <c r="F148" s="15">
-        <v>45077.0</v>
+        <v>45095.0</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>32</v>
@@ -7031,51 +7031,21 @@
         <v>3.0</v>
       </c>
       <c r="I148" s="14">
-        <v>30475.0</v>
-      </c>
-      <c r="J148" s="16">
-        <v>0.0</v>
+        <v>32307.0</v>
+      </c>
+      <c r="J148" s="14">
+        <v>32307.0</v>
       </c>
       <c r="K148" s="8">
         <f t="shared" si="5"/>
-        <v>30475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="14">
-        <v>2023.0</v>
-      </c>
-      <c r="E149" s="15">
-        <v>45093.0</v>
-      </c>
-      <c r="F149" s="15">
-        <v>45095.0</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H149" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="I149" s="14">
-        <v>32307.0</v>
-      </c>
-      <c r="J149" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="K149" s="8">
-        <f t="shared" si="5"/>
-        <v>32307</v>
-      </c>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="8"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="E150" s="6"/>
@@ -7160,6 +7130,7 @@
       <c r="F163" s="6"/>
       <c r="J163" s="5"/>
       <c r="K163" s="8"/>
+      <c r="U163" s="10"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="E164" s="6"/>
@@ -8172,7 +8143,6 @@
     <row r="308" ht="15.75" customHeight="1">
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
-      <c r="J308" s="5"/>
       <c r="K308" s="8"/>
       <c r="U308" s="10"/>
     </row>
@@ -8191,7 +8161,6 @@
     <row r="311" ht="15.75" customHeight="1">
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
-      <c r="K311" s="8"/>
       <c r="U311" s="10"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
@@ -8349,11 +8318,7 @@
       <c r="F342" s="6"/>
       <c r="U342" s="10"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="E343" s="6"/>
-      <c r="F343" s="6"/>
-      <c r="U343" s="10"/>
-    </row>
+    <row r="343" ht="15.75" customHeight="1"/>
     <row r="344" ht="15.75" customHeight="1"/>
     <row r="345" ht="15.75" customHeight="1"/>
     <row r="346" ht="15.75" customHeight="1"/>
@@ -9010,14 +8975,13 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="J2:J108 K2:K1000 J113:J124 J128:J143 J145:J1000">
+  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J149:J999">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J108 K2:K1000 J113:J124 J128:J143 J145:J1000">
+  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J149:J999">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="355">
   <si>
     <t>usuario</t>
   </si>
@@ -1736,18 +1736,18 @@
       </c>
       <c r="N2" s="5">
         <f>SUM(J2:J1000)</f>
-        <v>926047.55</v>
+        <v>956522.55</v>
       </c>
       <c r="O2" s="5">
         <f>N2-gastos!H2</f>
-        <v>115851.55</v>
+        <v>146326.55</v>
       </c>
       <c r="P2" s="2">
         <v>930.0</v>
       </c>
       <c r="Q2" s="5">
         <f>sum(O2+P2)</f>
-        <v>116781.55</v>
+        <v>147256.55</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -6307,7 +6307,7 @@
         <v>9000.0</v>
       </c>
       <c r="K128" s="8">
-        <f t="shared" ref="K128:K148" si="5">I128-J128</f>
+        <f t="shared" ref="K128:K149" si="5">I128-J128</f>
         <v>0</v>
       </c>
     </row>
@@ -6998,11 +6998,11 @@
         <v>30475.0</v>
       </c>
       <c r="J147" s="16">
-        <v>0.0</v>
+        <v>30475.0</v>
       </c>
       <c r="K147" s="8">
         <f t="shared" si="5"/>
-        <v>30475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -7042,10 +7042,38 @@
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
+      <c r="A149" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="14">
+        <v>2023.0</v>
+      </c>
+      <c r="E149" s="15">
+        <v>45146.0</v>
+      </c>
+      <c r="F149" s="15">
+        <v>45148.0</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H149" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="I149" s="14">
+        <v>35277.0</v>
+      </c>
       <c r="J149" s="5"/>
-      <c r="K149" s="8"/>
+      <c r="K149" s="8">
+        <f t="shared" si="5"/>
+        <v>35277</v>
+      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="E150" s="6"/>

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="360">
   <si>
     <t>usuario</t>
   </si>
@@ -514,6 +514,12 @@
     <t>Paga proyecto</t>
   </si>
   <si>
+    <t>nachu-rox-caro</t>
+  </si>
+  <si>
+    <t>sofia marinaro</t>
+  </si>
+  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -1092,6 +1098,9 @@
   </si>
   <si>
     <t>vtv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tanque nafta y filtro gasoil</t>
   </si>
   <si>
     <t>elemento</t>
@@ -1350,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1391,8 +1400,11 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1431,16 +1443,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="14" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1811,18 +1823,18 @@
       </c>
       <c r="N2" s="6">
         <f>SUM(J2:J1000)</f>
-        <v>956522.55</v>
+        <v>1031482.05</v>
       </c>
       <c r="O2" s="6">
         <f>N2-gastos!H2</f>
-        <v>109676.55</v>
+        <v>130436.05</v>
       </c>
       <c r="P2" s="5">
         <v>930.0</v>
       </c>
       <c r="Q2" s="6">
         <f>sum(O2+P2)</f>
-        <v>110606.55</v>
+        <v>131366.05</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -7280,1282 +7292,1336 @@
       <c r="I149" s="17">
         <v>35277.0</v>
       </c>
-      <c r="J149" s="7"/>
+      <c r="J149" s="17">
+        <v>35277.0</v>
+      </c>
       <c r="K149" s="10">
         <f t="shared" si="5"/>
-        <v>35277</v>
+        <v>0</v>
       </c>
       <c r="L149" s="11"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
+      <c r="A150" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E150" s="18">
+        <v>45188.0</v>
+      </c>
+      <c r="F150" s="18">
+        <v>45189.0</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="I150" s="20">
+        <v>26455.0</v>
+      </c>
       <c r="J150" s="6"/>
       <c r="K150" s="21"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="E151" s="20"/>
-      <c r="F151" s="20"/>
-      <c r="J151" s="6"/>
+      <c r="A151" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E151" s="18">
+        <v>45190.0</v>
+      </c>
+      <c r="F151" s="18">
+        <v>45192.0</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H151" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="I151" s="20">
+        <v>39682.5</v>
+      </c>
+      <c r="J151" s="20">
+        <v>39682.5</v>
+      </c>
       <c r="K151" s="21"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
       <c r="J152" s="6"/>
       <c r="K152" s="21"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
       <c r="J153" s="6"/>
       <c r="K153" s="21"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
       <c r="J154" s="6"/>
       <c r="K154" s="21"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
       <c r="J155" s="6"/>
       <c r="K155" s="21"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="E156" s="20"/>
-      <c r="F156" s="20"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
       <c r="J156" s="6"/>
       <c r="K156" s="21"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
       <c r="J157" s="6"/>
       <c r="K157" s="21"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
       <c r="J158" s="6"/>
       <c r="K158" s="21"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
       <c r="J159" s="6"/>
       <c r="K159" s="21"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
       <c r="J160" s="6"/>
       <c r="K160" s="21"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
       <c r="J161" s="6"/>
       <c r="K161" s="21"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="E162" s="20"/>
-      <c r="F162" s="20"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
       <c r="J162" s="6"/>
       <c r="K162" s="21"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
       <c r="J163" s="6"/>
       <c r="K163" s="21"/>
       <c r="U163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
       <c r="J164" s="6"/>
       <c r="K164" s="21"/>
       <c r="U164" s="13"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
       <c r="J165" s="6"/>
       <c r="K165" s="21"/>
       <c r="U165" s="13"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
       <c r="J166" s="6"/>
       <c r="K166" s="21"/>
       <c r="U166" s="13"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
       <c r="J167" s="6"/>
       <c r="K167" s="21"/>
       <c r="U167" s="13"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
       <c r="J168" s="6"/>
       <c r="K168" s="21"/>
       <c r="U168" s="13"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="E169" s="20"/>
-      <c r="F169" s="20"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
       <c r="J169" s="6"/>
       <c r="K169" s="21"/>
       <c r="U169" s="13"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
       <c r="J170" s="6"/>
       <c r="K170" s="21"/>
       <c r="U170" s="13"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
       <c r="J171" s="6"/>
       <c r="K171" s="21"/>
       <c r="U171" s="13"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
       <c r="J172" s="6"/>
       <c r="K172" s="21"/>
       <c r="U172" s="13"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
       <c r="J173" s="6"/>
       <c r="K173" s="21"/>
       <c r="U173" s="13"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
       <c r="J174" s="6"/>
       <c r="K174" s="21"/>
       <c r="U174" s="13"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
       <c r="J175" s="6"/>
       <c r="K175" s="21"/>
       <c r="U175" s="13"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
       <c r="J176" s="6"/>
       <c r="K176" s="21"/>
       <c r="U176" s="13"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
       <c r="J177" s="6"/>
       <c r="K177" s="21"/>
       <c r="U177" s="13"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
       <c r="J178" s="6"/>
       <c r="K178" s="21"/>
       <c r="U178" s="13"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="E179" s="20"/>
-      <c r="F179" s="20"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
       <c r="J179" s="6"/>
       <c r="K179" s="21"/>
       <c r="U179" s="13"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
       <c r="J180" s="6"/>
       <c r="K180" s="21"/>
       <c r="U180" s="13"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="E181" s="20"/>
-      <c r="F181" s="20"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
       <c r="J181" s="6"/>
       <c r="K181" s="21"/>
       <c r="U181" s="13"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="E182" s="20"/>
-      <c r="F182" s="20"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
       <c r="J182" s="6"/>
       <c r="K182" s="21"/>
       <c r="U182" s="13"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
       <c r="J183" s="6"/>
       <c r="K183" s="21"/>
       <c r="U183" s="13"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
       <c r="J184" s="6"/>
       <c r="K184" s="21"/>
       <c r="U184" s="13"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="E185" s="20"/>
-      <c r="F185" s="20"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
       <c r="J185" s="6"/>
       <c r="K185" s="21"/>
       <c r="U185" s="13"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="E186" s="20"/>
-      <c r="F186" s="20"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
       <c r="J186" s="6"/>
       <c r="K186" s="21"/>
       <c r="U186" s="13"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
       <c r="J187" s="6"/>
       <c r="K187" s="21"/>
       <c r="U187" s="13"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="E188" s="20"/>
-      <c r="F188" s="20"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
       <c r="J188" s="6"/>
       <c r="K188" s="21"/>
       <c r="U188" s="13"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
       <c r="J189" s="6"/>
       <c r="K189" s="21"/>
       <c r="U189" s="13"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="E190" s="20"/>
-      <c r="F190" s="20"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
       <c r="J190" s="6"/>
       <c r="K190" s="21"/>
       <c r="U190" s="13"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
       <c r="J191" s="6"/>
       <c r="K191" s="21"/>
       <c r="U191" s="13"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="E192" s="20"/>
-      <c r="F192" s="20"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
       <c r="J192" s="6"/>
       <c r="K192" s="21"/>
       <c r="U192" s="13"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
       <c r="J193" s="6"/>
       <c r="K193" s="21"/>
       <c r="U193" s="13"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
       <c r="J194" s="6"/>
       <c r="K194" s="21"/>
       <c r="U194" s="13"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
       <c r="J195" s="6"/>
       <c r="K195" s="21"/>
       <c r="U195" s="13"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="E196" s="20"/>
-      <c r="F196" s="20"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
       <c r="J196" s="6"/>
       <c r="K196" s="21"/>
       <c r="U196" s="13"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="E197" s="20"/>
-      <c r="F197" s="20"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
       <c r="J197" s="6"/>
       <c r="K197" s="21"/>
       <c r="U197" s="13"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="E198" s="20"/>
-      <c r="F198" s="20"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
       <c r="J198" s="6"/>
       <c r="K198" s="21"/>
       <c r="U198" s="13"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="E199" s="20"/>
-      <c r="F199" s="20"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
       <c r="J199" s="6"/>
       <c r="K199" s="21"/>
       <c r="U199" s="13"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="E200" s="20"/>
-      <c r="F200" s="20"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
       <c r="J200" s="6"/>
       <c r="K200" s="21"/>
       <c r="U200" s="13"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
       <c r="J201" s="6"/>
       <c r="K201" s="21"/>
       <c r="U201" s="13"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="E202" s="20"/>
-      <c r="F202" s="20"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
       <c r="J202" s="6"/>
       <c r="K202" s="21"/>
       <c r="U202" s="13"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
       <c r="J203" s="6"/>
       <c r="K203" s="21"/>
       <c r="U203" s="13"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="E204" s="20"/>
-      <c r="F204" s="20"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
       <c r="J204" s="6"/>
       <c r="K204" s="21"/>
       <c r="U204" s="13"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
       <c r="J205" s="6"/>
       <c r="K205" s="21"/>
       <c r="U205" s="13"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="E206" s="20"/>
-      <c r="F206" s="20"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
       <c r="J206" s="6"/>
       <c r="K206" s="21"/>
       <c r="U206" s="13"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="E207" s="20"/>
-      <c r="F207" s="20"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
       <c r="J207" s="6"/>
       <c r="K207" s="21"/>
       <c r="U207" s="13"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
       <c r="J208" s="6"/>
       <c r="K208" s="21"/>
       <c r="U208" s="13"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="E209" s="20"/>
-      <c r="F209" s="20"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
       <c r="J209" s="6"/>
       <c r="K209" s="21"/>
       <c r="U209" s="13"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="E210" s="20"/>
-      <c r="F210" s="20"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
       <c r="J210" s="6"/>
       <c r="K210" s="21"/>
       <c r="U210" s="13"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="E211" s="20"/>
-      <c r="F211" s="20"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
       <c r="J211" s="6"/>
       <c r="K211" s="21"/>
       <c r="U211" s="13"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="E212" s="20"/>
-      <c r="F212" s="20"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
       <c r="J212" s="6"/>
       <c r="K212" s="21"/>
       <c r="U212" s="13"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
       <c r="J213" s="6"/>
       <c r="K213" s="21"/>
       <c r="U213" s="13"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
       <c r="J214" s="6"/>
       <c r="K214" s="21"/>
       <c r="U214" s="13"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="E215" s="20"/>
-      <c r="F215" s="20"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
       <c r="J215" s="6"/>
       <c r="K215" s="21"/>
       <c r="U215" s="13"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
       <c r="J216" s="6"/>
       <c r="K216" s="21"/>
       <c r="U216" s="13"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
       <c r="J217" s="6"/>
       <c r="K217" s="21"/>
       <c r="U217" s="13"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
       <c r="J218" s="6"/>
       <c r="K218" s="21"/>
       <c r="U218" s="13"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
       <c r="J219" s="6"/>
       <c r="K219" s="21"/>
       <c r="U219" s="13"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="E220" s="20"/>
-      <c r="F220" s="20"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
       <c r="J220" s="6"/>
       <c r="K220" s="21"/>
       <c r="U220" s="13"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="E221" s="20"/>
-      <c r="F221" s="20"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
       <c r="J221" s="6"/>
       <c r="K221" s="21"/>
       <c r="U221" s="13"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="E222" s="20"/>
-      <c r="F222" s="20"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="22"/>
       <c r="J222" s="6"/>
       <c r="K222" s="21"/>
       <c r="U222" s="13"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="E223" s="20"/>
-      <c r="F223" s="20"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
       <c r="J223" s="6"/>
       <c r="K223" s="21"/>
       <c r="U223" s="13"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="E224" s="20"/>
-      <c r="F224" s="20"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
       <c r="J224" s="6"/>
       <c r="K224" s="21"/>
       <c r="U224" s="13"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="E225" s="20"/>
-      <c r="F225" s="20"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
       <c r="J225" s="6"/>
       <c r="K225" s="21"/>
       <c r="U225" s="13"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="E226" s="20"/>
-      <c r="F226" s="20"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
       <c r="J226" s="6"/>
       <c r="K226" s="21"/>
       <c r="U226" s="13"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="E227" s="20"/>
-      <c r="F227" s="20"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
       <c r="J227" s="6"/>
       <c r="K227" s="21"/>
       <c r="U227" s="13"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="E228" s="20"/>
-      <c r="F228" s="20"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
       <c r="J228" s="6"/>
       <c r="K228" s="21"/>
       <c r="U228" s="13"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="E229" s="20"/>
-      <c r="F229" s="20"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="22"/>
       <c r="J229" s="6"/>
       <c r="K229" s="21"/>
       <c r="U229" s="13"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="E230" s="20"/>
-      <c r="F230" s="20"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
       <c r="J230" s="6"/>
       <c r="K230" s="21"/>
       <c r="U230" s="13"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="E231" s="20"/>
-      <c r="F231" s="20"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
       <c r="J231" s="6"/>
       <c r="K231" s="21"/>
       <c r="U231" s="13"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="E232" s="20"/>
-      <c r="F232" s="20"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
       <c r="J232" s="6"/>
       <c r="K232" s="21"/>
       <c r="U232" s="13"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="E233" s="20"/>
-      <c r="F233" s="20"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="22"/>
       <c r="J233" s="6"/>
       <c r="K233" s="21"/>
       <c r="U233" s="13"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="E234" s="20"/>
-      <c r="F234" s="20"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
       <c r="J234" s="6"/>
       <c r="K234" s="21"/>
       <c r="U234" s="13"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="E235" s="20"/>
-      <c r="F235" s="20"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
       <c r="J235" s="6"/>
       <c r="K235" s="21"/>
       <c r="U235" s="13"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="E236" s="20"/>
-      <c r="F236" s="20"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
       <c r="J236" s="6"/>
       <c r="K236" s="21"/>
       <c r="U236" s="13"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="E237" s="20"/>
-      <c r="F237" s="20"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22"/>
       <c r="J237" s="6"/>
       <c r="K237" s="21"/>
       <c r="U237" s="13"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="E238" s="20"/>
-      <c r="F238" s="20"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
       <c r="J238" s="6"/>
       <c r="K238" s="21"/>
       <c r="U238" s="13"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="E239" s="20"/>
-      <c r="F239" s="20"/>
+      <c r="E239" s="22"/>
+      <c r="F239" s="22"/>
       <c r="J239" s="6"/>
       <c r="K239" s="21"/>
       <c r="U239" s="13"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="E240" s="20"/>
-      <c r="F240" s="20"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
       <c r="J240" s="6"/>
       <c r="K240" s="21"/>
       <c r="U240" s="13"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="E241" s="20"/>
-      <c r="F241" s="20"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="22"/>
       <c r="J241" s="6"/>
       <c r="K241" s="21"/>
       <c r="U241" s="13"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="E242" s="20"/>
-      <c r="F242" s="20"/>
+      <c r="E242" s="22"/>
+      <c r="F242" s="22"/>
       <c r="J242" s="6"/>
       <c r="K242" s="21"/>
       <c r="U242" s="13"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="E243" s="20"/>
-      <c r="F243" s="20"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="22"/>
       <c r="J243" s="6"/>
       <c r="K243" s="21"/>
       <c r="U243" s="13"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="E244" s="20"/>
-      <c r="F244" s="20"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22"/>
       <c r="J244" s="6"/>
       <c r="K244" s="21"/>
       <c r="U244" s="13"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="E245" s="20"/>
-      <c r="F245" s="20"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22"/>
       <c r="J245" s="6"/>
       <c r="K245" s="21"/>
       <c r="U245" s="13"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="E246" s="20"/>
-      <c r="F246" s="20"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="22"/>
       <c r="J246" s="6"/>
       <c r="K246" s="21"/>
       <c r="U246" s="13"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="E247" s="20"/>
-      <c r="F247" s="20"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="22"/>
       <c r="J247" s="6"/>
       <c r="K247" s="21"/>
       <c r="U247" s="13"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="E248" s="20"/>
-      <c r="F248" s="20"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="22"/>
       <c r="J248" s="6"/>
       <c r="K248" s="21"/>
       <c r="U248" s="13"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="E249" s="20"/>
-      <c r="F249" s="20"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="22"/>
       <c r="J249" s="6"/>
       <c r="K249" s="21"/>
       <c r="U249" s="13"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="E250" s="20"/>
-      <c r="F250" s="20"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="22"/>
       <c r="J250" s="6"/>
       <c r="K250" s="21"/>
       <c r="U250" s="13"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="E251" s="20"/>
-      <c r="F251" s="20"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="22"/>
       <c r="J251" s="6"/>
       <c r="K251" s="21"/>
       <c r="U251" s="13"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="E252" s="20"/>
-      <c r="F252" s="20"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="22"/>
       <c r="J252" s="6"/>
       <c r="K252" s="21"/>
       <c r="U252" s="13"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="E253" s="20"/>
-      <c r="F253" s="20"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="22"/>
       <c r="J253" s="6"/>
       <c r="K253" s="21"/>
       <c r="U253" s="13"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="E254" s="20"/>
-      <c r="F254" s="20"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="22"/>
       <c r="J254" s="6"/>
       <c r="K254" s="21"/>
       <c r="U254" s="13"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="E255" s="20"/>
-      <c r="F255" s="20"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="22"/>
       <c r="J255" s="6"/>
       <c r="K255" s="21"/>
       <c r="U255" s="13"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="E256" s="20"/>
-      <c r="F256" s="20"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
       <c r="J256" s="6"/>
       <c r="K256" s="21"/>
       <c r="U256" s="13"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="E257" s="20"/>
-      <c r="F257" s="20"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="22"/>
       <c r="J257" s="6"/>
       <c r="K257" s="21"/>
       <c r="U257" s="13"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="E258" s="20"/>
-      <c r="F258" s="20"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22"/>
       <c r="J258" s="6"/>
       <c r="K258" s="21"/>
       <c r="U258" s="13"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="E259" s="20"/>
-      <c r="F259" s="20"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22"/>
       <c r="J259" s="6"/>
       <c r="K259" s="21"/>
       <c r="U259" s="13"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="E260" s="20"/>
-      <c r="F260" s="20"/>
+      <c r="E260" s="22"/>
+      <c r="F260" s="22"/>
       <c r="J260" s="6"/>
       <c r="K260" s="21"/>
       <c r="U260" s="13"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="E261" s="20"/>
-      <c r="F261" s="20"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
       <c r="J261" s="6"/>
       <c r="K261" s="21"/>
       <c r="U261" s="13"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="E262" s="20"/>
-      <c r="F262" s="20"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="22"/>
       <c r="J262" s="6"/>
       <c r="K262" s="21"/>
       <c r="U262" s="13"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="E263" s="20"/>
-      <c r="F263" s="20"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
       <c r="J263" s="6"/>
       <c r="K263" s="21"/>
       <c r="U263" s="13"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="E264" s="20"/>
-      <c r="F264" s="20"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="22"/>
       <c r="J264" s="6"/>
       <c r="K264" s="21"/>
       <c r="U264" s="13"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="E265" s="20"/>
-      <c r="F265" s="20"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="22"/>
       <c r="J265" s="6"/>
       <c r="K265" s="21"/>
       <c r="U265" s="13"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="E266" s="20"/>
-      <c r="F266" s="20"/>
+      <c r="E266" s="22"/>
+      <c r="F266" s="22"/>
       <c r="J266" s="6"/>
       <c r="K266" s="21"/>
       <c r="U266" s="13"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="E267" s="20"/>
-      <c r="F267" s="20"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="22"/>
       <c r="J267" s="6"/>
       <c r="K267" s="21"/>
       <c r="U267" s="13"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="E268" s="20"/>
-      <c r="F268" s="20"/>
+      <c r="E268" s="22"/>
+      <c r="F268" s="22"/>
       <c r="J268" s="6"/>
       <c r="K268" s="21"/>
       <c r="U268" s="13"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="E269" s="20"/>
-      <c r="F269" s="20"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
       <c r="J269" s="6"/>
       <c r="K269" s="21"/>
       <c r="U269" s="13"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="E270" s="20"/>
-      <c r="F270" s="20"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
       <c r="J270" s="6"/>
       <c r="K270" s="21"/>
       <c r="U270" s="13"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="E271" s="20"/>
-      <c r="F271" s="20"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="22"/>
       <c r="J271" s="6"/>
       <c r="K271" s="21"/>
       <c r="U271" s="13"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="E272" s="20"/>
-      <c r="F272" s="20"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
       <c r="J272" s="6"/>
       <c r="K272" s="21"/>
       <c r="U272" s="13"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="E273" s="20"/>
-      <c r="F273" s="20"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
       <c r="J273" s="6"/>
       <c r="K273" s="21"/>
       <c r="U273" s="13"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="E274" s="20"/>
-      <c r="F274" s="20"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="22"/>
       <c r="J274" s="6"/>
       <c r="K274" s="21"/>
       <c r="U274" s="13"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="E275" s="20"/>
-      <c r="F275" s="20"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="22"/>
       <c r="J275" s="6"/>
       <c r="K275" s="21"/>
       <c r="U275" s="13"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="E276" s="20"/>
-      <c r="F276" s="20"/>
+      <c r="E276" s="22"/>
+      <c r="F276" s="22"/>
       <c r="J276" s="6"/>
       <c r="K276" s="21"/>
       <c r="U276" s="13"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="E277" s="20"/>
-      <c r="F277" s="20"/>
+      <c r="E277" s="22"/>
+      <c r="F277" s="22"/>
       <c r="J277" s="6"/>
       <c r="K277" s="21"/>
       <c r="U277" s="13"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="E278" s="20"/>
-      <c r="F278" s="20"/>
+      <c r="E278" s="22"/>
+      <c r="F278" s="22"/>
       <c r="J278" s="6"/>
       <c r="K278" s="21"/>
       <c r="U278" s="13"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="E279" s="20"/>
-      <c r="F279" s="20"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="22"/>
       <c r="J279" s="6"/>
       <c r="K279" s="21"/>
       <c r="U279" s="13"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="E280" s="20"/>
-      <c r="F280" s="20"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="22"/>
       <c r="J280" s="6"/>
       <c r="K280" s="21"/>
       <c r="U280" s="13"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="E281" s="20"/>
-      <c r="F281" s="20"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="22"/>
       <c r="J281" s="6"/>
       <c r="K281" s="21"/>
       <c r="U281" s="13"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="E282" s="20"/>
-      <c r="F282" s="20"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="22"/>
       <c r="J282" s="6"/>
       <c r="K282" s="21"/>
       <c r="U282" s="13"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="E283" s="20"/>
-      <c r="F283" s="20"/>
+      <c r="E283" s="22"/>
+      <c r="F283" s="22"/>
       <c r="J283" s="6"/>
       <c r="K283" s="21"/>
       <c r="U283" s="13"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="E284" s="20"/>
-      <c r="F284" s="20"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="22"/>
       <c r="J284" s="6"/>
       <c r="K284" s="21"/>
       <c r="U284" s="13"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="E285" s="20"/>
-      <c r="F285" s="20"/>
+      <c r="E285" s="22"/>
+      <c r="F285" s="22"/>
       <c r="J285" s="6"/>
       <c r="K285" s="21"/>
       <c r="U285" s="13"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="E286" s="20"/>
-      <c r="F286" s="20"/>
+      <c r="E286" s="22"/>
+      <c r="F286" s="22"/>
       <c r="J286" s="6"/>
       <c r="K286" s="21"/>
       <c r="U286" s="13"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="E287" s="20"/>
-      <c r="F287" s="20"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="22"/>
       <c r="J287" s="6"/>
       <c r="K287" s="21"/>
       <c r="U287" s="13"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="E288" s="20"/>
-      <c r="F288" s="20"/>
+      <c r="E288" s="22"/>
+      <c r="F288" s="22"/>
       <c r="J288" s="6"/>
       <c r="K288" s="21"/>
       <c r="U288" s="13"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="E289" s="20"/>
-      <c r="F289" s="20"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="22"/>
       <c r="J289" s="6"/>
       <c r="K289" s="21"/>
       <c r="U289" s="13"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="E290" s="20"/>
-      <c r="F290" s="20"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22"/>
       <c r="J290" s="6"/>
       <c r="K290" s="21"/>
       <c r="U290" s="13"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="E291" s="20"/>
-      <c r="F291" s="20"/>
+      <c r="E291" s="22"/>
+      <c r="F291" s="22"/>
       <c r="J291" s="6"/>
       <c r="K291" s="21"/>
       <c r="U291" s="13"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="E292" s="20"/>
-      <c r="F292" s="20"/>
+      <c r="E292" s="22"/>
+      <c r="F292" s="22"/>
       <c r="J292" s="6"/>
       <c r="K292" s="21"/>
       <c r="U292" s="13"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="E293" s="20"/>
-      <c r="F293" s="20"/>
+      <c r="E293" s="22"/>
+      <c r="F293" s="22"/>
       <c r="J293" s="6"/>
       <c r="K293" s="21"/>
       <c r="U293" s="13"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="E294" s="20"/>
-      <c r="F294" s="20"/>
+      <c r="E294" s="22"/>
+      <c r="F294" s="22"/>
       <c r="J294" s="6"/>
       <c r="K294" s="21"/>
       <c r="U294" s="13"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="E295" s="20"/>
-      <c r="F295" s="20"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="22"/>
       <c r="J295" s="6"/>
       <c r="K295" s="21"/>
       <c r="U295" s="13"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="E296" s="20"/>
-      <c r="F296" s="20"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="22"/>
       <c r="J296" s="6"/>
       <c r="K296" s="21"/>
       <c r="U296" s="13"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="E297" s="20"/>
-      <c r="F297" s="20"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="22"/>
       <c r="J297" s="6"/>
       <c r="K297" s="21"/>
       <c r="U297" s="13"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="E298" s="20"/>
-      <c r="F298" s="20"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
       <c r="J298" s="6"/>
       <c r="K298" s="21"/>
       <c r="U298" s="13"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="E299" s="20"/>
-      <c r="F299" s="20"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="22"/>
       <c r="J299" s="6"/>
       <c r="K299" s="21"/>
       <c r="U299" s="13"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="E300" s="20"/>
-      <c r="F300" s="20"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
       <c r="J300" s="6"/>
       <c r="K300" s="21"/>
       <c r="U300" s="13"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="E301" s="20"/>
-      <c r="F301" s="20"/>
+      <c r="E301" s="22"/>
+      <c r="F301" s="22"/>
       <c r="J301" s="6"/>
       <c r="K301" s="21"/>
       <c r="U301" s="13"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="E302" s="20"/>
-      <c r="F302" s="20"/>
+      <c r="E302" s="22"/>
+      <c r="F302" s="22"/>
       <c r="J302" s="6"/>
       <c r="K302" s="21"/>
       <c r="U302" s="13"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="E303" s="20"/>
-      <c r="F303" s="20"/>
+      <c r="E303" s="22"/>
+      <c r="F303" s="22"/>
       <c r="J303" s="6"/>
       <c r="K303" s="21"/>
       <c r="U303" s="13"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="E304" s="20"/>
-      <c r="F304" s="20"/>
+      <c r="E304" s="22"/>
+      <c r="F304" s="22"/>
       <c r="J304" s="6"/>
       <c r="K304" s="21"/>
       <c r="U304" s="13"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="E305" s="20"/>
-      <c r="F305" s="20"/>
+      <c r="E305" s="22"/>
+      <c r="F305" s="22"/>
       <c r="J305" s="6"/>
       <c r="K305" s="21"/>
       <c r="U305" s="13"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="E306" s="20"/>
-      <c r="F306" s="20"/>
+      <c r="E306" s="22"/>
+      <c r="F306" s="22"/>
       <c r="J306" s="6"/>
       <c r="K306" s="21"/>
       <c r="U306" s="13"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="E307" s="20"/>
-      <c r="F307" s="20"/>
+      <c r="E307" s="22"/>
+      <c r="F307" s="22"/>
       <c r="J307" s="6"/>
       <c r="K307" s="21"/>
       <c r="U307" s="13"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="E308" s="20"/>
-      <c r="F308" s="20"/>
+      <c r="E308" s="22"/>
+      <c r="F308" s="22"/>
       <c r="K308" s="21"/>
       <c r="U308" s="13"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="E309" s="20"/>
-      <c r="F309" s="20"/>
+      <c r="E309" s="22"/>
+      <c r="F309" s="22"/>
       <c r="K309" s="21"/>
       <c r="U309" s="13"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="E310" s="20"/>
-      <c r="F310" s="20"/>
+      <c r="E310" s="22"/>
+      <c r="F310" s="22"/>
       <c r="K310" s="21"/>
       <c r="U310" s="13"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="E311" s="20"/>
-      <c r="F311" s="20"/>
+      <c r="E311" s="22"/>
+      <c r="F311" s="22"/>
       <c r="U311" s="13"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="E312" s="20"/>
-      <c r="F312" s="20"/>
+      <c r="E312" s="22"/>
+      <c r="F312" s="22"/>
       <c r="U312" s="13"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="E313" s="20"/>
-      <c r="F313" s="20"/>
+      <c r="E313" s="22"/>
+      <c r="F313" s="22"/>
       <c r="U313" s="13"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="E314" s="20"/>
-      <c r="F314" s="20"/>
+      <c r="E314" s="22"/>
+      <c r="F314" s="22"/>
       <c r="U314" s="13"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="E315" s="20"/>
-      <c r="F315" s="20"/>
+      <c r="E315" s="22"/>
+      <c r="F315" s="22"/>
       <c r="U315" s="13"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="E316" s="20"/>
-      <c r="F316" s="20"/>
+      <c r="E316" s="22"/>
+      <c r="F316" s="22"/>
       <c r="U316" s="13"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="E317" s="20"/>
-      <c r="F317" s="20"/>
+      <c r="E317" s="22"/>
+      <c r="F317" s="22"/>
       <c r="U317" s="13"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="E318" s="20"/>
-      <c r="F318" s="20"/>
+      <c r="E318" s="22"/>
+      <c r="F318" s="22"/>
       <c r="U318" s="13"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="E319" s="20"/>
-      <c r="F319" s="20"/>
+      <c r="E319" s="22"/>
+      <c r="F319" s="22"/>
       <c r="U319" s="13"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="E320" s="20"/>
-      <c r="F320" s="20"/>
+      <c r="E320" s="22"/>
+      <c r="F320" s="22"/>
       <c r="U320" s="13"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="E321" s="20"/>
-      <c r="F321" s="20"/>
+      <c r="E321" s="22"/>
+      <c r="F321" s="22"/>
       <c r="U321" s="13"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="E322" s="20"/>
-      <c r="F322" s="20"/>
+      <c r="E322" s="22"/>
+      <c r="F322" s="22"/>
       <c r="U322" s="13"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="E323" s="20"/>
-      <c r="F323" s="20"/>
+      <c r="E323" s="22"/>
+      <c r="F323" s="22"/>
       <c r="U323" s="13"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="E324" s="20"/>
-      <c r="F324" s="20"/>
+      <c r="E324" s="22"/>
+      <c r="F324" s="22"/>
       <c r="U324" s="13"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="E325" s="20"/>
-      <c r="F325" s="20"/>
+      <c r="E325" s="22"/>
+      <c r="F325" s="22"/>
       <c r="U325" s="13"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="E326" s="20"/>
-      <c r="F326" s="20"/>
+      <c r="E326" s="22"/>
+      <c r="F326" s="22"/>
       <c r="U326" s="13"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="E327" s="20"/>
-      <c r="F327" s="20"/>
+      <c r="E327" s="22"/>
+      <c r="F327" s="22"/>
       <c r="U327" s="13"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="E328" s="20"/>
-      <c r="F328" s="20"/>
+      <c r="E328" s="22"/>
+      <c r="F328" s="22"/>
       <c r="U328" s="13"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="E329" s="20"/>
-      <c r="F329" s="20"/>
+      <c r="E329" s="22"/>
+      <c r="F329" s="22"/>
       <c r="U329" s="13"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="E330" s="20"/>
-      <c r="F330" s="20"/>
+      <c r="E330" s="22"/>
+      <c r="F330" s="22"/>
       <c r="U330" s="13"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="E331" s="20"/>
-      <c r="F331" s="20"/>
+      <c r="E331" s="22"/>
+      <c r="F331" s="22"/>
       <c r="U331" s="13"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="E332" s="20"/>
-      <c r="F332" s="20"/>
+      <c r="E332" s="22"/>
+      <c r="F332" s="22"/>
       <c r="U332" s="13"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="E333" s="20"/>
-      <c r="F333" s="20"/>
+      <c r="E333" s="22"/>
+      <c r="F333" s="22"/>
       <c r="U333" s="13"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="E334" s="20"/>
-      <c r="F334" s="20"/>
+      <c r="E334" s="22"/>
+      <c r="F334" s="22"/>
       <c r="U334" s="13"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="E335" s="20"/>
-      <c r="F335" s="20"/>
+      <c r="E335" s="22"/>
+      <c r="F335" s="22"/>
       <c r="U335" s="13"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="E336" s="20"/>
-      <c r="F336" s="20"/>
+      <c r="E336" s="22"/>
+      <c r="F336" s="22"/>
       <c r="U336" s="13"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="E337" s="20"/>
-      <c r="F337" s="20"/>
+      <c r="E337" s="22"/>
+      <c r="F337" s="22"/>
       <c r="U337" s="13"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="E338" s="20"/>
-      <c r="F338" s="20"/>
+      <c r="E338" s="22"/>
+      <c r="F338" s="22"/>
       <c r="U338" s="13"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="E339" s="20"/>
-      <c r="F339" s="20"/>
+      <c r="E339" s="22"/>
+      <c r="F339" s="22"/>
       <c r="U339" s="13"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="E340" s="20"/>
-      <c r="F340" s="20"/>
+      <c r="E340" s="22"/>
+      <c r="F340" s="22"/>
       <c r="U340" s="13"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="E341" s="20"/>
-      <c r="F341" s="20"/>
+      <c r="E341" s="22"/>
+      <c r="F341" s="22"/>
       <c r="U341" s="13"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="E342" s="20"/>
-      <c r="F342" s="20"/>
+      <c r="E342" s="22"/>
+      <c r="F342" s="22"/>
       <c r="U342" s="13"/>
     </row>
     <row r="343" ht="15.75" customHeight="1"/>
@@ -9216,12 +9282,12 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J149:J999">
+  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152:J999">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J149:J999">
+  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152:J999">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9246,29 +9312,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>136</v>
       </c>
+      <c r="F1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="H1" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -9282,16 +9348,16 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7">
         <v>1000.0</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="25">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26">
         <f>SUM(F2:F996)</f>
-        <v>846846</v>
+        <v>901046</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -9305,13 +9371,13 @@
         <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
         <v>150.0</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -9325,13 +9391,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
         <v>5000.0</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -9345,13 +9411,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
         <v>2000.0</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -9365,13 +9431,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
         <v>1771.0</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -9385,13 +9451,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
         <v>140.0</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -9405,13 +9471,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
         <v>220.0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -9425,13 +9491,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
         <v>660.0</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -9445,13 +9511,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
         <v>436.0</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -9465,13 +9531,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
         <v>3000.0</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -9485,13 +9551,13 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
         <v>300.0</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -9505,13 +9571,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
         <v>400.0</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -9525,13 +9591,13 @@
         <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
         <v>500.0</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -9545,13 +9611,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
         <v>200.0</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -9565,13 +9631,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
         <v>250.0</v>
       </c>
-      <c r="G16" s="27" t="str">
+      <c r="G16" s="28" t="str">
         <f>HYPERLINK("https://photos.google.com/photo/AF1QipPEx1cIrGVylSEhd_cqV0Dg1Jk8Hss1y5BVeaZU","IER")</f>
         <v>IER</v>
       </c>
@@ -9588,13 +9654,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
         <v>400.0</v>
       </c>
-      <c r="G17" s="27" t="str">
+      <c r="G17" s="28" t="str">
         <f>HYPERLINK("https://lh3.googleusercontent.com/ghzDd-yNk5sca1UCTENviQN1Dd9XGYMggJypf6SiEAY4tId42oxpm_o5ZaIab7R8xujc6S9Op3poZySlTqqXIZRvUV1GFKY86aWXeh62B8XCBKUX3cN5qZ5L8pUU5wE6lX8QYh4bBJ8TgM1XOdrzUcQnqVvT2IV6zTWRP0yLCn_5TZdPz0EIS6kdy3nV5Q4OBkeK3UM_bD8skU5NWhq48nLbIb8J7"&amp;"FHOQPLqyNmRkvpQaWRHfPJbvYxiBUnq1PpP_KY1YdlGpCZT50wwNlU2RBQ68uaUmRx8bnIlYcXnzhZClcy-V2bXHQtsQOy2Hz34U13g3a_dD1VpwSWY3B29l5EbtHfQFCFK-lVYj8lHyYn9GdPk2f0gb5lTdCJsQkkxU83cqD1UrcgIXS_2CSYEbVJQzlmSYOb4HHVUe-jHJBQmsjpVzCCJm-0rvH_quCZVWolWCovBobSw2YsAJ2uKXxL5xELH"&amp;"sKkGanhzn1sbifuqVkY2PpeiG-XFSumKaouz0xrQEIbzIBt6czNxvBNY6ZgcPSQY_ibXe7uFvXKvkqs-ac2fvbm7P6Fk75lU7-35JnfinYJ_rWG2Hhlfy4rBBuGTYJAH9-JFiCAcOK0=w151-h268-no","IER")</f>
         <v>IER</v>
       </c>
@@ -9611,13 +9677,13 @@
         <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7">
         <v>1700.0</v>
       </c>
-      <c r="G18" s="27" t="str">
+      <c r="G18" s="28" t="str">
         <f>HYPERLINK("https://lh3.googleusercontent.com/SnwoHSzgt5jzl106lp9m6BGbIZlYIMHCajZwsY2LSyNw0a1sOyCHFSRUKdQ_nVjK456hKmTOKNYd2iYgmiTHdYYKrn1sZNtsQwFqbr49OAcKAisuW0jyIicJMipx_TaLmJ3ukR3tIJIR5d2TkBN64bAXV42foKXAr2zSObIdbzdRBtaeQRkrDKB7OjAkfPeL8VcCiElg3fH4X_mn9yc9tNxFwgRNg"&amp;"TuSlRJUjqTbje8OfybpoRu4dtiX1QMyevcJJUOndXSFC30pdxmbY90alxbuFvs065olIGu5EWwMQj1t8v-TsCnLjIQPwbFazMjNxl86cWHlgVV4IQ0zL9U9CqCQUb871_njTNuC10EWkor-YToYWdfoAmco68rE850MSlHrwkbYc_23NBTRnllH-R26pn4nauQiFWF7YtHWJrq7FfHghs2Dp1pdYbafZRVo9WMRKimS4znRymwhCwpXXOLqQX7c"&amp;"5OzhurIQZUwwMY7sRFMCw42liZXhdkg1LdmsI482k_GzTWbM5FOsQS4pyTOQC2wNzByuox3vdwtPfIhR62c0g_cT5PYnkat_KLOAhrmX7UGSBtJXHrpMg9tKiwBf94meUdmxx9QS4c8=w499-h885-no","IER")</f>
         <v>IER</v>
       </c>
@@ -9634,13 +9700,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
         <v>600.0</v>
       </c>
-      <c r="G19" s="27" t="str">
+      <c r="G19" s="28" t="str">
         <f>HYPERLINK("https://lh3.googleusercontent.com/aRPQnKpN5iWA8PE3551mjEz6kAiJ3_35XWONVxOMiP33LIVGCH4B8ZbLa2zYPQxuvvuqnMDoPwgmP09LVBSE-ebVbuqNaFRGeKYX6GT4w-86voh67On1cYTZ6OYCjMl_NchMuUWJGfmWW4QbYMBw7xFQS2jrSEmhPOQ62bKFMRX0pmr_vFj61U5gD8HBEAY6-PzytioT_TB6BCh-kB230lXo8V9jy"&amp;"FeD7Qn90pmvSXZe7d-EfNmHsQPWL1YG4eTP0lI0eyx4YAFVk2f7TWA6a0S9TOZbaQfx0ZcbV8AhoDTBsz39eqwVu99-m9OQw2IbuKb9pRJp5jDDaT882lUQYIazx7xpOSP7yI_9Sntg2f5d49GYDAianuIIxz7CYEfj_YQV4IuI5A-nUqjHW8W2Kzdp9Jz_4AGx4KMrmJGVZ4BZyKOK3ecu1CWatmAZhpbhTBG6Hn98nOngpRn-q4lZDLEXYk8o"&amp;"7FuAy5sjS6VDMxEhRcV2Kt9Yx8Ax68QHTB4qg9pNZJsrhvxDIVyd4dMoJvJO1i7pGRNydDCPXhO8On6kGv_dlx9UeZuNdZm1KHHMfUdSA9CQNC606ofQhf1_Zbb2oQmwDvHqqHYuOX8=w499-h885-no","IER")</f>
         <v>IER</v>
       </c>
@@ -9657,13 +9723,13 @@
         <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7">
         <v>20.0</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -9677,13 +9743,13 @@
         <v>80</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
         <v>395.0</v>
       </c>
-      <c r="G21" s="27" t="str">
+      <c r="G21" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/pAZxw35vfmskL2mJ8","IER")</f>
         <v>IER</v>
       </c>
@@ -9700,13 +9766,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7">
         <v>22.0</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="11"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -9720,13 +9786,13 @@
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
         <v>350.0</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -9740,13 +9806,13 @@
         <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7">
         <v>75.0</v>
       </c>
-      <c r="G24" s="26"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -9760,13 +9826,13 @@
         <v>90</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7">
         <v>2800.0</v>
       </c>
-      <c r="G25" s="27" t="str">
+      <c r="G25" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/omQ7ECyccKrTF5aLA","IER")</f>
         <v>IER</v>
       </c>
@@ -9781,13 +9847,13 @@
         <v>90</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7">
         <v>1800.0</v>
       </c>
-      <c r="G26" s="27" t="str">
+      <c r="G26" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/cV1K4WCuwjrJYub96","IER")</f>
         <v>IER</v>
       </c>
@@ -9804,13 +9870,13 @@
         <v>90</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7">
         <v>835.0</v>
       </c>
-      <c r="G27" s="27" t="str">
+      <c r="G27" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/ehrPEGV7TCmj3v3o9","IER")</f>
         <v>IER</v>
       </c>
@@ -9827,13 +9893,13 @@
         <v>24</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7">
         <v>660.0</v>
       </c>
-      <c r="G28" s="26"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -9847,13 +9913,13 @@
         <v>90</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7">
         <v>300.0</v>
       </c>
-      <c r="G29" s="26"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -9867,13 +9933,13 @@
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7">
         <v>12550.0</v>
       </c>
-      <c r="G30" s="27" t="str">
+      <c r="G30" s="28" t="str">
         <f>HYPERLINK("https://photos.google.com/photo/AF1QipOrOYNiMK19BlctEFWA-AuJ6dhDQcJBJAf8JLmK","IER")</f>
         <v>IER</v>
       </c>
@@ -9890,13 +9956,13 @@
         <v>18</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7">
         <v>7200.0</v>
       </c>
-      <c r="G31" s="26"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -9910,13 +9976,13 @@
         <v>18</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
         <v>5300.0</v>
       </c>
-      <c r="G32" s="27" t="str">
+      <c r="G32" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/jCSW5jdiYYmHyH3b7","IER")</f>
         <v>IER</v>
       </c>
@@ -9933,13 +9999,13 @@
         <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7">
         <v>150.0</v>
       </c>
-      <c r="G33" s="26"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -9953,13 +10019,13 @@
         <v>18</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7">
         <v>50700.0</v>
       </c>
-      <c r="G34" s="27" t="str">
+      <c r="G34" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/PZbfY4AafiuXzVYUA","IER")</f>
         <v>IER</v>
       </c>
@@ -9976,13 +10042,13 @@
         <v>18</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
         <v>800.0</v>
       </c>
-      <c r="G35" s="28" t="str">
+      <c r="G35" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/HRZv9KVxFNucGdVz9","IER")</f>
         <v>IER</v>
       </c>
@@ -9999,13 +10065,13 @@
         <v>18</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7">
         <v>8500.0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -10019,13 +10085,13 @@
         <v>18</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
         <v>600.0</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -10039,13 +10105,13 @@
         <v>18</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7">
         <v>1700.0</v>
       </c>
-      <c r="G38" s="27" t="str">
+      <c r="G38" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/TV4169JxEBJNbTbT8","IER")</f>
         <v>IER</v>
       </c>
@@ -10062,13 +10128,13 @@
         <v>18</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7">
         <v>180.0</v>
       </c>
-      <c r="G39" s="27" t="str">
+      <c r="G39" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/wRFJeZkctZJWBhJK7","IER")</f>
         <v>IER</v>
       </c>
@@ -10085,14 +10151,14 @@
         <v>18</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7">
         <v>5400.0</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>176</v>
+      <c r="G40" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="H40" s="11"/>
     </row>
@@ -10107,13 +10173,13 @@
         <v>18</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7">
         <v>2500.0</v>
       </c>
-      <c r="G41" s="26"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="11"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -10127,13 +10193,13 @@
         <v>18</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7">
         <v>1270.0</v>
       </c>
-      <c r="G42" s="26"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -10147,14 +10213,14 @@
         <v>18</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="7">
         <f>100+60+20+55</f>
         <v>235</v>
       </c>
-      <c r="G43" s="26"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -10168,13 +10234,13 @@
         <v>18</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7">
         <v>260.0</v>
       </c>
-      <c r="G44" s="26"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="11"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -10188,13 +10254,13 @@
         <v>18</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7">
         <v>1200.0</v>
       </c>
-      <c r="G45" s="26"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="11"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -10207,14 +10273,14 @@
       <c r="C46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>182</v>
+      <c r="D46" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7">
         <v>1280.0</v>
       </c>
-      <c r="G46" s="26"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="11"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -10227,14 +10293,14 @@
       <c r="C47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="31" t="s">
-        <v>183</v>
+      <c r="D47" s="32" t="s">
+        <v>185</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7">
         <v>3600.0</v>
       </c>
-      <c r="G47" s="26"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="11"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -10247,14 +10313,14 @@
       <c r="C48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="31" t="s">
-        <v>184</v>
+      <c r="D48" s="32" t="s">
+        <v>186</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7">
         <v>100.0</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="11"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -10267,14 +10333,14 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="31" t="s">
-        <v>185</v>
+      <c r="D49" s="32" t="s">
+        <v>187</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7">
         <v>185.0</v>
       </c>
-      <c r="G49" s="26"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="11"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -10287,14 +10353,14 @@
       <c r="C50" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="31" t="s">
-        <v>186</v>
+      <c r="D50" s="32" t="s">
+        <v>188</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7">
         <v>200.0</v>
       </c>
-      <c r="G50" s="26"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -10307,14 +10373,14 @@
       <c r="C51" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="31" t="s">
-        <v>187</v>
+      <c r="D51" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7">
         <v>800.0</v>
       </c>
-      <c r="G51" s="26"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="11"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -10327,14 +10393,14 @@
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="31" t="s">
-        <v>188</v>
+      <c r="D52" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7">
         <v>520.0</v>
       </c>
-      <c r="G52" s="26"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="11"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -10347,14 +10413,14 @@
       <c r="C53" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="31" t="s">
-        <v>189</v>
+      <c r="D53" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7">
         <v>530.0</v>
       </c>
-      <c r="G53" s="26"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="11"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -10367,14 +10433,14 @@
       <c r="C54" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="31" t="s">
-        <v>190</v>
+      <c r="D54" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7">
         <v>150.0</v>
       </c>
-      <c r="G54" s="26"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="11"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -10387,14 +10453,14 @@
       <c r="C55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>191</v>
+      <c r="D55" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7">
         <v>460.0</v>
       </c>
-      <c r="G55" s="26"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="11"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -10407,14 +10473,14 @@
       <c r="C56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="31" t="s">
-        <v>192</v>
+      <c r="D56" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7">
         <v>3800.0</v>
       </c>
-      <c r="G56" s="26"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="11"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -10427,14 +10493,14 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="31" t="s">
-        <v>193</v>
+      <c r="D57" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7">
         <v>4920.0</v>
       </c>
-      <c r="G57" s="26"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="11"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -10447,14 +10513,14 @@
       <c r="C58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="31" t="s">
-        <v>194</v>
+      <c r="D58" s="32" t="s">
+        <v>196</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7">
         <v>700.0</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="11"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -10467,14 +10533,14 @@
       <c r="C59" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="31" t="s">
-        <v>195</v>
+      <c r="D59" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7">
         <v>3800.0</v>
       </c>
-      <c r="G59" s="26"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="11"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -10487,14 +10553,14 @@
       <c r="C60" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="31" t="s">
-        <v>196</v>
+      <c r="D60" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7">
         <v>800.0</v>
       </c>
-      <c r="G60" s="26"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="11"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -10507,14 +10573,14 @@
       <c r="C61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="31" t="s">
-        <v>197</v>
+      <c r="D61" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7">
         <v>70.0</v>
       </c>
-      <c r="G61" s="26"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="11"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -10527,14 +10593,14 @@
       <c r="C62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="31" t="s">
-        <v>144</v>
+      <c r="D62" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7">
         <v>310.0</v>
       </c>
-      <c r="G62" s="26"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="11"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -10547,14 +10613,14 @@
       <c r="C63" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="31" t="s">
-        <v>198</v>
+      <c r="D63" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7">
         <v>3200.0</v>
       </c>
-      <c r="G63" s="26"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="11"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -10567,14 +10633,14 @@
       <c r="C64" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="31" t="s">
-        <v>173</v>
+      <c r="D64" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7">
         <v>1000.0</v>
       </c>
-      <c r="G64" s="26"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="11"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -10587,14 +10653,14 @@
       <c r="C65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="31" t="s">
-        <v>199</v>
+      <c r="D65" s="32" t="s">
+        <v>201</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7">
         <v>5800.0</v>
       </c>
-      <c r="G65" s="27" t="str">
+      <c r="G65" s="28" t="str">
         <f>HYPERLINK("https://drive.google.com/file/d/0B8G7H671wjDqT0ZZU25iTFFPdi1wbndoekh1WXk4cmFERzFr/view?usp=sharing","IER")</f>
         <v>IER</v>
       </c>
@@ -10610,14 +10676,14 @@
       <c r="C66" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="31" t="s">
-        <v>200</v>
+      <c r="D66" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7">
         <v>150.0</v>
       </c>
-      <c r="G66" s="27" t="str">
+      <c r="G66" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/WFv5sXDJQWJ6RzB37","IER")</f>
         <v>IER</v>
       </c>
@@ -10634,13 +10700,13 @@
         <v>32</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7">
         <v>150.0</v>
       </c>
-      <c r="G67" s="26"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="11"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -10654,13 +10720,13 @@
         <v>90</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7">
         <v>5600.0</v>
       </c>
-      <c r="G68" s="27" t="str">
+      <c r="G68" s="28" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1jhDsMfe8OsQxCzx_gO2Qv1-Dg2pglH8__A","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10677,13 +10743,13 @@
         <v>90</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7">
         <v>10000.0</v>
       </c>
-      <c r="G69" s="26"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="11"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -10697,14 +10763,14 @@
         <v>18</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7">
         <v>37600.0</v>
       </c>
-      <c r="G70" s="26" t="s">
-        <v>205</v>
+      <c r="G70" s="27" t="s">
+        <v>207</v>
       </c>
       <c r="H70" s="11"/>
     </row>
@@ -10718,14 +10784,14 @@
       <c r="C71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="31" t="s">
-        <v>206</v>
+      <c r="D71" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7">
         <v>450.0</v>
       </c>
-      <c r="G71" s="27" t="str">
+      <c r="G71" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/swLHyG2B9z55JKL58","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10741,14 +10807,14 @@
       <c r="C72" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="31" t="s">
-        <v>207</v>
+      <c r="D72" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7">
         <v>3200.0</v>
       </c>
-      <c r="G72" s="27" t="str">
+      <c r="G72" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/yX5spQFaD92RsSQi6","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10764,14 +10830,14 @@
       <c r="C73" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="31" t="s">
-        <v>208</v>
+      <c r="D73" s="32" t="s">
+        <v>210</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7">
         <v>750.0</v>
       </c>
-      <c r="G73" s="27" t="str">
+      <c r="G73" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/Yq3ZNy2dgfuutJyG6","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10787,14 +10853,14 @@
       <c r="C74" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>209</v>
+      <c r="D74" s="32" t="s">
+        <v>211</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7">
         <v>10800.0</v>
       </c>
-      <c r="G74" s="27" t="str">
+      <c r="G74" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/oBWCntJaUYxg33V67","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10810,15 +10876,15 @@
       <c r="C75" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="31" t="s">
-        <v>210</v>
+      <c r="D75" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7">
         <v>0.0</v>
       </c>
-      <c r="G75" s="26" t="s">
-        <v>211</v>
+      <c r="G75" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="H75" s="11"/>
     </row>
@@ -10832,15 +10898,15 @@
       <c r="C76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="31" t="s">
-        <v>212</v>
+      <c r="D76" s="32" t="s">
+        <v>214</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7">
         <v>0.0</v>
       </c>
-      <c r="G76" s="26" t="s">
-        <v>211</v>
+      <c r="G76" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -10854,15 +10920,15 @@
       <c r="C77" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>213</v>
+      <c r="D77" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7">
         <v>0.0</v>
       </c>
-      <c r="G77" s="26" t="s">
-        <v>211</v>
+      <c r="G77" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="H77" s="11"/>
     </row>
@@ -10876,15 +10942,15 @@
       <c r="C78" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="31" t="s">
-        <v>214</v>
+      <c r="D78" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7">
         <v>0.0</v>
       </c>
-      <c r="G78" s="26" t="s">
-        <v>211</v>
+      <c r="G78" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -10898,15 +10964,15 @@
       <c r="C79" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="31" t="s">
-        <v>215</v>
+      <c r="D79" s="32" t="s">
+        <v>217</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7">
         <v>0.0</v>
       </c>
-      <c r="G79" s="26" t="s">
-        <v>211</v>
+      <c r="G79" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="H79" s="11"/>
     </row>
@@ -10921,13 +10987,13 @@
         <v>18</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7">
         <v>2168.0</v>
       </c>
-      <c r="G80" s="27" t="str">
+      <c r="G80" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/BhWMeSjpLvXY5Mko6","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10944,13 +11010,13 @@
         <v>18</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7">
         <v>2065.0</v>
       </c>
-      <c r="G81" s="28" t="str">
+      <c r="G81" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/G9F6g4uyX93UNCs66","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10967,13 +11033,13 @@
         <v>18</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7">
         <v>1520.0</v>
       </c>
-      <c r="G82" s="29"/>
+      <c r="G82" s="30"/>
       <c r="H82" s="11"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -10987,13 +11053,13 @@
         <v>18</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7">
         <v>800.0</v>
       </c>
-      <c r="G83" s="29"/>
+      <c r="G83" s="30"/>
       <c r="H83" s="11"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -11007,13 +11073,13 @@
         <v>18</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7">
         <v>2180.0</v>
       </c>
-      <c r="G84" s="29"/>
+      <c r="G84" s="30"/>
       <c r="H84" s="11"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -11027,13 +11093,13 @@
         <v>18</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="7">
         <v>9070.0</v>
       </c>
-      <c r="G85" s="30"/>
+      <c r="G85" s="31"/>
       <c r="H85" s="11"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -11047,13 +11113,13 @@
         <v>90</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7">
         <v>900.0</v>
       </c>
-      <c r="G86" s="27" t="str">
+      <c r="G86" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/n6jAibAkoi7HTdCx8","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11070,13 +11136,13 @@
         <v>90</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7">
         <v>5200.0</v>
       </c>
-      <c r="G87" s="27" t="str">
+      <c r="G87" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/44pDpg71heDhgvMVA","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11093,13 +11159,13 @@
         <v>90</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7">
         <v>1000.0</v>
       </c>
-      <c r="G88" s="26"/>
+      <c r="G88" s="27"/>
       <c r="H88" s="11"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -11113,13 +11179,13 @@
         <v>90</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7">
         <v>1170.0</v>
       </c>
-      <c r="G89" s="26"/>
+      <c r="G89" s="27"/>
       <c r="H89" s="11"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -11133,13 +11199,13 @@
         <v>90</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7">
         <v>700.0</v>
       </c>
-      <c r="G90" s="27" t="str">
+      <c r="G90" s="28" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=148UATkkq956fybqOkKqsCkM53BOX6fV_","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11156,13 +11222,13 @@
         <v>18</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7">
         <v>720.0</v>
       </c>
-      <c r="G91" s="26"/>
+      <c r="G91" s="27"/>
       <c r="H91" s="11"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -11176,13 +11242,13 @@
         <v>18</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7">
         <v>1500.0</v>
       </c>
-      <c r="G92" s="26"/>
+      <c r="G92" s="27"/>
       <c r="H92" s="11"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -11196,13 +11262,13 @@
         <v>32</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7">
         <v>465.0</v>
       </c>
-      <c r="G93" s="27" t="str">
+      <c r="G93" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/h2xCKq6yp5g2H4A49","IER")</f>
         <v>IER</v>
       </c>
@@ -11219,13 +11285,13 @@
         <v>32</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7">
         <v>900.0</v>
       </c>
-      <c r="G94" s="26"/>
+      <c r="G94" s="27"/>
       <c r="H94" s="11"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -11239,13 +11305,13 @@
         <v>32</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7">
         <v>500.0</v>
       </c>
-      <c r="G95" s="26"/>
+      <c r="G95" s="27"/>
       <c r="H95" s="11"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -11259,13 +11325,13 @@
         <v>32</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7">
         <v>400.0</v>
       </c>
-      <c r="G96" s="26"/>
+      <c r="G96" s="27"/>
       <c r="H96" s="11"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -11279,13 +11345,13 @@
         <v>32</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7">
         <v>1615.0</v>
       </c>
-      <c r="G97" s="27" t="str">
+      <c r="G97" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/LnAuamqkfLzf6aLE6","boleta")</f>
         <v>boleta</v>
       </c>
@@ -11302,13 +11368,13 @@
         <v>18</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7">
         <v>2079.0</v>
       </c>
-      <c r="G98" s="26"/>
+      <c r="G98" s="27"/>
       <c r="H98" s="11"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -11322,13 +11388,13 @@
         <v>80</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7">
         <v>10000.0</v>
       </c>
-      <c r="G99" s="27" t="str">
+      <c r="G99" s="28" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1rq1--luAvAKP_n_1WtGhzJKafNaVZLD1","Compra dolar")</f>
         <v>Compra dolar</v>
       </c>
@@ -11345,13 +11411,13 @@
         <v>18</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7">
         <v>3770.0</v>
       </c>
-      <c r="G100" s="27" t="str">
+      <c r="G100" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/QuBWn4cPFByedqVq5","IER")</f>
         <v>IER</v>
       </c>
@@ -11368,14 +11434,14 @@
         <v>18</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <v>685.0</v>
       </c>
-      <c r="G101" s="26" t="s">
-        <v>234</v>
+      <c r="G101" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="H101" s="11"/>
     </row>
@@ -11390,13 +11456,13 @@
         <v>18</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7">
         <v>9590.0</v>
       </c>
-      <c r="G102" s="27" t="str">
+      <c r="G102" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/Nx2eNxC7Uup6gbWX6","boleta")</f>
         <v>boleta</v>
       </c>
@@ -11413,13 +11479,13 @@
         <v>32</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7">
         <v>950.0</v>
       </c>
-      <c r="G103" s="27" t="str">
+      <c r="G103" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/9YSKz6GEMWjofXvY9","IER")</f>
         <v>IER</v>
       </c>
@@ -11436,13 +11502,13 @@
         <v>17</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7">
         <v>1200.0</v>
       </c>
-      <c r="G104" s="27" t="str">
+      <c r="G104" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/GmEE43dbhnZyPpns9","IER")</f>
         <v>IER</v>
       </c>
@@ -11459,15 +11525,15 @@
         <v>18</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>239</v>
       </c>
       <c r="F105" s="7">
         <v>27500.0</v>
       </c>
-      <c r="G105" s="27" t="str">
+      <c r="G105" s="28" t="str">
         <f>HYPERLINK("https://drive.google.com/file/d/0B8G7H671wjDqNTNiMTV4dm5LN1JtWE5YdndXQXZZUTQyY0tZ/view?usp=sharing","CCT")</f>
         <v>CCT</v>
       </c>
@@ -11484,13 +11550,13 @@
         <v>18</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="7">
         <v>1150.0</v>
       </c>
-      <c r="G106" s="27" t="str">
+      <c r="G106" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/rEbKaQcSEfmzJrMg9","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11507,13 +11573,13 @@
         <v>18</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="7">
         <v>600.0</v>
       </c>
-      <c r="G107" s="27" t="str">
+      <c r="G107" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/TywNNqGCAgLCYYX1A","IER")</f>
         <v>IER</v>
       </c>
@@ -11530,13 +11596,13 @@
         <v>18</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="7">
         <v>600.0</v>
       </c>
-      <c r="G108" s="27" t="str">
+      <c r="G108" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/RAhKLCSj3YGbsBcb8","IER")</f>
         <v>IER</v>
       </c>
@@ -11553,13 +11619,13 @@
         <v>18</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="7">
         <v>2200.0</v>
       </c>
-      <c r="G109" s="26"/>
+      <c r="G109" s="27"/>
       <c r="H109" s="11"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -11573,13 +11639,13 @@
         <v>80</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="7">
         <v>27500.0</v>
       </c>
-      <c r="G110" s="27" t="str">
+      <c r="G110" s="28" t="str">
         <f>HYPERLINK("https://drive.google.com/file/d/1rq1--luAvAKP_n_1WtGhzJKafNaVZLD1/view?usp=sharing","Dolares compra")</f>
         <v>Dolares compra</v>
       </c>
@@ -11596,13 +11662,13 @@
         <v>18</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="7">
         <v>951.0</v>
       </c>
-      <c r="G111" s="27" t="str">
+      <c r="G111" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/T7sfMrjDToHKSVWi7","IER")</f>
         <v>IER</v>
       </c>
@@ -11619,13 +11685,13 @@
         <v>18</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="7">
         <v>850.0</v>
       </c>
-      <c r="G112" s="27" t="str">
+      <c r="G112" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/p747qGPtiygGVpTg9","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11642,13 +11708,13 @@
         <v>18</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="7">
         <v>1500.0</v>
       </c>
-      <c r="G113" s="26"/>
+      <c r="G113" s="27"/>
       <c r="H113" s="11"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -11662,13 +11728,13 @@
         <v>18</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="7">
         <v>200.0</v>
       </c>
-      <c r="G114" s="26"/>
+      <c r="G114" s="27"/>
       <c r="H114" s="11"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -11682,13 +11748,13 @@
         <v>18</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="7">
         <v>950.0</v>
       </c>
-      <c r="G115" s="27" t="str">
+      <c r="G115" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/wJv3XLTZyV1ivRNi7","IER")</f>
         <v>IER</v>
       </c>
@@ -11705,13 +11771,13 @@
         <v>18</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="7">
         <v>1300.0</v>
       </c>
-      <c r="G116" s="27" t="str">
+      <c r="G116" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/ej3Sd6SSRyYPF5yn6","IER")</f>
         <v>IER</v>
       </c>
@@ -11728,16 +11794,16 @@
         <v>17</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F117" s="7">
         <f>6000+4662</f>
         <v>10662</v>
       </c>
-      <c r="G117" s="26"/>
+      <c r="G117" s="27"/>
       <c r="H117" s="11"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -11751,14 +11817,14 @@
         <v>90</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="7">
         <f>300+75+40</f>
         <v>415</v>
       </c>
-      <c r="G118" s="26"/>
+      <c r="G118" s="27"/>
       <c r="H118" s="11"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -11772,13 +11838,13 @@
         <v>18</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="7">
         <v>295.0</v>
       </c>
-      <c r="G119" s="26"/>
+      <c r="G119" s="27"/>
       <c r="H119" s="11"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
@@ -11792,13 +11858,13 @@
         <v>18</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7">
         <v>17600.0</v>
       </c>
-      <c r="G120" s="27" t="str">
+      <c r="G120" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/gcYx42a5yyVhpWP37","IER")</f>
         <v>IER</v>
       </c>
@@ -11815,15 +11881,15 @@
         <v>18</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F121" s="7">
         <v>12500.0</v>
       </c>
-      <c r="G121" s="27" t="str">
+      <c r="G121" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/3UuKz8b8jb1oR2t89","IER")</f>
         <v>IER</v>
       </c>
@@ -11840,13 +11906,13 @@
         <v>18</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="7">
         <v>1700.0</v>
       </c>
-      <c r="G122" s="26"/>
+      <c r="G122" s="27"/>
       <c r="H122" s="11"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -11860,15 +11926,15 @@
         <v>18</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F123" s="7">
         <v>5500.0</v>
       </c>
-      <c r="G123" s="27" t="str">
+      <c r="G123" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/2ib9AP8pM4UyYYkj7","IER")</f>
         <v>IER</v>
       </c>
@@ -11885,13 +11951,13 @@
         <v>18</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="7">
         <v>200.0</v>
       </c>
-      <c r="G124" s="27" t="str">
+      <c r="G124" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/JtG7trrw5rT1muQi9","IER")</f>
         <v>IER</v>
       </c>
@@ -11908,13 +11974,13 @@
         <v>90</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="7">
         <v>200.0</v>
       </c>
-      <c r="G125" s="27" t="str">
+      <c r="G125" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/s1coEpaSJoiBMvqu9","IER")</f>
         <v>IER</v>
       </c>
@@ -11931,15 +11997,15 @@
         <v>18</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F126" s="7">
         <v>5970.0</v>
       </c>
-      <c r="G126" s="27" t="str">
+      <c r="G126" s="28" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/w3EX7ZAqEZRvKF6x5","IER")</f>
         <v>IER</v>
       </c>
@@ -11956,13 +12022,13 @@
         <v>18</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="7">
         <v>500.0</v>
       </c>
-      <c r="G127" s="26"/>
+      <c r="G127" s="27"/>
       <c r="H127" s="11"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
@@ -11976,13 +12042,13 @@
         <v>18</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="7">
         <v>500.0</v>
       </c>
-      <c r="G128" s="26"/>
+      <c r="G128" s="27"/>
       <c r="H128" s="11"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
@@ -11996,13 +12062,13 @@
         <v>18</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="7">
         <v>1800.0</v>
       </c>
-      <c r="G129" s="26"/>
+      <c r="G129" s="27"/>
       <c r="H129" s="11"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
@@ -12016,13 +12082,13 @@
         <v>18</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7">
         <v>2000.0</v>
       </c>
-      <c r="G130" s="26"/>
+      <c r="G130" s="27"/>
       <c r="H130" s="11"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
@@ -12036,13 +12102,13 @@
         <v>18</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="7">
         <v>400.0</v>
       </c>
-      <c r="G131" s="26"/>
+      <c r="G131" s="27"/>
       <c r="H131" s="11"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -12056,13 +12122,13 @@
         <v>18</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="7">
         <v>20000.0</v>
       </c>
-      <c r="G132" s="26"/>
+      <c r="G132" s="27"/>
       <c r="H132" s="11"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
@@ -12076,13 +12142,13 @@
         <v>18</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="7">
         <v>10000.0</v>
       </c>
-      <c r="G133" s="26"/>
+      <c r="G133" s="27"/>
       <c r="H133" s="11"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
@@ -12096,16 +12162,16 @@
         <v>24</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F134" s="7">
         <v>22000.0</v>
       </c>
-      <c r="G134" s="33" t="s">
-        <v>265</v>
+      <c r="G134" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="H134" s="11"/>
     </row>
@@ -12120,15 +12186,15 @@
         <v>24</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F135" s="7">
         <v>28576.0</v>
       </c>
-      <c r="G135" s="26"/>
+      <c r="G135" s="27"/>
       <c r="H135" s="11"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
@@ -12142,14 +12208,14 @@
         <v>24</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="7">
         <v>14000.0</v>
       </c>
-      <c r="G136" s="26" t="s">
-        <v>269</v>
+      <c r="G136" s="27" t="s">
+        <v>271</v>
       </c>
       <c r="H136" s="11"/>
     </row>
@@ -12161,19 +12227,19 @@
         <v>2021.0</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F137" s="7">
         <v>12000.0</v>
       </c>
-      <c r="G137" s="26" t="s">
-        <v>273</v>
+      <c r="G137" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="H137" s="11"/>
     </row>
@@ -12188,15 +12254,15 @@
         <v>90</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F138" s="7">
         <v>1500.0</v>
       </c>
-      <c r="G138" s="26"/>
+      <c r="G138" s="27"/>
       <c r="H138" s="11"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
@@ -12210,14 +12276,14 @@
         <v>24</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="7">
         <v>1600.0</v>
       </c>
-      <c r="G139" s="33" t="s">
-        <v>276</v>
+      <c r="G139" s="34" t="s">
+        <v>278</v>
       </c>
       <c r="H139" s="11"/>
     </row>
@@ -12232,15 +12298,15 @@
         <v>24</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F140" s="7">
         <v>2300.0</v>
       </c>
-      <c r="G140" s="26"/>
+      <c r="G140" s="27"/>
       <c r="H140" s="11"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -12254,16 +12320,16 @@
         <v>90</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F141" s="7">
         <v>13400.0</v>
       </c>
-      <c r="G141" s="33" t="s">
-        <v>281</v>
+      <c r="G141" s="34" t="s">
+        <v>283</v>
       </c>
       <c r="H141" s="11"/>
     </row>
@@ -12275,19 +12341,19 @@
         <v>2021.0</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E142" s="34" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="E142" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="F142" s="7">
         <v>11284.0</v>
       </c>
-      <c r="G142" s="33" t="s">
-        <v>285</v>
+      <c r="G142" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="H142" s="11"/>
     </row>
@@ -12299,19 +12365,19 @@
         <v>2021.0</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="E143" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="F143" s="7">
         <v>25249.0</v>
       </c>
-      <c r="G143" s="33" t="s">
-        <v>288</v>
+      <c r="G143" s="34" t="s">
+        <v>290</v>
       </c>
       <c r="H143" s="11"/>
     </row>
@@ -12326,13 +12392,13 @@
         <v>90</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E144" s="36"/>
+        <v>291</v>
+      </c>
+      <c r="E144" s="37"/>
       <c r="F144" s="7">
         <v>1000.0</v>
       </c>
-      <c r="G144" s="26"/>
+      <c r="G144" s="27"/>
       <c r="H144" s="11"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
@@ -12346,14 +12412,14 @@
         <v>90</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="7">
         <v>17200.0</v>
       </c>
-      <c r="G145" s="33" t="s">
-        <v>291</v>
+      <c r="G145" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="H145" s="11"/>
     </row>
@@ -12368,14 +12434,14 @@
         <v>90</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="7">
         <v>426.0</v>
       </c>
-      <c r="G146" s="33" t="s">
-        <v>293</v>
+      <c r="G146" s="34" t="s">
+        <v>295</v>
       </c>
       <c r="H146" s="11"/>
     </row>
@@ -12390,14 +12456,14 @@
         <v>90</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="7">
         <v>15000.0</v>
       </c>
-      <c r="G147" s="33" t="s">
-        <v>295</v>
+      <c r="G147" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="H147" s="11"/>
     </row>
@@ -12412,14 +12478,14 @@
         <v>80</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="7">
         <v>758.0</v>
       </c>
-      <c r="G148" s="33" t="s">
-        <v>297</v>
+      <c r="G148" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="H148" s="11"/>
     </row>
@@ -12434,14 +12500,14 @@
         <v>18</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="7">
         <v>12000.0</v>
       </c>
-      <c r="G149" s="33" t="s">
-        <v>299</v>
+      <c r="G149" s="34" t="s">
+        <v>301</v>
       </c>
       <c r="H149" s="11"/>
     </row>
@@ -12456,14 +12522,14 @@
         <v>18</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="7">
         <v>3420.0</v>
       </c>
-      <c r="G150" s="33" t="s">
-        <v>301</v>
+      <c r="G150" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="H150" s="11"/>
     </row>
@@ -12478,13 +12544,13 @@
         <v>18</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="7">
         <v>60000.0</v>
       </c>
-      <c r="G151" s="26"/>
+      <c r="G151" s="27"/>
       <c r="H151" s="11"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
@@ -12498,13 +12564,13 @@
         <v>18</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F152" s="7"/>
-      <c r="G152" s="26"/>
+      <c r="G152" s="27"/>
       <c r="H152" s="11"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
@@ -12518,16 +12584,16 @@
         <v>32</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F153" s="7">
         <v>8055.0</v>
       </c>
-      <c r="G153" s="27" t="s">
-        <v>307</v>
+      <c r="G153" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="H153" s="11"/>
     </row>
@@ -12542,16 +12608,16 @@
         <v>32</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F154" s="7">
         <v>600.0</v>
       </c>
-      <c r="G154" s="27" t="s">
-        <v>310</v>
+      <c r="G154" s="28" t="s">
+        <v>312</v>
       </c>
       <c r="H154" s="11"/>
     </row>
@@ -12566,16 +12632,16 @@
         <v>32</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F155" s="7">
         <v>23000.0</v>
       </c>
-      <c r="G155" s="27" t="s">
-        <v>313</v>
+      <c r="G155" s="28" t="s">
+        <v>315</v>
       </c>
       <c r="H155" s="11"/>
     </row>
@@ -12590,16 +12656,16 @@
         <v>32</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F156" s="7">
         <v>23000.0</v>
       </c>
-      <c r="G156" s="27" t="s">
-        <v>314</v>
+      <c r="G156" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="H156" s="11"/>
     </row>
@@ -12614,13 +12680,13 @@
         <v>32</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="7">
         <v>16000.0</v>
       </c>
-      <c r="G157" s="26"/>
+      <c r="G157" s="27"/>
       <c r="H157" s="11"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
@@ -12634,13 +12700,13 @@
         <v>32</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E158" s="11"/>
       <c r="F158" s="7">
         <v>16300.0</v>
       </c>
-      <c r="G158" s="26"/>
+      <c r="G158" s="27"/>
       <c r="H158" s="11"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
@@ -12654,13 +12720,13 @@
         <v>32</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E159" s="11"/>
       <c r="F159" s="7">
         <v>3200.0</v>
       </c>
-      <c r="G159" s="26"/>
+      <c r="G159" s="27"/>
       <c r="H159" s="11"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
@@ -12671,10 +12737,10 @@
         <v>2023.0</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E160" s="11"/>
       <c r="F160" s="17">
@@ -12694,7 +12760,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="17">
@@ -12704,640 +12770,654 @@
       <c r="H161" s="11"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="37">
+      <c r="A162" s="38">
         <v>45166.0</v>
       </c>
-      <c r="B162" s="38">
+      <c r="B162" s="20">
         <v>2023.0</v>
       </c>
-      <c r="C162" s="38" t="s">
+      <c r="C162" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D162" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="F162" s="38">
+      <c r="D162" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F162" s="20">
         <v>24150.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="37">
+      <c r="A163" s="38">
         <v>45166.0</v>
       </c>
-      <c r="B163" s="38">
+      <c r="B163" s="20">
         <v>2023.0</v>
       </c>
-      <c r="C163" s="38" t="s">
+      <c r="C163" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D163" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="F163" s="38">
+      <c r="D163" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" s="20">
         <v>6000.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="37">
+      <c r="A164" s="38">
         <v>45166.0</v>
       </c>
-      <c r="B164" s="38">
+      <c r="B164" s="20">
         <v>2023.0</v>
       </c>
-      <c r="C164" s="38" t="s">
+      <c r="C164" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D164" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="F164" s="38">
+      <c r="D164" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="F164" s="20">
         <v>6500.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="20"/>
+      <c r="A165" s="38">
+        <v>45190.0</v>
+      </c>
+      <c r="B165" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" s="20">
+        <v>54200.0</v>
+      </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="20"/>
+      <c r="A166" s="22"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="20"/>
+      <c r="A167" s="22"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="20"/>
+      <c r="A168" s="22"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="20"/>
+      <c r="A169" s="22"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="20"/>
+      <c r="A170" s="22"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="20"/>
+      <c r="A171" s="22"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="20"/>
+      <c r="A172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="20"/>
+      <c r="A173" s="22"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="20"/>
+      <c r="A174" s="22"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="20"/>
+      <c r="A175" s="22"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="20"/>
+      <c r="A176" s="22"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="20"/>
+      <c r="A177" s="22"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="20"/>
+      <c r="A178" s="22"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="20"/>
+      <c r="A179" s="22"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="20"/>
+      <c r="A180" s="22"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="20"/>
+      <c r="A181" s="22"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="20"/>
+      <c r="A182" s="22"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="20"/>
+      <c r="A183" s="22"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="20"/>
+      <c r="A184" s="22"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="20"/>
+      <c r="A185" s="22"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="20"/>
+      <c r="A186" s="22"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="20"/>
+      <c r="A187" s="22"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="20"/>
+      <c r="A188" s="22"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="20"/>
+      <c r="A189" s="22"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="20"/>
+      <c r="A190" s="22"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="20"/>
+      <c r="A191" s="22"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="20"/>
+      <c r="A192" s="22"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="20"/>
+      <c r="A193" s="22"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="20"/>
+      <c r="A194" s="22"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="20"/>
+      <c r="A195" s="22"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="20"/>
+      <c r="A196" s="22"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="20"/>
+      <c r="A197" s="22"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="20"/>
+      <c r="A198" s="22"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="20"/>
+      <c r="A199" s="22"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="20"/>
+      <c r="A200" s="22"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="20"/>
+      <c r="A201" s="22"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="20"/>
+      <c r="A202" s="22"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="20"/>
+      <c r="A203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="20"/>
+      <c r="A204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="20"/>
+      <c r="A205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="20"/>
+      <c r="A206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="20"/>
+      <c r="A207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="20"/>
+      <c r="A208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="20"/>
+      <c r="A209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="20"/>
+      <c r="A210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="20"/>
+      <c r="A211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="20"/>
+      <c r="A212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="20"/>
+      <c r="A213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="20"/>
+      <c r="A214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="20"/>
+      <c r="A215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="20"/>
+      <c r="A216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="20"/>
+      <c r="A217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="20"/>
+      <c r="A218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="20"/>
+      <c r="A219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="20"/>
+      <c r="A220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="20"/>
+      <c r="A221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="20"/>
+      <c r="A222" s="22"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="20"/>
+      <c r="A223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="20"/>
+      <c r="A224" s="22"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="20"/>
+      <c r="A225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="20"/>
+      <c r="A226" s="22"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="20"/>
+      <c r="A227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="20"/>
+      <c r="A228" s="22"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="20"/>
+      <c r="A229" s="22"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="20"/>
+      <c r="A230" s="22"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="20"/>
+      <c r="A231" s="22"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="20"/>
+      <c r="A232" s="22"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="20"/>
+      <c r="A233" s="22"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="20"/>
+      <c r="A234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="20"/>
+      <c r="A235" s="22"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="20"/>
+      <c r="A236" s="22"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="20"/>
+      <c r="A237" s="22"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="20"/>
+      <c r="A238" s="22"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="20"/>
+      <c r="A239" s="22"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="20"/>
+      <c r="A240" s="22"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="20"/>
+      <c r="A241" s="22"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="20"/>
+      <c r="A242" s="22"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="20"/>
+      <c r="A243" s="22"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="20"/>
+      <c r="A244" s="22"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="20"/>
+      <c r="A245" s="22"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="20"/>
+      <c r="A246" s="22"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="20"/>
+      <c r="A247" s="22"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="20"/>
+      <c r="A248" s="22"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="20"/>
+      <c r="A249" s="22"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="20"/>
+      <c r="A250" s="22"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="20"/>
+      <c r="A251" s="22"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="20"/>
+      <c r="A252" s="22"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="20"/>
+      <c r="A253" s="22"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="20"/>
+      <c r="A254" s="22"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="20"/>
+      <c r="A255" s="22"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="20"/>
+      <c r="A256" s="22"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="20"/>
+      <c r="A257" s="22"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="20"/>
+      <c r="A258" s="22"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="20"/>
+      <c r="A259" s="22"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="20"/>
+      <c r="A260" s="22"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="20"/>
+      <c r="A261" s="22"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="20"/>
+      <c r="A262" s="22"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="20"/>
+      <c r="A263" s="22"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="20"/>
+      <c r="A264" s="22"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="20"/>
+      <c r="A265" s="22"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="20"/>
+      <c r="A266" s="22"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="20"/>
+      <c r="A267" s="22"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="20"/>
+      <c r="A268" s="22"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="20"/>
+      <c r="A269" s="22"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="20"/>
+      <c r="A270" s="22"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="20"/>
+      <c r="A271" s="22"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="20"/>
+      <c r="A272" s="22"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="20"/>
+      <c r="A273" s="22"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="20"/>
+      <c r="A274" s="22"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="20"/>
+      <c r="A275" s="22"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="20"/>
+      <c r="A276" s="22"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="20"/>
+      <c r="A277" s="22"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="20"/>
+      <c r="A278" s="22"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="20"/>
+      <c r="A279" s="22"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="20"/>
+      <c r="A280" s="22"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="20"/>
+      <c r="A281" s="22"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="20"/>
+      <c r="A282" s="22"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="20"/>
+      <c r="A283" s="22"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="20"/>
+      <c r="A284" s="22"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="20"/>
+      <c r="A285" s="22"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="20"/>
+      <c r="A286" s="22"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="20"/>
+      <c r="A287" s="22"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="20"/>
+      <c r="A288" s="22"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="20"/>
+      <c r="A289" s="22"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="20"/>
+      <c r="A290" s="22"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="20"/>
+      <c r="A291" s="22"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="20"/>
+      <c r="A292" s="22"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="20"/>
+      <c r="A293" s="22"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="20"/>
+      <c r="A294" s="22"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="20"/>
+      <c r="A295" s="22"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="20"/>
+      <c r="A296" s="22"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="20"/>
+      <c r="A297" s="22"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="20"/>
+      <c r="A298" s="22"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="20"/>
+      <c r="A299" s="22"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="20"/>
+      <c r="A300" s="22"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="20"/>
+      <c r="A301" s="22"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="20"/>
+      <c r="A302" s="22"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="20"/>
+      <c r="A303" s="22"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="20"/>
+      <c r="A304" s="22"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="20"/>
+      <c r="A305" s="22"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="20"/>
+      <c r="A306" s="22"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="20"/>
+      <c r="A307" s="22"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="20"/>
+      <c r="A308" s="22"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="20"/>
+      <c r="A309" s="22"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="20"/>
+      <c r="A310" s="22"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="20"/>
+      <c r="A311" s="22"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="20"/>
+      <c r="A312" s="22"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="20"/>
+      <c r="A313" s="22"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="20"/>
+      <c r="A314" s="22"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="20"/>
+      <c r="A315" s="22"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="20"/>
+      <c r="A316" s="22"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="20"/>
+      <c r="A317" s="22"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="20"/>
+      <c r="A318" s="22"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="20"/>
+      <c r="A319" s="22"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="20"/>
+      <c r="A320" s="22"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="20"/>
+      <c r="A321" s="22"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="20"/>
+      <c r="A322" s="22"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="20"/>
+      <c r="A323" s="22"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="20"/>
+      <c r="A324" s="22"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="20"/>
+      <c r="A325" s="22"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="20"/>
+      <c r="A326" s="22"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="20"/>
+      <c r="A327" s="22"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="20"/>
+      <c r="A328" s="22"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="20"/>
+      <c r="A329" s="22"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="20"/>
+      <c r="A330" s="22"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="20"/>
+      <c r="A331" s="22"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="20"/>
+      <c r="A332" s="22"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="20"/>
+      <c r="A333" s="22"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="20"/>
+      <c r="A334" s="22"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="20"/>
+      <c r="A335" s="22"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="20"/>
+      <c r="A336" s="22"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="20"/>
+      <c r="A337" s="22"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="20"/>
+      <c r="A338" s="22"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="20"/>
+      <c r="A339" s="22"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="20"/>
+      <c r="A340" s="22"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="20"/>
+      <c r="A341" s="22"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="20"/>
+      <c r="A342" s="22"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="20"/>
+      <c r="A343" s="22"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="20"/>
+      <c r="A344" s="22"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="20"/>
+      <c r="A345" s="22"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="20"/>
+      <c r="A346" s="22"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="20"/>
+      <c r="A347" s="22"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="20"/>
+      <c r="A348" s="22"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="20"/>
+      <c r="A349" s="22"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="20"/>
+      <c r="A350" s="22"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="20"/>
+      <c r="A351" s="22"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="20"/>
+      <c r="A352" s="22"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="20"/>
+      <c r="A353" s="22"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="20"/>
+      <c r="A354" s="22"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="20"/>
+      <c r="A355" s="22"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="20"/>
+      <c r="A356" s="22"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="20"/>
+      <c r="A357" s="22"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="20"/>
+      <c r="A358" s="22"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="20"/>
+      <c r="A359" s="22"/>
     </row>
     <row r="360" ht="15.75" customHeight="1"/>
     <row r="361" ht="15.75" customHeight="1"/>
@@ -14021,13 +14101,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -14035,7 +14115,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C2" s="39">
         <v>44896.0</v>
@@ -14046,10 +14126,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>17</v>
+        <v>327</v>
+      </c>
+      <c r="C3" s="40">
+        <v>45291.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -14057,7 +14137,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C4" s="41">
         <v>45394.0</v>
@@ -14068,10 +14148,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="39">
-        <v>44052.0</v>
+        <v>329</v>
+      </c>
+      <c r="C5" s="40">
+        <v>45534.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -14079,7 +14159,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C6" s="42">
         <v>41343.0</v>
@@ -14090,10 +14170,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="39">
-        <v>45113.0</v>
+        <v>323</v>
+      </c>
+      <c r="C7" s="40">
+        <v>45534.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -14101,7 +14181,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C8" s="43">
         <v>45323.0</v>
@@ -14112,7 +14192,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C9" s="41">
         <v>45394.0</v>
@@ -14123,10 +14203,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="42">
-        <v>44052.0</v>
+        <v>329</v>
+      </c>
+      <c r="C10" s="44">
+        <v>45534.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -14134,7 +14214,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C11" s="42">
         <v>40822.0</v>
@@ -15151,22 +15231,22 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -15174,7 +15254,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C2" s="8">
         <v>45028.0</v>
@@ -15194,7 +15274,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C3" s="18">
         <v>45063.0</v>
@@ -15210,7 +15290,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>17</v>
@@ -15226,7 +15306,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
@@ -15242,7 +15322,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
@@ -15258,7 +15338,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>17</v>
@@ -15274,7 +15354,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>17</v>
@@ -15290,7 +15370,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
@@ -15302,848 +15382,848 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="C17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="C25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="C29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="C31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="C33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="C35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="C36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="C37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="C39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="C42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="C43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="C44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="C45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="C46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="C47" s="22"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="C48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="C49" s="22"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="C50" s="22"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="C51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="C52" s="22"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="C53" s="22"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="C54" s="22"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="C55" s="22"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="C56" s="22"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="C57" s="22"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="C58" s="22"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="C59" s="22"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="C60" s="22"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="C61" s="22"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="C62" s="22"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="C64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="C65" s="22"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="C66" s="22"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="C67" s="22"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="C68" s="22"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="C69" s="22"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="C70" s="22"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="C71" s="22"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="C72" s="22"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="C73" s="22"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="20"/>
-      <c r="F74" s="20"/>
+      <c r="C74" s="22"/>
+      <c r="F74" s="22"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="20"/>
-      <c r="F75" s="20"/>
+      <c r="C75" s="22"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="20"/>
-      <c r="F76" s="20"/>
+      <c r="C76" s="22"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="20"/>
-      <c r="F77" s="20"/>
+      <c r="C77" s="22"/>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="20"/>
-      <c r="F78" s="20"/>
+      <c r="C78" s="22"/>
+      <c r="F78" s="22"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="20"/>
-      <c r="F79" s="20"/>
+      <c r="C79" s="22"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="20"/>
-      <c r="F80" s="20"/>
+      <c r="C80" s="22"/>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="20"/>
-      <c r="F81" s="20"/>
+      <c r="C81" s="22"/>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="20"/>
-      <c r="F82" s="20"/>
+      <c r="C82" s="22"/>
+      <c r="F82" s="22"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="20"/>
-      <c r="F83" s="20"/>
+      <c r="C83" s="22"/>
+      <c r="F83" s="22"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="20"/>
-      <c r="F84" s="20"/>
+      <c r="C84" s="22"/>
+      <c r="F84" s="22"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="20"/>
-      <c r="F85" s="20"/>
+      <c r="C85" s="22"/>
+      <c r="F85" s="22"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="C86" s="22"/>
+      <c r="F86" s="22"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="20"/>
-      <c r="F87" s="20"/>
+      <c r="C87" s="22"/>
+      <c r="F87" s="22"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="20"/>
-      <c r="F88" s="20"/>
+      <c r="C88" s="22"/>
+      <c r="F88" s="22"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="C89" s="22"/>
+      <c r="F89" s="22"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="20"/>
-      <c r="F90" s="20"/>
+      <c r="C90" s="22"/>
+      <c r="F90" s="22"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="20"/>
-      <c r="F91" s="20"/>
+      <c r="C91" s="22"/>
+      <c r="F91" s="22"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="20"/>
-      <c r="F92" s="20"/>
+      <c r="C92" s="22"/>
+      <c r="F92" s="22"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="20"/>
-      <c r="F93" s="20"/>
+      <c r="C93" s="22"/>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="20"/>
-      <c r="F94" s="20"/>
+      <c r="C94" s="22"/>
+      <c r="F94" s="22"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="20"/>
-      <c r="F95" s="20"/>
+      <c r="C95" s="22"/>
+      <c r="F95" s="22"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="20"/>
-      <c r="F96" s="20"/>
+      <c r="C96" s="22"/>
+      <c r="F96" s="22"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="20"/>
-      <c r="F97" s="20"/>
+      <c r="C97" s="22"/>
+      <c r="F97" s="22"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="20"/>
-      <c r="F98" s="20"/>
+      <c r="C98" s="22"/>
+      <c r="F98" s="22"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="20"/>
-      <c r="F99" s="20"/>
+      <c r="C99" s="22"/>
+      <c r="F99" s="22"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="20"/>
-      <c r="F100" s="20"/>
+      <c r="C100" s="22"/>
+      <c r="F100" s="22"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="20"/>
-      <c r="F101" s="20"/>
+      <c r="C101" s="22"/>
+      <c r="F101" s="22"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="20"/>
-      <c r="F102" s="20"/>
+      <c r="C102" s="22"/>
+      <c r="F102" s="22"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="20"/>
-      <c r="F103" s="20"/>
+      <c r="C103" s="22"/>
+      <c r="F103" s="22"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="20"/>
-      <c r="F104" s="20"/>
+      <c r="C104" s="22"/>
+      <c r="F104" s="22"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="20"/>
-      <c r="F105" s="20"/>
+      <c r="C105" s="22"/>
+      <c r="F105" s="22"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="20"/>
-      <c r="F106" s="20"/>
+      <c r="C106" s="22"/>
+      <c r="F106" s="22"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="20"/>
-      <c r="F107" s="20"/>
+      <c r="C107" s="22"/>
+      <c r="F107" s="22"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="20"/>
-      <c r="F108" s="20"/>
+      <c r="C108" s="22"/>
+      <c r="F108" s="22"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="20"/>
-      <c r="F109" s="20"/>
+      <c r="C109" s="22"/>
+      <c r="F109" s="22"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="20"/>
-      <c r="F110" s="20"/>
+      <c r="C110" s="22"/>
+      <c r="F110" s="22"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="20"/>
-      <c r="F111" s="20"/>
+      <c r="C111" s="22"/>
+      <c r="F111" s="22"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="20"/>
-      <c r="F112" s="20"/>
+      <c r="C112" s="22"/>
+      <c r="F112" s="22"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="20"/>
-      <c r="F113" s="20"/>
+      <c r="C113" s="22"/>
+      <c r="F113" s="22"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="20"/>
-      <c r="F114" s="20"/>
+      <c r="C114" s="22"/>
+      <c r="F114" s="22"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="20"/>
-      <c r="F115" s="20"/>
+      <c r="C115" s="22"/>
+      <c r="F115" s="22"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="20"/>
-      <c r="F116" s="20"/>
+      <c r="C116" s="22"/>
+      <c r="F116" s="22"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="20"/>
-      <c r="F117" s="20"/>
+      <c r="C117" s="22"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="20"/>
-      <c r="F118" s="20"/>
+      <c r="C118" s="22"/>
+      <c r="F118" s="22"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="20"/>
-      <c r="F119" s="20"/>
+      <c r="C119" s="22"/>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="20"/>
-      <c r="F120" s="20"/>
+      <c r="C120" s="22"/>
+      <c r="F120" s="22"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="20"/>
-      <c r="F121" s="20"/>
+      <c r="C121" s="22"/>
+      <c r="F121" s="22"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="20"/>
-      <c r="F122" s="20"/>
+      <c r="C122" s="22"/>
+      <c r="F122" s="22"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="20"/>
-      <c r="F123" s="20"/>
+      <c r="C123" s="22"/>
+      <c r="F123" s="22"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="20"/>
-      <c r="F124" s="20"/>
+      <c r="C124" s="22"/>
+      <c r="F124" s="22"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="20"/>
-      <c r="F125" s="20"/>
+      <c r="C125" s="22"/>
+      <c r="F125" s="22"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="20"/>
-      <c r="F126" s="20"/>
+      <c r="C126" s="22"/>
+      <c r="F126" s="22"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="20"/>
-      <c r="F127" s="20"/>
+      <c r="C127" s="22"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="20"/>
-      <c r="F128" s="20"/>
+      <c r="C128" s="22"/>
+      <c r="F128" s="22"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="20"/>
-      <c r="F129" s="20"/>
+      <c r="C129" s="22"/>
+      <c r="F129" s="22"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="20"/>
-      <c r="F130" s="20"/>
+      <c r="C130" s="22"/>
+      <c r="F130" s="22"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="20"/>
-      <c r="F131" s="20"/>
+      <c r="C131" s="22"/>
+      <c r="F131" s="22"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="20"/>
-      <c r="F132" s="20"/>
+      <c r="C132" s="22"/>
+      <c r="F132" s="22"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="20"/>
-      <c r="F133" s="20"/>
+      <c r="C133" s="22"/>
+      <c r="F133" s="22"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="20"/>
-      <c r="F134" s="20"/>
+      <c r="C134" s="22"/>
+      <c r="F134" s="22"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="20"/>
-      <c r="F135" s="20"/>
+      <c r="C135" s="22"/>
+      <c r="F135" s="22"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="20"/>
-      <c r="F136" s="20"/>
+      <c r="C136" s="22"/>
+      <c r="F136" s="22"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="20"/>
-      <c r="F137" s="20"/>
+      <c r="C137" s="22"/>
+      <c r="F137" s="22"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="20"/>
-      <c r="F138" s="20"/>
+      <c r="C138" s="22"/>
+      <c r="F138" s="22"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="20"/>
-      <c r="F139" s="20"/>
+      <c r="C139" s="22"/>
+      <c r="F139" s="22"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="20"/>
-      <c r="F140" s="20"/>
+      <c r="C140" s="22"/>
+      <c r="F140" s="22"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="20"/>
-      <c r="F141" s="20"/>
+      <c r="C141" s="22"/>
+      <c r="F141" s="22"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="20"/>
-      <c r="F142" s="20"/>
+      <c r="C142" s="22"/>
+      <c r="F142" s="22"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="20"/>
-      <c r="F143" s="20"/>
+      <c r="C143" s="22"/>
+      <c r="F143" s="22"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="20"/>
-      <c r="F144" s="20"/>
+      <c r="C144" s="22"/>
+      <c r="F144" s="22"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="20"/>
-      <c r="F145" s="20"/>
+      <c r="C145" s="22"/>
+      <c r="F145" s="22"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="20"/>
-      <c r="F146" s="20"/>
+      <c r="C146" s="22"/>
+      <c r="F146" s="22"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="20"/>
-      <c r="F147" s="20"/>
+      <c r="C147" s="22"/>
+      <c r="F147" s="22"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="20"/>
-      <c r="F148" s="20"/>
+      <c r="C148" s="22"/>
+      <c r="F148" s="22"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="20"/>
-      <c r="F149" s="20"/>
+      <c r="C149" s="22"/>
+      <c r="F149" s="22"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="20"/>
-      <c r="F150" s="20"/>
+      <c r="C150" s="22"/>
+      <c r="F150" s="22"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="20"/>
-      <c r="F151" s="20"/>
+      <c r="C151" s="22"/>
+      <c r="F151" s="22"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="20"/>
-      <c r="F152" s="20"/>
+      <c r="C152" s="22"/>
+      <c r="F152" s="22"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="20"/>
-      <c r="F153" s="20"/>
+      <c r="C153" s="22"/>
+      <c r="F153" s="22"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="20"/>
-      <c r="F154" s="20"/>
+      <c r="C154" s="22"/>
+      <c r="F154" s="22"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="20"/>
-      <c r="F155" s="20"/>
+      <c r="C155" s="22"/>
+      <c r="F155" s="22"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="20"/>
-      <c r="F156" s="20"/>
+      <c r="C156" s="22"/>
+      <c r="F156" s="22"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="20"/>
-      <c r="F157" s="20"/>
+      <c r="C157" s="22"/>
+      <c r="F157" s="22"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="20"/>
-      <c r="F158" s="20"/>
+      <c r="C158" s="22"/>
+      <c r="F158" s="22"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="20"/>
-      <c r="F159" s="20"/>
+      <c r="C159" s="22"/>
+      <c r="F159" s="22"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="20"/>
-      <c r="F160" s="20"/>
+      <c r="C160" s="22"/>
+      <c r="F160" s="22"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="20"/>
-      <c r="F161" s="20"/>
+      <c r="C161" s="22"/>
+      <c r="F161" s="22"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="20"/>
-      <c r="F162" s="20"/>
+      <c r="C162" s="22"/>
+      <c r="F162" s="22"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="20"/>
-      <c r="F163" s="20"/>
+      <c r="C163" s="22"/>
+      <c r="F163" s="22"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="20"/>
-      <c r="F164" s="20"/>
+      <c r="C164" s="22"/>
+      <c r="F164" s="22"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="20"/>
-      <c r="F165" s="20"/>
+      <c r="C165" s="22"/>
+      <c r="F165" s="22"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="20"/>
-      <c r="F166" s="20"/>
+      <c r="C166" s="22"/>
+      <c r="F166" s="22"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="20"/>
-      <c r="F167" s="20"/>
+      <c r="C167" s="22"/>
+      <c r="F167" s="22"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="20"/>
-      <c r="F168" s="20"/>
+      <c r="C168" s="22"/>
+      <c r="F168" s="22"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="20"/>
-      <c r="F169" s="20"/>
+      <c r="C169" s="22"/>
+      <c r="F169" s="22"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="20"/>
-      <c r="F170" s="20"/>
+      <c r="C170" s="22"/>
+      <c r="F170" s="22"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="20"/>
-      <c r="F171" s="20"/>
+      <c r="C171" s="22"/>
+      <c r="F171" s="22"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="20"/>
-      <c r="F172" s="20"/>
+      <c r="C172" s="22"/>
+      <c r="F172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="20"/>
-      <c r="F173" s="20"/>
+      <c r="C173" s="22"/>
+      <c r="F173" s="22"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="20"/>
-      <c r="F174" s="20"/>
+      <c r="C174" s="22"/>
+      <c r="F174" s="22"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="20"/>
-      <c r="F175" s="20"/>
+      <c r="C175" s="22"/>
+      <c r="F175" s="22"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="20"/>
-      <c r="F176" s="20"/>
+      <c r="C176" s="22"/>
+      <c r="F176" s="22"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="20"/>
-      <c r="F177" s="20"/>
+      <c r="C177" s="22"/>
+      <c r="F177" s="22"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="20"/>
-      <c r="F178" s="20"/>
+      <c r="C178" s="22"/>
+      <c r="F178" s="22"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="20"/>
-      <c r="F179" s="20"/>
+      <c r="C179" s="22"/>
+      <c r="F179" s="22"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="20"/>
-      <c r="F180" s="20"/>
+      <c r="C180" s="22"/>
+      <c r="F180" s="22"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="20"/>
-      <c r="F181" s="20"/>
+      <c r="C181" s="22"/>
+      <c r="F181" s="22"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="20"/>
-      <c r="F182" s="20"/>
+      <c r="C182" s="22"/>
+      <c r="F182" s="22"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="20"/>
-      <c r="F183" s="20"/>
+      <c r="C183" s="22"/>
+      <c r="F183" s="22"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="20"/>
-      <c r="F184" s="20"/>
+      <c r="C184" s="22"/>
+      <c r="F184" s="22"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="20"/>
-      <c r="F185" s="20"/>
+      <c r="C185" s="22"/>
+      <c r="F185" s="22"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="20"/>
-      <c r="F186" s="20"/>
+      <c r="C186" s="22"/>
+      <c r="F186" s="22"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="20"/>
-      <c r="F187" s="20"/>
+      <c r="C187" s="22"/>
+      <c r="F187" s="22"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="20"/>
-      <c r="F188" s="20"/>
+      <c r="C188" s="22"/>
+      <c r="F188" s="22"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="20"/>
-      <c r="F189" s="20"/>
+      <c r="C189" s="22"/>
+      <c r="F189" s="22"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="20"/>
-      <c r="F190" s="20"/>
+      <c r="C190" s="22"/>
+      <c r="F190" s="22"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="20"/>
-      <c r="F191" s="20"/>
+      <c r="C191" s="22"/>
+      <c r="F191" s="22"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="20"/>
-      <c r="F192" s="20"/>
+      <c r="C192" s="22"/>
+      <c r="F192" s="22"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="20"/>
-      <c r="F193" s="20"/>
+      <c r="C193" s="22"/>
+      <c r="F193" s="22"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="20"/>
-      <c r="F194" s="20"/>
+      <c r="C194" s="22"/>
+      <c r="F194" s="22"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="20"/>
-      <c r="F195" s="20"/>
+      <c r="C195" s="22"/>
+      <c r="F195" s="22"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="20"/>
-      <c r="F196" s="20"/>
+      <c r="C196" s="22"/>
+      <c r="F196" s="22"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="20"/>
-      <c r="F197" s="20"/>
+      <c r="C197" s="22"/>
+      <c r="F197" s="22"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="20"/>
-      <c r="F198" s="20"/>
+      <c r="C198" s="22"/>
+      <c r="F198" s="22"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="20"/>
-      <c r="F199" s="20"/>
+      <c r="C199" s="22"/>
+      <c r="F199" s="22"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="20"/>
-      <c r="F200" s="20"/>
+      <c r="C200" s="22"/>
+      <c r="F200" s="22"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="20"/>
-      <c r="F201" s="20"/>
+      <c r="C201" s="22"/>
+      <c r="F201" s="22"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="20"/>
-      <c r="F202" s="20"/>
+      <c r="C202" s="22"/>
+      <c r="F202" s="22"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="20"/>
-      <c r="F203" s="20"/>
+      <c r="C203" s="22"/>
+      <c r="F203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="20"/>
-      <c r="F204" s="20"/>
+      <c r="C204" s="22"/>
+      <c r="F204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="20"/>
-      <c r="F205" s="20"/>
+      <c r="C205" s="22"/>
+      <c r="F205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="20"/>
-      <c r="F206" s="20"/>
+      <c r="C206" s="22"/>
+      <c r="F206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="20"/>
-      <c r="F207" s="20"/>
+      <c r="C207" s="22"/>
+      <c r="F207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="20"/>
-      <c r="F208" s="20"/>
+      <c r="C208" s="22"/>
+      <c r="F208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="20"/>
-      <c r="F209" s="20"/>
+      <c r="C209" s="22"/>
+      <c r="F209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="20"/>
-      <c r="F210" s="20"/>
+      <c r="C210" s="22"/>
+      <c r="F210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="20"/>
-      <c r="F211" s="20"/>
+      <c r="C211" s="22"/>
+      <c r="F211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="20"/>
-      <c r="F212" s="20"/>
+      <c r="C212" s="22"/>
+      <c r="F212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="20"/>
-      <c r="F213" s="20"/>
+      <c r="C213" s="22"/>
+      <c r="F213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="20"/>
-      <c r="F214" s="20"/>
+      <c r="C214" s="22"/>
+      <c r="F214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="20"/>
-      <c r="F215" s="20"/>
+      <c r="C215" s="22"/>
+      <c r="F215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="20"/>
-      <c r="F216" s="20"/>
+      <c r="C216" s="22"/>
+      <c r="F216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="20"/>
-      <c r="F217" s="20"/>
+      <c r="C217" s="22"/>
+      <c r="F217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="20"/>
-      <c r="F218" s="20"/>
+      <c r="C218" s="22"/>
+      <c r="F218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="20"/>
-      <c r="F219" s="20"/>
+      <c r="C219" s="22"/>
+      <c r="F219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="20"/>
-      <c r="F220" s="20"/>
+      <c r="C220" s="22"/>
+      <c r="F220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -16946,156 +17026,156 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="44" t="s">
-        <v>347</v>
+      <c r="A5" s="45" t="s">
+        <v>350</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="44" t="s">
-        <v>351</v>
+      <c r="A7" s="45" t="s">
+        <v>354</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="44" t="s">
-        <v>353</v>
+      <c r="A8" s="45" t="s">
+        <v>356</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="45" t="s">
-        <v>354</v>
+      <c r="A9" s="46" t="s">
+        <v>357</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="44" t="s">
-        <v>355</v>
+      <c r="A10" s="45" t="s">
+        <v>358</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="45" t="s">
-        <v>356</v>
+      <c r="A11" s="46" t="s">
+        <v>359</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="367">
   <si>
     <t>usuario</t>
   </si>
@@ -517,6 +517,9 @@
     <t>nachu-rox-caro</t>
   </si>
   <si>
+    <t>Famaila</t>
+  </si>
+  <si>
     <t>sofia marinaro</t>
   </si>
   <si>
@@ -1101,6 +1104,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Tanque nafta y filtro gasoil</t>
+  </si>
+  <si>
+    <t>pata caja de cambios</t>
+  </si>
+  <si>
+    <t>pata 25000 + mano de obra 5000</t>
+  </si>
+  <si>
+    <t>luces</t>
+  </si>
+  <si>
+    <t>7000 + mano de obra</t>
+  </si>
+  <si>
+    <t>tanque nafta arreglo general</t>
+  </si>
+  <si>
+    <t>tapa liquido refrigerante</t>
   </si>
   <si>
     <t>elemento</t>
@@ -1725,7 +1746,8 @@
     <col customWidth="1" min="7" max="7" width="6.63"/>
     <col customWidth="1" min="8" max="8" width="7.13"/>
     <col customWidth="1" min="9" max="9" width="7.5"/>
-    <col customWidth="1" min="10" max="11" width="5.5"/>
+    <col customWidth="1" min="10" max="10" width="7.75"/>
+    <col customWidth="1" min="11" max="11" width="5.5"/>
     <col customWidth="1" min="12" max="12" width="23.25"/>
     <col customWidth="1" min="14" max="14" width="15.13"/>
     <col customWidth="1" min="16" max="16" width="14.63"/>
@@ -1823,18 +1845,18 @@
       </c>
       <c r="N2" s="6">
         <f>SUM(J2:J1000)</f>
-        <v>1031482.05</v>
+        <v>1084392.05</v>
       </c>
       <c r="O2" s="6">
         <f>N2-gastos!H2</f>
-        <v>130436.05</v>
+        <v>34656.05</v>
       </c>
       <c r="P2" s="5">
         <v>930.0</v>
       </c>
       <c r="Q2" s="6">
         <f>sum(O2+P2)</f>
-        <v>131366.05</v>
+        <v>35586.05</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -7309,7 +7331,7 @@
         <v>17</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D150" s="20">
         <v>2023.0</v>
@@ -7334,7 +7356,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>17</v>
@@ -7351,7 +7373,7 @@
       <c r="F151" s="18">
         <v>45192.0</v>
       </c>
-      <c r="G151" s="20" t="s">
+      <c r="G151" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H151" s="20">
@@ -7366,15 +7388,67 @@
       <c r="K151" s="21"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="E152" s="22"/>
-      <c r="F152" s="22"/>
+      <c r="A152" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E152" s="18">
+        <v>45195.0</v>
+      </c>
+      <c r="F152" s="18">
+        <v>45196.0</v>
+      </c>
+      <c r="G152" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="I152" s="20">
+        <v>26455.0</v>
+      </c>
       <c r="J152" s="6"/>
       <c r="K152" s="21"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
-      <c r="J153" s="6"/>
+      <c r="A153" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E153" s="18">
+        <v>45202.0</v>
+      </c>
+      <c r="F153" s="18">
+        <v>45205.0</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H153" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="I153" s="20">
+        <v>52910.0</v>
+      </c>
+      <c r="J153" s="20">
+        <v>52910.0</v>
+      </c>
       <c r="K153" s="21"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
@@ -9282,12 +9356,12 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152:J999">
+  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152 J154:J999">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152:J999">
+  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152 J154:J999">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9313,28 +9387,28 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -9348,7 +9422,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7">
@@ -9357,7 +9431,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="26">
         <f>SUM(F2:F996)</f>
-        <v>901046</v>
+        <v>1049736</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -9371,7 +9445,7 @@
         <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
@@ -9391,7 +9465,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
@@ -9411,7 +9485,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
@@ -9431,7 +9505,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
@@ -9451,7 +9525,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
@@ -9471,7 +9545,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
@@ -9491,7 +9565,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
@@ -9511,7 +9585,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
@@ -9531,7 +9605,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
@@ -9551,7 +9625,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
@@ -9571,7 +9645,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
@@ -9591,7 +9665,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
@@ -9611,7 +9685,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
@@ -9631,7 +9705,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
@@ -9654,7 +9728,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
@@ -9677,7 +9751,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7">
@@ -9700,7 +9774,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
@@ -9723,7 +9797,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7">
@@ -9743,7 +9817,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
@@ -9766,7 +9840,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7">
@@ -9786,7 +9860,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
@@ -9806,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7">
@@ -9826,7 +9900,7 @@
         <v>90</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7">
@@ -9847,7 +9921,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7">
@@ -9870,7 +9944,7 @@
         <v>90</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7">
@@ -9893,7 +9967,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7">
@@ -9913,7 +9987,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7">
@@ -9933,7 +10007,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7">
@@ -9956,7 +10030,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7">
@@ -9976,7 +10050,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
@@ -9999,7 +10073,7 @@
         <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7">
@@ -10019,7 +10093,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7">
@@ -10042,7 +10116,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
@@ -10065,7 +10139,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7">
@@ -10085,7 +10159,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
@@ -10105,7 +10179,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7">
@@ -10128,7 +10202,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7">
@@ -10151,14 +10225,14 @@
         <v>18</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7">
         <v>5400.0</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H40" s="11"/>
     </row>
@@ -10173,7 +10247,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7">
@@ -10193,7 +10267,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7">
@@ -10213,7 +10287,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="7">
@@ -10234,7 +10308,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7">
@@ -10254,7 +10328,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7">
@@ -10274,7 +10348,7 @@
         <v>32</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7">
@@ -10294,7 +10368,7 @@
         <v>32</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7">
@@ -10314,7 +10388,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7">
@@ -10334,7 +10408,7 @@
         <v>32</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7">
@@ -10354,7 +10428,7 @@
         <v>32</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7">
@@ -10374,7 +10448,7 @@
         <v>32</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7">
@@ -10394,7 +10468,7 @@
         <v>32</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7">
@@ -10414,7 +10488,7 @@
         <v>32</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7">
@@ -10434,7 +10508,7 @@
         <v>32</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7">
@@ -10454,7 +10528,7 @@
         <v>32</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7">
@@ -10474,7 +10548,7 @@
         <v>32</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7">
@@ -10494,7 +10568,7 @@
         <v>32</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7">
@@ -10514,7 +10588,7 @@
         <v>32</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7">
@@ -10534,7 +10608,7 @@
         <v>32</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7">
@@ -10554,7 +10628,7 @@
         <v>32</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7">
@@ -10574,7 +10648,7 @@
         <v>32</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7">
@@ -10594,7 +10668,7 @@
         <v>32</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7">
@@ -10614,7 +10688,7 @@
         <v>32</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7">
@@ -10634,7 +10708,7 @@
         <v>32</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7">
@@ -10654,7 +10728,7 @@
         <v>32</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7">
@@ -10677,7 +10751,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7">
@@ -10700,7 +10774,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7">
@@ -10720,7 +10794,7 @@
         <v>90</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7">
@@ -10743,7 +10817,7 @@
         <v>90</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7">
@@ -10763,14 +10837,14 @@
         <v>18</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7">
         <v>37600.0</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H70" s="11"/>
     </row>
@@ -10785,7 +10859,7 @@
         <v>18</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7">
@@ -10808,7 +10882,7 @@
         <v>18</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7">
@@ -10831,7 +10905,7 @@
         <v>18</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7">
@@ -10854,7 +10928,7 @@
         <v>18</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7">
@@ -10877,14 +10951,14 @@
         <v>18</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7">
         <v>0.0</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H75" s="11"/>
     </row>
@@ -10899,14 +10973,14 @@
         <v>18</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7">
         <v>0.0</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -10921,14 +10995,14 @@
         <v>18</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7">
         <v>0.0</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H77" s="11"/>
     </row>
@@ -10943,14 +11017,14 @@
         <v>18</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7">
         <v>0.0</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -10965,14 +11039,14 @@
         <v>18</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7">
         <v>0.0</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H79" s="11"/>
     </row>
@@ -10987,7 +11061,7 @@
         <v>18</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7">
@@ -11010,7 +11084,7 @@
         <v>18</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7">
@@ -11033,7 +11107,7 @@
         <v>18</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7">
@@ -11053,7 +11127,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7">
@@ -11073,7 +11147,7 @@
         <v>18</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7">
@@ -11093,7 +11167,7 @@
         <v>18</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="7">
@@ -11113,7 +11187,7 @@
         <v>90</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7">
@@ -11136,7 +11210,7 @@
         <v>90</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7">
@@ -11159,7 +11233,7 @@
         <v>90</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7">
@@ -11179,7 +11253,7 @@
         <v>90</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7">
@@ -11199,7 +11273,7 @@
         <v>90</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7">
@@ -11222,7 +11296,7 @@
         <v>18</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7">
@@ -11242,7 +11316,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7">
@@ -11262,7 +11336,7 @@
         <v>32</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7">
@@ -11285,7 +11359,7 @@
         <v>32</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7">
@@ -11305,7 +11379,7 @@
         <v>32</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7">
@@ -11325,7 +11399,7 @@
         <v>32</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7">
@@ -11345,7 +11419,7 @@
         <v>32</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7">
@@ -11368,7 +11442,7 @@
         <v>18</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7">
@@ -11388,7 +11462,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7">
@@ -11411,7 +11485,7 @@
         <v>18</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7">
@@ -11434,14 +11508,14 @@
         <v>18</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <v>685.0</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H101" s="11"/>
     </row>
@@ -11456,7 +11530,7 @@
         <v>18</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7">
@@ -11479,7 +11553,7 @@
         <v>32</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7">
@@ -11502,7 +11576,7 @@
         <v>17</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7">
@@ -11525,10 +11599,10 @@
         <v>18</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F105" s="7">
         <v>27500.0</v>
@@ -11550,7 +11624,7 @@
         <v>18</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="7">
@@ -11573,7 +11647,7 @@
         <v>18</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="7">
@@ -11596,7 +11670,7 @@
         <v>18</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="7">
@@ -11619,7 +11693,7 @@
         <v>18</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="7">
@@ -11639,7 +11713,7 @@
         <v>80</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="7">
@@ -11662,7 +11736,7 @@
         <v>18</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="7">
@@ -11685,7 +11759,7 @@
         <v>18</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="7">
@@ -11708,7 +11782,7 @@
         <v>18</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="7">
@@ -11728,7 +11802,7 @@
         <v>18</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="7">
@@ -11748,7 +11822,7 @@
         <v>18</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="7">
@@ -11771,7 +11845,7 @@
         <v>18</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="7">
@@ -11794,10 +11868,10 @@
         <v>17</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F117" s="7">
         <f>6000+4662</f>
@@ -11817,7 +11891,7 @@
         <v>90</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="7">
@@ -11838,7 +11912,7 @@
         <v>18</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="7">
@@ -11858,7 +11932,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7">
@@ -11881,10 +11955,10 @@
         <v>18</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F121" s="7">
         <v>12500.0</v>
@@ -11906,7 +11980,7 @@
         <v>18</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="7">
@@ -11926,10 +12000,10 @@
         <v>18</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F123" s="7">
         <v>5500.0</v>
@@ -11951,7 +12025,7 @@
         <v>18</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="7">
@@ -11974,7 +12048,7 @@
         <v>90</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="7">
@@ -11997,10 +12071,10 @@
         <v>18</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F126" s="7">
         <v>5970.0</v>
@@ -12022,7 +12096,7 @@
         <v>18</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="7">
@@ -12042,7 +12116,7 @@
         <v>18</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="7">
@@ -12062,7 +12136,7 @@
         <v>18</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="7">
@@ -12082,7 +12156,7 @@
         <v>18</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7">
@@ -12102,7 +12176,7 @@
         <v>18</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="7">
@@ -12122,7 +12196,7 @@
         <v>18</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="7">
@@ -12142,7 +12216,7 @@
         <v>18</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="7">
@@ -12162,16 +12236,16 @@
         <v>24</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F134" s="7">
         <v>22000.0</v>
       </c>
       <c r="G134" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H134" s="11"/>
     </row>
@@ -12186,10 +12260,10 @@
         <v>24</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F135" s="7">
         <v>28576.0</v>
@@ -12208,14 +12282,14 @@
         <v>24</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="7">
         <v>14000.0</v>
       </c>
       <c r="G136" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H136" s="11"/>
     </row>
@@ -12227,19 +12301,19 @@
         <v>2021.0</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F137" s="7">
         <v>12000.0</v>
       </c>
       <c r="G137" s="27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H137" s="11"/>
     </row>
@@ -12254,10 +12328,10 @@
         <v>90</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F138" s="7">
         <v>1500.0</v>
@@ -12276,14 +12350,14 @@
         <v>24</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="7">
         <v>1600.0</v>
       </c>
       <c r="G139" s="34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H139" s="11"/>
     </row>
@@ -12298,10 +12372,10 @@
         <v>24</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F140" s="7">
         <v>2300.0</v>
@@ -12320,16 +12394,16 @@
         <v>90</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F141" s="7">
         <v>13400.0</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H141" s="11"/>
     </row>
@@ -12341,19 +12415,19 @@
         <v>2021.0</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F142" s="7">
         <v>11284.0</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H142" s="11"/>
     </row>
@@ -12365,19 +12439,19 @@
         <v>2021.0</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E143" s="36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F143" s="7">
         <v>25249.0</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H143" s="11"/>
     </row>
@@ -12392,7 +12466,7 @@
         <v>90</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E144" s="37"/>
       <c r="F144" s="7">
@@ -12412,14 +12486,14 @@
         <v>90</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="7">
         <v>17200.0</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H145" s="11"/>
     </row>
@@ -12434,14 +12508,14 @@
         <v>90</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="7">
         <v>426.0</v>
       </c>
       <c r="G146" s="34" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H146" s="11"/>
     </row>
@@ -12456,14 +12530,14 @@
         <v>90</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="7">
         <v>15000.0</v>
       </c>
       <c r="G147" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H147" s="11"/>
     </row>
@@ -12478,14 +12552,14 @@
         <v>80</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="7">
         <v>758.0</v>
       </c>
       <c r="G148" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H148" s="11"/>
     </row>
@@ -12500,14 +12574,14 @@
         <v>18</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="7">
         <v>12000.0</v>
       </c>
       <c r="G149" s="34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H149" s="11"/>
     </row>
@@ -12522,14 +12596,14 @@
         <v>18</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="7">
         <v>3420.0</v>
       </c>
       <c r="G150" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H150" s="11"/>
     </row>
@@ -12544,7 +12618,7 @@
         <v>18</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="7">
@@ -12564,10 +12638,10 @@
         <v>18</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="27"/>
@@ -12584,16 +12658,16 @@
         <v>32</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F153" s="7">
         <v>8055.0</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H153" s="11"/>
     </row>
@@ -12608,16 +12682,16 @@
         <v>32</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F154" s="7">
         <v>600.0</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H154" s="11"/>
     </row>
@@ -12632,16 +12706,16 @@
         <v>32</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F155" s="7">
         <v>23000.0</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H155" s="11"/>
     </row>
@@ -12656,16 +12730,16 @@
         <v>32</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F156" s="7">
         <v>23000.0</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H156" s="11"/>
     </row>
@@ -12680,7 +12754,7 @@
         <v>32</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="7">
@@ -12700,7 +12774,7 @@
         <v>32</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E158" s="11"/>
       <c r="F158" s="7">
@@ -12720,7 +12794,7 @@
         <v>32</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E159" s="11"/>
       <c r="F159" s="7">
@@ -12737,10 +12811,10 @@
         <v>2023.0</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E160" s="11"/>
       <c r="F160" s="17">
@@ -12760,7 +12834,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="17">
@@ -12780,7 +12854,7 @@
         <v>80</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F162" s="20">
         <v>24150.0</v>
@@ -12797,7 +12871,7 @@
         <v>80</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F163" s="20">
         <v>6000.0</v>
@@ -12814,7 +12888,7 @@
         <v>32</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F164" s="20">
         <v>6500.0</v>
@@ -12831,23 +12905,85 @@
         <v>18</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F165" s="20">
         <v>54200.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="22"/>
+      <c r="A166" s="38">
+        <v>45216.0</v>
+      </c>
+      <c r="B166" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" s="20">
+        <v>30000.0</v>
+      </c>
+      <c r="G166" s="20" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="22"/>
+      <c r="A167" s="38">
+        <v>45218.0</v>
+      </c>
+      <c r="B167" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" s="20">
+        <v>10500.0</v>
+      </c>
+      <c r="G167" s="20" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="22"/>
+      <c r="A168" s="38">
+        <v>45222.0</v>
+      </c>
+      <c r="B168" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" s="20">
+        <v>100000.0</v>
+      </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="22"/>
+      <c r="A169" s="38">
+        <v>45229.0</v>
+      </c>
+      <c r="B169" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="F169" s="20">
+        <v>8190.0</v>
+      </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="22"/>
@@ -14101,13 +14237,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -14115,7 +14251,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C2" s="39">
         <v>44896.0</v>
@@ -14126,7 +14262,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C3" s="40">
         <v>45291.0</v>
@@ -14137,7 +14273,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C4" s="41">
         <v>45394.0</v>
@@ -14148,7 +14284,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C5" s="40">
         <v>45534.0</v>
@@ -14159,7 +14295,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C6" s="42">
         <v>41343.0</v>
@@ -14170,7 +14306,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C7" s="40">
         <v>45534.0</v>
@@ -14181,7 +14317,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C8" s="43">
         <v>45323.0</v>
@@ -14192,7 +14328,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C9" s="41">
         <v>45394.0</v>
@@ -14203,7 +14339,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C10" s="44">
         <v>45534.0</v>
@@ -14214,7 +14350,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C11" s="42">
         <v>40822.0</v>
@@ -15231,22 +15367,22 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -15254,7 +15390,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C2" s="8">
         <v>45028.0</v>
@@ -15274,13 +15410,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C3" s="18">
-        <v>45063.0</v>
+        <v>45229.0</v>
       </c>
       <c r="D3" s="19">
-        <v>123456.0</v>
+        <v>128752.0</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="8"/>
@@ -15290,7 +15426,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>17</v>
@@ -15306,7 +15442,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
@@ -15322,7 +15458,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
@@ -15338,7 +15474,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>17</v>
@@ -15354,7 +15490,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>17</v>
@@ -15370,7 +15506,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
@@ -17026,156 +17162,156 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="45" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="45" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>345</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="45" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="45" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="46" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="45" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="46" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="370">
   <si>
     <t>usuario</t>
   </si>
@@ -523,6 +523,12 @@
     <t>sofia marinaro</t>
   </si>
   <si>
+    <t>franco</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -1122,6 +1128,9 @@
   </si>
   <si>
     <t>tapa liquido refrigerante</t>
+  </si>
+  <si>
+    <t>nafta</t>
   </si>
   <si>
     <t>elemento</t>
@@ -1238,7 +1247,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1298,10 +1307,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1425,6 +1430,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -1464,8 +1472,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -1845,18 +1852,18 @@
       </c>
       <c r="N2" s="6">
         <f>SUM(J2:J1000)</f>
-        <v>1084392.05</v>
+        <v>1316272.05</v>
       </c>
       <c r="O2" s="6">
         <f>N2-gastos!H2</f>
-        <v>34656.05</v>
+        <v>235036.05</v>
       </c>
       <c r="P2" s="5">
         <v>930.0</v>
       </c>
       <c r="Q2" s="6">
         <f>sum(O2+P2)</f>
-        <v>35586.05</v>
+        <v>235966.05</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -7452,1250 +7459,1378 @@
       <c r="K153" s="21"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="E154" s="22"/>
-      <c r="F154" s="22"/>
-      <c r="J154" s="6"/>
+      <c r="A154" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E154" s="18">
+        <v>45232.0</v>
+      </c>
+      <c r="F154" s="18">
+        <v>45234.0</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="I154" s="20">
+        <v>44880.0</v>
+      </c>
+      <c r="J154" s="20">
+        <v>44880.0</v>
+      </c>
       <c r="K154" s="21"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
+      <c r="A155" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E155" s="18">
+        <v>45236.0</v>
+      </c>
+      <c r="F155" s="18">
+        <v>45238.0</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H155" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="I155" s="20">
+        <v>44880.0</v>
+      </c>
       <c r="J155" s="6"/>
       <c r="K155" s="21"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="E156" s="22"/>
-      <c r="F156" s="22"/>
-      <c r="J156" s="6"/>
+      <c r="A156" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E156" s="18">
+        <v>45258.0</v>
+      </c>
+      <c r="F156" s="18">
+        <v>45262.0</v>
+      </c>
+      <c r="G156" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="I156" s="20">
+        <v>95755.0</v>
+      </c>
+      <c r="J156" s="22">
+        <v>95755.0</v>
+      </c>
       <c r="K156" s="21"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="E157" s="22"/>
-      <c r="F157" s="22"/>
-      <c r="J157" s="6"/>
+      <c r="A157" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E157" s="18">
+        <v>45278.0</v>
+      </c>
+      <c r="F157" s="18">
+        <v>45280.0</v>
+      </c>
+      <c r="G157" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H157" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="I157" s="20">
+        <v>91245.0</v>
+      </c>
+      <c r="J157" s="20">
+        <v>91245.0</v>
+      </c>
       <c r="K157" s="21"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="E158" s="22"/>
-      <c r="F158" s="22"/>
+      <c r="A158" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="20">
+        <v>2024.0</v>
+      </c>
+      <c r="E158" s="18">
+        <v>45292.0</v>
+      </c>
+      <c r="F158" s="18">
+        <v>45292.0</v>
+      </c>
+      <c r="G158" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H158" s="20">
+        <v>0.0</v>
+      </c>
       <c r="J158" s="6"/>
       <c r="K158" s="21"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
       <c r="J159" s="6"/>
       <c r="K159" s="21"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
       <c r="J160" s="6"/>
       <c r="K160" s="21"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="E161" s="22"/>
-      <c r="F161" s="22"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
       <c r="J161" s="6"/>
       <c r="K161" s="21"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="E162" s="22"/>
-      <c r="F162" s="22"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
       <c r="J162" s="6"/>
       <c r="K162" s="21"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
       <c r="J163" s="6"/>
       <c r="K163" s="21"/>
       <c r="U163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="E164" s="22"/>
-      <c r="F164" s="22"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
       <c r="J164" s="6"/>
       <c r="K164" s="21"/>
       <c r="U164" s="13"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
       <c r="J165" s="6"/>
       <c r="K165" s="21"/>
       <c r="U165" s="13"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="E166" s="22"/>
-      <c r="F166" s="22"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
       <c r="J166" s="6"/>
       <c r="K166" s="21"/>
       <c r="U166" s="13"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="E167" s="22"/>
-      <c r="F167" s="22"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
       <c r="J167" s="6"/>
       <c r="K167" s="21"/>
       <c r="U167" s="13"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="E168" s="22"/>
-      <c r="F168" s="22"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
       <c r="J168" s="6"/>
       <c r="K168" s="21"/>
       <c r="U168" s="13"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="E169" s="22"/>
-      <c r="F169" s="22"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
       <c r="J169" s="6"/>
       <c r="K169" s="21"/>
       <c r="U169" s="13"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="E170" s="22"/>
-      <c r="F170" s="22"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
       <c r="J170" s="6"/>
       <c r="K170" s="21"/>
       <c r="U170" s="13"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="E171" s="22"/>
-      <c r="F171" s="22"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
       <c r="J171" s="6"/>
       <c r="K171" s="21"/>
       <c r="U171" s="13"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="E172" s="22"/>
-      <c r="F172" s="22"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
       <c r="J172" s="6"/>
       <c r="K172" s="21"/>
       <c r="U172" s="13"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="E173" s="22"/>
-      <c r="F173" s="22"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
       <c r="J173" s="6"/>
       <c r="K173" s="21"/>
       <c r="U173" s="13"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="E174" s="22"/>
-      <c r="F174" s="22"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
       <c r="J174" s="6"/>
       <c r="K174" s="21"/>
       <c r="U174" s="13"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="E175" s="22"/>
-      <c r="F175" s="22"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
       <c r="J175" s="6"/>
       <c r="K175" s="21"/>
       <c r="U175" s="13"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="E176" s="22"/>
-      <c r="F176" s="22"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
       <c r="J176" s="6"/>
       <c r="K176" s="21"/>
       <c r="U176" s="13"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="E177" s="22"/>
-      <c r="F177" s="22"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
       <c r="J177" s="6"/>
       <c r="K177" s="21"/>
       <c r="U177" s="13"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="E178" s="22"/>
-      <c r="F178" s="22"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
       <c r="J178" s="6"/>
       <c r="K178" s="21"/>
       <c r="U178" s="13"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="E179" s="22"/>
-      <c r="F179" s="22"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
       <c r="J179" s="6"/>
       <c r="K179" s="21"/>
       <c r="U179" s="13"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="E180" s="22"/>
-      <c r="F180" s="22"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
       <c r="J180" s="6"/>
       <c r="K180" s="21"/>
       <c r="U180" s="13"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="E181" s="22"/>
-      <c r="F181" s="22"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
       <c r="J181" s="6"/>
       <c r="K181" s="21"/>
       <c r="U181" s="13"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="E182" s="22"/>
-      <c r="F182" s="22"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23"/>
       <c r="J182" s="6"/>
       <c r="K182" s="21"/>
       <c r="U182" s="13"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="E183" s="22"/>
-      <c r="F183" s="22"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
       <c r="J183" s="6"/>
       <c r="K183" s="21"/>
       <c r="U183" s="13"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="E184" s="22"/>
-      <c r="F184" s="22"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23"/>
       <c r="J184" s="6"/>
       <c r="K184" s="21"/>
       <c r="U184" s="13"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="E185" s="22"/>
-      <c r="F185" s="22"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="23"/>
       <c r="J185" s="6"/>
       <c r="K185" s="21"/>
       <c r="U185" s="13"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="E186" s="22"/>
-      <c r="F186" s="22"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="23"/>
       <c r="J186" s="6"/>
       <c r="K186" s="21"/>
       <c r="U186" s="13"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="E187" s="22"/>
-      <c r="F187" s="22"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23"/>
       <c r="J187" s="6"/>
       <c r="K187" s="21"/>
       <c r="U187" s="13"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="E188" s="22"/>
-      <c r="F188" s="22"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="23"/>
       <c r="J188" s="6"/>
       <c r="K188" s="21"/>
       <c r="U188" s="13"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="E189" s="22"/>
-      <c r="F189" s="22"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="23"/>
       <c r="J189" s="6"/>
       <c r="K189" s="21"/>
       <c r="U189" s="13"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="E190" s="22"/>
-      <c r="F190" s="22"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="23"/>
       <c r="J190" s="6"/>
       <c r="K190" s="21"/>
       <c r="U190" s="13"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="E191" s="22"/>
-      <c r="F191" s="22"/>
+      <c r="E191" s="23"/>
+      <c r="F191" s="23"/>
       <c r="J191" s="6"/>
       <c r="K191" s="21"/>
       <c r="U191" s="13"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="E192" s="22"/>
-      <c r="F192" s="22"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="23"/>
       <c r="J192" s="6"/>
       <c r="K192" s="21"/>
       <c r="U192" s="13"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="E193" s="22"/>
-      <c r="F193" s="22"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="23"/>
       <c r="J193" s="6"/>
       <c r="K193" s="21"/>
       <c r="U193" s="13"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="E194" s="22"/>
-      <c r="F194" s="22"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23"/>
       <c r="J194" s="6"/>
       <c r="K194" s="21"/>
       <c r="U194" s="13"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="E195" s="22"/>
-      <c r="F195" s="22"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
       <c r="J195" s="6"/>
       <c r="K195" s="21"/>
       <c r="U195" s="13"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="E196" s="22"/>
-      <c r="F196" s="22"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="23"/>
       <c r="J196" s="6"/>
       <c r="K196" s="21"/>
       <c r="U196" s="13"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="E197" s="22"/>
-      <c r="F197" s="22"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23"/>
       <c r="J197" s="6"/>
       <c r="K197" s="21"/>
       <c r="U197" s="13"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="E198" s="22"/>
-      <c r="F198" s="22"/>
+      <c r="E198" s="23"/>
+      <c r="F198" s="23"/>
       <c r="J198" s="6"/>
       <c r="K198" s="21"/>
       <c r="U198" s="13"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="E199" s="22"/>
-      <c r="F199" s="22"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23"/>
       <c r="J199" s="6"/>
       <c r="K199" s="21"/>
       <c r="U199" s="13"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="E200" s="22"/>
-      <c r="F200" s="22"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
       <c r="J200" s="6"/>
       <c r="K200" s="21"/>
       <c r="U200" s="13"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="E201" s="22"/>
-      <c r="F201" s="22"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23"/>
       <c r="J201" s="6"/>
       <c r="K201" s="21"/>
       <c r="U201" s="13"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="E202" s="22"/>
-      <c r="F202" s="22"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23"/>
       <c r="J202" s="6"/>
       <c r="K202" s="21"/>
       <c r="U202" s="13"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="E203" s="22"/>
-      <c r="F203" s="22"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
       <c r="J203" s="6"/>
       <c r="K203" s="21"/>
       <c r="U203" s="13"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="E204" s="22"/>
-      <c r="F204" s="22"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
       <c r="J204" s="6"/>
       <c r="K204" s="21"/>
       <c r="U204" s="13"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="E205" s="22"/>
-      <c r="F205" s="22"/>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
       <c r="J205" s="6"/>
       <c r="K205" s="21"/>
       <c r="U205" s="13"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="E206" s="22"/>
-      <c r="F206" s="22"/>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23"/>
       <c r="J206" s="6"/>
       <c r="K206" s="21"/>
       <c r="U206" s="13"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="E207" s="22"/>
-      <c r="F207" s="22"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23"/>
       <c r="J207" s="6"/>
       <c r="K207" s="21"/>
       <c r="U207" s="13"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="E208" s="22"/>
-      <c r="F208" s="22"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="23"/>
       <c r="J208" s="6"/>
       <c r="K208" s="21"/>
       <c r="U208" s="13"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="E209" s="22"/>
-      <c r="F209" s="22"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
       <c r="J209" s="6"/>
       <c r="K209" s="21"/>
       <c r="U209" s="13"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="E210" s="22"/>
-      <c r="F210" s="22"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="23"/>
       <c r="J210" s="6"/>
       <c r="K210" s="21"/>
       <c r="U210" s="13"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="E211" s="22"/>
-      <c r="F211" s="22"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23"/>
       <c r="J211" s="6"/>
       <c r="K211" s="21"/>
       <c r="U211" s="13"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="E212" s="22"/>
-      <c r="F212" s="22"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="23"/>
       <c r="J212" s="6"/>
       <c r="K212" s="21"/>
       <c r="U212" s="13"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="E213" s="22"/>
-      <c r="F213" s="22"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
       <c r="J213" s="6"/>
       <c r="K213" s="21"/>
       <c r="U213" s="13"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="E214" s="22"/>
-      <c r="F214" s="22"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23"/>
       <c r="J214" s="6"/>
       <c r="K214" s="21"/>
       <c r="U214" s="13"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="E215" s="22"/>
-      <c r="F215" s="22"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23"/>
       <c r="J215" s="6"/>
       <c r="K215" s="21"/>
       <c r="U215" s="13"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="E216" s="22"/>
-      <c r="F216" s="22"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23"/>
       <c r="J216" s="6"/>
       <c r="K216" s="21"/>
       <c r="U216" s="13"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="E217" s="22"/>
-      <c r="F217" s="22"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
       <c r="J217" s="6"/>
       <c r="K217" s="21"/>
       <c r="U217" s="13"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="E218" s="22"/>
-      <c r="F218" s="22"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
       <c r="J218" s="6"/>
       <c r="K218" s="21"/>
       <c r="U218" s="13"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="E219" s="22"/>
-      <c r="F219" s="22"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
       <c r="J219" s="6"/>
       <c r="K219" s="21"/>
       <c r="U219" s="13"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="E220" s="22"/>
-      <c r="F220" s="22"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
       <c r="J220" s="6"/>
       <c r="K220" s="21"/>
       <c r="U220" s="13"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
       <c r="J221" s="6"/>
       <c r="K221" s="21"/>
       <c r="U221" s="13"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="E222" s="22"/>
-      <c r="F222" s="22"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
       <c r="J222" s="6"/>
       <c r="K222" s="21"/>
       <c r="U222" s="13"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="E223" s="22"/>
-      <c r="F223" s="22"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
       <c r="J223" s="6"/>
       <c r="K223" s="21"/>
       <c r="U223" s="13"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="E224" s="22"/>
-      <c r="F224" s="22"/>
+      <c r="E224" s="23"/>
+      <c r="F224" s="23"/>
       <c r="J224" s="6"/>
       <c r="K224" s="21"/>
       <c r="U224" s="13"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="E225" s="22"/>
-      <c r="F225" s="22"/>
+      <c r="E225" s="23"/>
+      <c r="F225" s="23"/>
       <c r="J225" s="6"/>
       <c r="K225" s="21"/>
       <c r="U225" s="13"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="E226" s="22"/>
-      <c r="F226" s="22"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="23"/>
       <c r="J226" s="6"/>
       <c r="K226" s="21"/>
       <c r="U226" s="13"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="E227" s="22"/>
-      <c r="F227" s="22"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="23"/>
       <c r="J227" s="6"/>
       <c r="K227" s="21"/>
       <c r="U227" s="13"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="E228" s="22"/>
-      <c r="F228" s="22"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23"/>
       <c r="J228" s="6"/>
       <c r="K228" s="21"/>
       <c r="U228" s="13"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="E229" s="22"/>
-      <c r="F229" s="22"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23"/>
       <c r="J229" s="6"/>
       <c r="K229" s="21"/>
       <c r="U229" s="13"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="E230" s="22"/>
-      <c r="F230" s="22"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23"/>
       <c r="J230" s="6"/>
       <c r="K230" s="21"/>
       <c r="U230" s="13"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="E231" s="22"/>
-      <c r="F231" s="22"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="23"/>
       <c r="J231" s="6"/>
       <c r="K231" s="21"/>
       <c r="U231" s="13"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="E232" s="22"/>
-      <c r="F232" s="22"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
       <c r="J232" s="6"/>
       <c r="K232" s="21"/>
       <c r="U232" s="13"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="E233" s="22"/>
-      <c r="F233" s="22"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23"/>
       <c r="J233" s="6"/>
       <c r="K233" s="21"/>
       <c r="U233" s="13"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="E234" s="22"/>
-      <c r="F234" s="22"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="23"/>
       <c r="J234" s="6"/>
       <c r="K234" s="21"/>
       <c r="U234" s="13"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="E235" s="22"/>
-      <c r="F235" s="22"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23"/>
       <c r="J235" s="6"/>
       <c r="K235" s="21"/>
       <c r="U235" s="13"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="E236" s="22"/>
-      <c r="F236" s="22"/>
+      <c r="E236" s="23"/>
+      <c r="F236" s="23"/>
       <c r="J236" s="6"/>
       <c r="K236" s="21"/>
       <c r="U236" s="13"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="E237" s="22"/>
-      <c r="F237" s="22"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="23"/>
       <c r="J237" s="6"/>
       <c r="K237" s="21"/>
       <c r="U237" s="13"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="E238" s="22"/>
-      <c r="F238" s="22"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="23"/>
       <c r="J238" s="6"/>
       <c r="K238" s="21"/>
       <c r="U238" s="13"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="E239" s="22"/>
-      <c r="F239" s="22"/>
+      <c r="E239" s="23"/>
+      <c r="F239" s="23"/>
       <c r="J239" s="6"/>
       <c r="K239" s="21"/>
       <c r="U239" s="13"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="E240" s="22"/>
-      <c r="F240" s="22"/>
+      <c r="E240" s="23"/>
+      <c r="F240" s="23"/>
       <c r="J240" s="6"/>
       <c r="K240" s="21"/>
       <c r="U240" s="13"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="E241" s="22"/>
-      <c r="F241" s="22"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="23"/>
       <c r="J241" s="6"/>
       <c r="K241" s="21"/>
       <c r="U241" s="13"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="E242" s="22"/>
-      <c r="F242" s="22"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="23"/>
       <c r="J242" s="6"/>
       <c r="K242" s="21"/>
       <c r="U242" s="13"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="E243" s="22"/>
-      <c r="F243" s="22"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="23"/>
       <c r="J243" s="6"/>
       <c r="K243" s="21"/>
       <c r="U243" s="13"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="E244" s="22"/>
-      <c r="F244" s="22"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="23"/>
       <c r="J244" s="6"/>
       <c r="K244" s="21"/>
       <c r="U244" s="13"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="E245" s="22"/>
-      <c r="F245" s="22"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23"/>
       <c r="J245" s="6"/>
       <c r="K245" s="21"/>
       <c r="U245" s="13"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="E246" s="22"/>
-      <c r="F246" s="22"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23"/>
       <c r="J246" s="6"/>
       <c r="K246" s="21"/>
       <c r="U246" s="13"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="E247" s="22"/>
-      <c r="F247" s="22"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="23"/>
       <c r="J247" s="6"/>
       <c r="K247" s="21"/>
       <c r="U247" s="13"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="E248" s="22"/>
-      <c r="F248" s="22"/>
+      <c r="E248" s="23"/>
+      <c r="F248" s="23"/>
       <c r="J248" s="6"/>
       <c r="K248" s="21"/>
       <c r="U248" s="13"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="E249" s="22"/>
-      <c r="F249" s="22"/>
+      <c r="E249" s="23"/>
+      <c r="F249" s="23"/>
       <c r="J249" s="6"/>
       <c r="K249" s="21"/>
       <c r="U249" s="13"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="E250" s="22"/>
-      <c r="F250" s="22"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="23"/>
       <c r="J250" s="6"/>
       <c r="K250" s="21"/>
       <c r="U250" s="13"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="E251" s="22"/>
-      <c r="F251" s="22"/>
+      <c r="E251" s="23"/>
+      <c r="F251" s="23"/>
       <c r="J251" s="6"/>
       <c r="K251" s="21"/>
       <c r="U251" s="13"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="E252" s="22"/>
-      <c r="F252" s="22"/>
+      <c r="E252" s="23"/>
+      <c r="F252" s="23"/>
       <c r="J252" s="6"/>
       <c r="K252" s="21"/>
       <c r="U252" s="13"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="E253" s="22"/>
-      <c r="F253" s="22"/>
+      <c r="E253" s="23"/>
+      <c r="F253" s="23"/>
       <c r="J253" s="6"/>
       <c r="K253" s="21"/>
       <c r="U253" s="13"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="E254" s="22"/>
-      <c r="F254" s="22"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="23"/>
       <c r="J254" s="6"/>
       <c r="K254" s="21"/>
       <c r="U254" s="13"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="E255" s="22"/>
-      <c r="F255" s="22"/>
+      <c r="E255" s="23"/>
+      <c r="F255" s="23"/>
       <c r="J255" s="6"/>
       <c r="K255" s="21"/>
       <c r="U255" s="13"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="E256" s="22"/>
-      <c r="F256" s="22"/>
+      <c r="E256" s="23"/>
+      <c r="F256" s="23"/>
       <c r="J256" s="6"/>
       <c r="K256" s="21"/>
       <c r="U256" s="13"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="E257" s="22"/>
-      <c r="F257" s="22"/>
+      <c r="E257" s="23"/>
+      <c r="F257" s="23"/>
       <c r="J257" s="6"/>
       <c r="K257" s="21"/>
       <c r="U257" s="13"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="E258" s="22"/>
-      <c r="F258" s="22"/>
+      <c r="E258" s="23"/>
+      <c r="F258" s="23"/>
       <c r="J258" s="6"/>
       <c r="K258" s="21"/>
       <c r="U258" s="13"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="E259" s="22"/>
-      <c r="F259" s="22"/>
+      <c r="E259" s="23"/>
+      <c r="F259" s="23"/>
       <c r="J259" s="6"/>
       <c r="K259" s="21"/>
       <c r="U259" s="13"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="E260" s="22"/>
-      <c r="F260" s="22"/>
+      <c r="E260" s="23"/>
+      <c r="F260" s="23"/>
       <c r="J260" s="6"/>
       <c r="K260" s="21"/>
       <c r="U260" s="13"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="E261" s="22"/>
-      <c r="F261" s="22"/>
+      <c r="E261" s="23"/>
+      <c r="F261" s="23"/>
       <c r="J261" s="6"/>
       <c r="K261" s="21"/>
       <c r="U261" s="13"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="E262" s="22"/>
-      <c r="F262" s="22"/>
+      <c r="E262" s="23"/>
+      <c r="F262" s="23"/>
       <c r="J262" s="6"/>
       <c r="K262" s="21"/>
       <c r="U262" s="13"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="E263" s="22"/>
-      <c r="F263" s="22"/>
+      <c r="E263" s="23"/>
+      <c r="F263" s="23"/>
       <c r="J263" s="6"/>
       <c r="K263" s="21"/>
       <c r="U263" s="13"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="E264" s="22"/>
-      <c r="F264" s="22"/>
+      <c r="E264" s="23"/>
+      <c r="F264" s="23"/>
       <c r="J264" s="6"/>
       <c r="K264" s="21"/>
       <c r="U264" s="13"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="E265" s="22"/>
-      <c r="F265" s="22"/>
+      <c r="E265" s="23"/>
+      <c r="F265" s="23"/>
       <c r="J265" s="6"/>
       <c r="K265" s="21"/>
       <c r="U265" s="13"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="E266" s="22"/>
-      <c r="F266" s="22"/>
+      <c r="E266" s="23"/>
+      <c r="F266" s="23"/>
       <c r="J266" s="6"/>
       <c r="K266" s="21"/>
       <c r="U266" s="13"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="E267" s="22"/>
-      <c r="F267" s="22"/>
+      <c r="E267" s="23"/>
+      <c r="F267" s="23"/>
       <c r="J267" s="6"/>
       <c r="K267" s="21"/>
       <c r="U267" s="13"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="E268" s="22"/>
-      <c r="F268" s="22"/>
+      <c r="E268" s="23"/>
+      <c r="F268" s="23"/>
       <c r="J268" s="6"/>
       <c r="K268" s="21"/>
       <c r="U268" s="13"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="E269" s="22"/>
-      <c r="F269" s="22"/>
+      <c r="E269" s="23"/>
+      <c r="F269" s="23"/>
       <c r="J269" s="6"/>
       <c r="K269" s="21"/>
       <c r="U269" s="13"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="E270" s="22"/>
-      <c r="F270" s="22"/>
+      <c r="E270" s="23"/>
+      <c r="F270" s="23"/>
       <c r="J270" s="6"/>
       <c r="K270" s="21"/>
       <c r="U270" s="13"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="E271" s="22"/>
-      <c r="F271" s="22"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="23"/>
       <c r="J271" s="6"/>
       <c r="K271" s="21"/>
       <c r="U271" s="13"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="E272" s="22"/>
-      <c r="F272" s="22"/>
+      <c r="E272" s="23"/>
+      <c r="F272" s="23"/>
       <c r="J272" s="6"/>
       <c r="K272" s="21"/>
       <c r="U272" s="13"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="E273" s="22"/>
-      <c r="F273" s="22"/>
+      <c r="E273" s="23"/>
+      <c r="F273" s="23"/>
       <c r="J273" s="6"/>
       <c r="K273" s="21"/>
       <c r="U273" s="13"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="E274" s="22"/>
-      <c r="F274" s="22"/>
+      <c r="E274" s="23"/>
+      <c r="F274" s="23"/>
       <c r="J274" s="6"/>
       <c r="K274" s="21"/>
       <c r="U274" s="13"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="E275" s="22"/>
-      <c r="F275" s="22"/>
+      <c r="E275" s="23"/>
+      <c r="F275" s="23"/>
       <c r="J275" s="6"/>
       <c r="K275" s="21"/>
       <c r="U275" s="13"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="E276" s="22"/>
-      <c r="F276" s="22"/>
+      <c r="E276" s="23"/>
+      <c r="F276" s="23"/>
       <c r="J276" s="6"/>
       <c r="K276" s="21"/>
       <c r="U276" s="13"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="E277" s="22"/>
-      <c r="F277" s="22"/>
+      <c r="E277" s="23"/>
+      <c r="F277" s="23"/>
       <c r="J277" s="6"/>
       <c r="K277" s="21"/>
       <c r="U277" s="13"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="E278" s="22"/>
-      <c r="F278" s="22"/>
+      <c r="E278" s="23"/>
+      <c r="F278" s="23"/>
       <c r="J278" s="6"/>
       <c r="K278" s="21"/>
       <c r="U278" s="13"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="E279" s="22"/>
-      <c r="F279" s="22"/>
+      <c r="E279" s="23"/>
+      <c r="F279" s="23"/>
       <c r="J279" s="6"/>
       <c r="K279" s="21"/>
       <c r="U279" s="13"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="E280" s="22"/>
-      <c r="F280" s="22"/>
+      <c r="E280" s="23"/>
+      <c r="F280" s="23"/>
       <c r="J280" s="6"/>
       <c r="K280" s="21"/>
       <c r="U280" s="13"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="E281" s="22"/>
-      <c r="F281" s="22"/>
+      <c r="E281" s="23"/>
+      <c r="F281" s="23"/>
       <c r="J281" s="6"/>
       <c r="K281" s="21"/>
       <c r="U281" s="13"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="E282" s="22"/>
-      <c r="F282" s="22"/>
+      <c r="E282" s="23"/>
+      <c r="F282" s="23"/>
       <c r="J282" s="6"/>
       <c r="K282" s="21"/>
       <c r="U282" s="13"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="E283" s="22"/>
-      <c r="F283" s="22"/>
+      <c r="E283" s="23"/>
+      <c r="F283" s="23"/>
       <c r="J283" s="6"/>
       <c r="K283" s="21"/>
       <c r="U283" s="13"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="E284" s="22"/>
-      <c r="F284" s="22"/>
+      <c r="E284" s="23"/>
+      <c r="F284" s="23"/>
       <c r="J284" s="6"/>
       <c r="K284" s="21"/>
       <c r="U284" s="13"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="E285" s="22"/>
-      <c r="F285" s="22"/>
+      <c r="E285" s="23"/>
+      <c r="F285" s="23"/>
       <c r="J285" s="6"/>
       <c r="K285" s="21"/>
       <c r="U285" s="13"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="E286" s="22"/>
-      <c r="F286" s="22"/>
+      <c r="E286" s="23"/>
+      <c r="F286" s="23"/>
       <c r="J286" s="6"/>
       <c r="K286" s="21"/>
       <c r="U286" s="13"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="E287" s="22"/>
-      <c r="F287" s="22"/>
+      <c r="E287" s="23"/>
+      <c r="F287" s="23"/>
       <c r="J287" s="6"/>
       <c r="K287" s="21"/>
       <c r="U287" s="13"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="E288" s="22"/>
-      <c r="F288" s="22"/>
+      <c r="E288" s="23"/>
+      <c r="F288" s="23"/>
       <c r="J288" s="6"/>
       <c r="K288" s="21"/>
       <c r="U288" s="13"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="E289" s="22"/>
-      <c r="F289" s="22"/>
+      <c r="E289" s="23"/>
+      <c r="F289" s="23"/>
       <c r="J289" s="6"/>
       <c r="K289" s="21"/>
       <c r="U289" s="13"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="E290" s="22"/>
-      <c r="F290" s="22"/>
+      <c r="E290" s="23"/>
+      <c r="F290" s="23"/>
       <c r="J290" s="6"/>
       <c r="K290" s="21"/>
       <c r="U290" s="13"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="E291" s="22"/>
-      <c r="F291" s="22"/>
+      <c r="E291" s="23"/>
+      <c r="F291" s="23"/>
       <c r="J291" s="6"/>
       <c r="K291" s="21"/>
       <c r="U291" s="13"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="E292" s="22"/>
-      <c r="F292" s="22"/>
+      <c r="E292" s="23"/>
+      <c r="F292" s="23"/>
       <c r="J292" s="6"/>
       <c r="K292" s="21"/>
       <c r="U292" s="13"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="E293" s="22"/>
-      <c r="F293" s="22"/>
+      <c r="E293" s="23"/>
+      <c r="F293" s="23"/>
       <c r="J293" s="6"/>
       <c r="K293" s="21"/>
       <c r="U293" s="13"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="E294" s="22"/>
-      <c r="F294" s="22"/>
+      <c r="E294" s="23"/>
+      <c r="F294" s="23"/>
       <c r="J294" s="6"/>
       <c r="K294" s="21"/>
       <c r="U294" s="13"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="E295" s="22"/>
-      <c r="F295" s="22"/>
+      <c r="E295" s="23"/>
+      <c r="F295" s="23"/>
       <c r="J295" s="6"/>
       <c r="K295" s="21"/>
       <c r="U295" s="13"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="E296" s="22"/>
-      <c r="F296" s="22"/>
+      <c r="E296" s="23"/>
+      <c r="F296" s="23"/>
       <c r="J296" s="6"/>
       <c r="K296" s="21"/>
       <c r="U296" s="13"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="E297" s="22"/>
-      <c r="F297" s="22"/>
+      <c r="E297" s="23"/>
+      <c r="F297" s="23"/>
       <c r="J297" s="6"/>
       <c r="K297" s="21"/>
       <c r="U297" s="13"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="E298" s="22"/>
-      <c r="F298" s="22"/>
+      <c r="E298" s="23"/>
+      <c r="F298" s="23"/>
       <c r="J298" s="6"/>
       <c r="K298" s="21"/>
       <c r="U298" s="13"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="E299" s="22"/>
-      <c r="F299" s="22"/>
+      <c r="E299" s="23"/>
+      <c r="F299" s="23"/>
       <c r="J299" s="6"/>
       <c r="K299" s="21"/>
       <c r="U299" s="13"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="E300" s="22"/>
-      <c r="F300" s="22"/>
+      <c r="E300" s="23"/>
+      <c r="F300" s="23"/>
       <c r="J300" s="6"/>
       <c r="K300" s="21"/>
       <c r="U300" s="13"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="E301" s="22"/>
-      <c r="F301" s="22"/>
+      <c r="E301" s="23"/>
+      <c r="F301" s="23"/>
       <c r="J301" s="6"/>
       <c r="K301" s="21"/>
       <c r="U301" s="13"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="E302" s="22"/>
-      <c r="F302" s="22"/>
+      <c r="E302" s="23"/>
+      <c r="F302" s="23"/>
       <c r="J302" s="6"/>
       <c r="K302" s="21"/>
       <c r="U302" s="13"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="E303" s="22"/>
-      <c r="F303" s="22"/>
+      <c r="E303" s="23"/>
+      <c r="F303" s="23"/>
       <c r="J303" s="6"/>
       <c r="K303" s="21"/>
       <c r="U303" s="13"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="E304" s="22"/>
-      <c r="F304" s="22"/>
+      <c r="E304" s="23"/>
+      <c r="F304" s="23"/>
       <c r="J304" s="6"/>
       <c r="K304" s="21"/>
       <c r="U304" s="13"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="E305" s="22"/>
-      <c r="F305" s="22"/>
+      <c r="E305" s="23"/>
+      <c r="F305" s="23"/>
       <c r="J305" s="6"/>
       <c r="K305" s="21"/>
       <c r="U305" s="13"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="E306" s="22"/>
-      <c r="F306" s="22"/>
+      <c r="E306" s="23"/>
+      <c r="F306" s="23"/>
       <c r="J306" s="6"/>
       <c r="K306" s="21"/>
       <c r="U306" s="13"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="E307" s="22"/>
-      <c r="F307" s="22"/>
+      <c r="E307" s="23"/>
+      <c r="F307" s="23"/>
       <c r="J307" s="6"/>
       <c r="K307" s="21"/>
       <c r="U307" s="13"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="E308" s="22"/>
-      <c r="F308" s="22"/>
+      <c r="E308" s="23"/>
+      <c r="F308" s="23"/>
       <c r="K308" s="21"/>
       <c r="U308" s="13"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="E309" s="22"/>
-      <c r="F309" s="22"/>
+      <c r="E309" s="23"/>
+      <c r="F309" s="23"/>
       <c r="K309" s="21"/>
       <c r="U309" s="13"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="E310" s="22"/>
-      <c r="F310" s="22"/>
+      <c r="E310" s="23"/>
+      <c r="F310" s="23"/>
       <c r="K310" s="21"/>
       <c r="U310" s="13"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="E311" s="22"/>
-      <c r="F311" s="22"/>
+      <c r="E311" s="23"/>
+      <c r="F311" s="23"/>
       <c r="U311" s="13"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="E312" s="22"/>
-      <c r="F312" s="22"/>
+      <c r="E312" s="23"/>
+      <c r="F312" s="23"/>
       <c r="U312" s="13"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="E313" s="22"/>
-      <c r="F313" s="22"/>
+      <c r="E313" s="23"/>
+      <c r="F313" s="23"/>
       <c r="U313" s="13"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="E314" s="22"/>
-      <c r="F314" s="22"/>
+      <c r="E314" s="23"/>
+      <c r="F314" s="23"/>
       <c r="U314" s="13"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="E315" s="22"/>
-      <c r="F315" s="22"/>
+      <c r="E315" s="23"/>
+      <c r="F315" s="23"/>
       <c r="U315" s="13"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="E316" s="22"/>
-      <c r="F316" s="22"/>
+      <c r="E316" s="23"/>
+      <c r="F316" s="23"/>
       <c r="U316" s="13"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="E317" s="22"/>
-      <c r="F317" s="22"/>
+      <c r="E317" s="23"/>
+      <c r="F317" s="23"/>
       <c r="U317" s="13"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="E318" s="22"/>
-      <c r="F318" s="22"/>
+      <c r="E318" s="23"/>
+      <c r="F318" s="23"/>
       <c r="U318" s="13"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="E319" s="22"/>
-      <c r="F319" s="22"/>
+      <c r="E319" s="23"/>
+      <c r="F319" s="23"/>
       <c r="U319" s="13"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="E320" s="22"/>
-      <c r="F320" s="22"/>
+      <c r="E320" s="23"/>
+      <c r="F320" s="23"/>
       <c r="U320" s="13"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="E321" s="22"/>
-      <c r="F321" s="22"/>
+      <c r="E321" s="23"/>
+      <c r="F321" s="23"/>
       <c r="U321" s="13"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="E322" s="22"/>
-      <c r="F322" s="22"/>
+      <c r="E322" s="23"/>
+      <c r="F322" s="23"/>
       <c r="U322" s="13"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="E323" s="22"/>
-      <c r="F323" s="22"/>
+      <c r="E323" s="23"/>
+      <c r="F323" s="23"/>
       <c r="U323" s="13"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="E324" s="22"/>
-      <c r="F324" s="22"/>
+      <c r="E324" s="23"/>
+      <c r="F324" s="23"/>
       <c r="U324" s="13"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="E325" s="22"/>
-      <c r="F325" s="22"/>
+      <c r="E325" s="23"/>
+      <c r="F325" s="23"/>
       <c r="U325" s="13"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="E326" s="22"/>
-      <c r="F326" s="22"/>
+      <c r="E326" s="23"/>
+      <c r="F326" s="23"/>
       <c r="U326" s="13"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="E327" s="22"/>
-      <c r="F327" s="22"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="23"/>
       <c r="U327" s="13"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="E328" s="22"/>
-      <c r="F328" s="22"/>
+      <c r="E328" s="23"/>
+      <c r="F328" s="23"/>
       <c r="U328" s="13"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="E329" s="22"/>
-      <c r="F329" s="22"/>
+      <c r="E329" s="23"/>
+      <c r="F329" s="23"/>
       <c r="U329" s="13"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="E330" s="22"/>
-      <c r="F330" s="22"/>
+      <c r="E330" s="23"/>
+      <c r="F330" s="23"/>
       <c r="U330" s="13"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="E331" s="22"/>
-      <c r="F331" s="22"/>
+      <c r="E331" s="23"/>
+      <c r="F331" s="23"/>
       <c r="U331" s="13"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="E332" s="22"/>
-      <c r="F332" s="22"/>
+      <c r="E332" s="23"/>
+      <c r="F332" s="23"/>
       <c r="U332" s="13"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="E333" s="22"/>
-      <c r="F333" s="22"/>
+      <c r="E333" s="23"/>
+      <c r="F333" s="23"/>
       <c r="U333" s="13"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="E334" s="22"/>
-      <c r="F334" s="22"/>
+      <c r="E334" s="23"/>
+      <c r="F334" s="23"/>
       <c r="U334" s="13"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="E335" s="22"/>
-      <c r="F335" s="22"/>
+      <c r="E335" s="23"/>
+      <c r="F335" s="23"/>
       <c r="U335" s="13"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="E336" s="22"/>
-      <c r="F336" s="22"/>
+      <c r="E336" s="23"/>
+      <c r="F336" s="23"/>
       <c r="U336" s="13"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="E337" s="22"/>
-      <c r="F337" s="22"/>
+      <c r="E337" s="23"/>
+      <c r="F337" s="23"/>
       <c r="U337" s="13"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="E338" s="22"/>
-      <c r="F338" s="22"/>
+      <c r="E338" s="23"/>
+      <c r="F338" s="23"/>
       <c r="U338" s="13"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="E339" s="22"/>
-      <c r="F339" s="22"/>
+      <c r="E339" s="23"/>
+      <c r="F339" s="23"/>
       <c r="U339" s="13"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="E340" s="22"/>
-      <c r="F340" s="22"/>
+      <c r="E340" s="23"/>
+      <c r="F340" s="23"/>
       <c r="U340" s="13"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="E341" s="22"/>
-      <c r="F341" s="22"/>
+      <c r="E341" s="23"/>
+      <c r="F341" s="23"/>
       <c r="U341" s="13"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="E342" s="22"/>
-      <c r="F342" s="22"/>
+      <c r="E342" s="23"/>
+      <c r="F342" s="23"/>
       <c r="U342" s="13"/>
     </row>
     <row r="343" ht="15.75" customHeight="1"/>
@@ -9356,12 +9491,12 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152 J154:J999">
+  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152 J155:J156 J158:J999">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152 J154:J999">
+  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152 J155:J156 J158:J999">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9386,29 +9521,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>139</v>
       </c>
+      <c r="F1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>141</v>
+      </c>
       <c r="H1" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -9422,16 +9557,16 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7">
         <v>1000.0</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27">
         <f>SUM(F2:F996)</f>
-        <v>1049736</v>
+        <v>1081236</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -9445,13 +9580,13 @@
         <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
         <v>150.0</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -9465,13 +9600,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
         <v>5000.0</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -9485,13 +9620,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
         <v>2000.0</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -9505,13 +9640,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
         <v>1771.0</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -9525,13 +9660,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
         <v>140.0</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -9545,13 +9680,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
         <v>220.0</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -9565,13 +9700,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
         <v>660.0</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -9585,13 +9720,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
         <v>436.0</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -9605,13 +9740,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
         <v>3000.0</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -9625,13 +9760,13 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
         <v>300.0</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -9645,13 +9780,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
         <v>400.0</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -9665,13 +9800,13 @@
         <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
         <v>500.0</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -9685,13 +9820,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
         <v>200.0</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -9705,13 +9840,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7">
         <v>250.0</v>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="29" t="str">
         <f>HYPERLINK("https://photos.google.com/photo/AF1QipPEx1cIrGVylSEhd_cqV0Dg1Jk8Hss1y5BVeaZU","IER")</f>
         <v>IER</v>
       </c>
@@ -9728,13 +9863,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
         <v>400.0</v>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="29" t="str">
         <f>HYPERLINK("https://lh3.googleusercontent.com/ghzDd-yNk5sca1UCTENviQN1Dd9XGYMggJypf6SiEAY4tId42oxpm_o5ZaIab7R8xujc6S9Op3poZySlTqqXIZRvUV1GFKY86aWXeh62B8XCBKUX3cN5qZ5L8pUU5wE6lX8QYh4bBJ8TgM1XOdrzUcQnqVvT2IV6zTWRP0yLCn_5TZdPz0EIS6kdy3nV5Q4OBkeK3UM_bD8skU5NWhq48nLbIb8J7"&amp;"FHOQPLqyNmRkvpQaWRHfPJbvYxiBUnq1PpP_KY1YdlGpCZT50wwNlU2RBQ68uaUmRx8bnIlYcXnzhZClcy-V2bXHQtsQOy2Hz34U13g3a_dD1VpwSWY3B29l5EbtHfQFCFK-lVYj8lHyYn9GdPk2f0gb5lTdCJsQkkxU83cqD1UrcgIXS_2CSYEbVJQzlmSYOb4HHVUe-jHJBQmsjpVzCCJm-0rvH_quCZVWolWCovBobSw2YsAJ2uKXxL5xELH"&amp;"sKkGanhzn1sbifuqVkY2PpeiG-XFSumKaouz0xrQEIbzIBt6czNxvBNY6ZgcPSQY_ibXe7uFvXKvkqs-ac2fvbm7P6Fk75lU7-35JnfinYJ_rWG2Hhlfy4rBBuGTYJAH9-JFiCAcOK0=w151-h268-no","IER")</f>
         <v>IER</v>
       </c>
@@ -9751,13 +9886,13 @@
         <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7">
         <v>1700.0</v>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="G18" s="29" t="str">
         <f>HYPERLINK("https://lh3.googleusercontent.com/SnwoHSzgt5jzl106lp9m6BGbIZlYIMHCajZwsY2LSyNw0a1sOyCHFSRUKdQ_nVjK456hKmTOKNYd2iYgmiTHdYYKrn1sZNtsQwFqbr49OAcKAisuW0jyIicJMipx_TaLmJ3ukR3tIJIR5d2TkBN64bAXV42foKXAr2zSObIdbzdRBtaeQRkrDKB7OjAkfPeL8VcCiElg3fH4X_mn9yc9tNxFwgRNg"&amp;"TuSlRJUjqTbje8OfybpoRu4dtiX1QMyevcJJUOndXSFC30pdxmbY90alxbuFvs065olIGu5EWwMQj1t8v-TsCnLjIQPwbFazMjNxl86cWHlgVV4IQ0zL9U9CqCQUb871_njTNuC10EWkor-YToYWdfoAmco68rE850MSlHrwkbYc_23NBTRnllH-R26pn4nauQiFWF7YtHWJrq7FfHghs2Dp1pdYbafZRVo9WMRKimS4znRymwhCwpXXOLqQX7c"&amp;"5OzhurIQZUwwMY7sRFMCw42liZXhdkg1LdmsI482k_GzTWbM5FOsQS4pyTOQC2wNzByuox3vdwtPfIhR62c0g_cT5PYnkat_KLOAhrmX7UGSBtJXHrpMg9tKiwBf94meUdmxx9QS4c8=w499-h885-no","IER")</f>
         <v>IER</v>
       </c>
@@ -9774,13 +9909,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
         <v>600.0</v>
       </c>
-      <c r="G19" s="28" t="str">
+      <c r="G19" s="29" t="str">
         <f>HYPERLINK("https://lh3.googleusercontent.com/aRPQnKpN5iWA8PE3551mjEz6kAiJ3_35XWONVxOMiP33LIVGCH4B8ZbLa2zYPQxuvvuqnMDoPwgmP09LVBSE-ebVbuqNaFRGeKYX6GT4w-86voh67On1cYTZ6OYCjMl_NchMuUWJGfmWW4QbYMBw7xFQS2jrSEmhPOQ62bKFMRX0pmr_vFj61U5gD8HBEAY6-PzytioT_TB6BCh-kB230lXo8V9jy"&amp;"FeD7Qn90pmvSXZe7d-EfNmHsQPWL1YG4eTP0lI0eyx4YAFVk2f7TWA6a0S9TOZbaQfx0ZcbV8AhoDTBsz39eqwVu99-m9OQw2IbuKb9pRJp5jDDaT882lUQYIazx7xpOSP7yI_9Sntg2f5d49GYDAianuIIxz7CYEfj_YQV4IuI5A-nUqjHW8W2Kzdp9Jz_4AGx4KMrmJGVZ4BZyKOK3ecu1CWatmAZhpbhTBG6Hn98nOngpRn-q4lZDLEXYk8o"&amp;"7FuAy5sjS6VDMxEhRcV2Kt9Yx8Ax68QHTB4qg9pNZJsrhvxDIVyd4dMoJvJO1i7pGRNydDCPXhO8On6kGv_dlx9UeZuNdZm1KHHMfUdSA9CQNC606ofQhf1_Zbb2oQmwDvHqqHYuOX8=w499-h885-no","IER")</f>
         <v>IER</v>
       </c>
@@ -9797,13 +9932,13 @@
         <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7">
         <v>20.0</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -9817,13 +9952,13 @@
         <v>80</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
         <v>395.0</v>
       </c>
-      <c r="G21" s="28" t="str">
+      <c r="G21" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/pAZxw35vfmskL2mJ8","IER")</f>
         <v>IER</v>
       </c>
@@ -9840,13 +9975,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7">
         <v>22.0</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="11"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -9860,13 +9995,13 @@
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
         <v>350.0</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -9880,13 +10015,13 @@
         <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7">
         <v>75.0</v>
       </c>
-      <c r="G24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -9900,13 +10035,13 @@
         <v>90</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7">
         <v>2800.0</v>
       </c>
-      <c r="G25" s="28" t="str">
+      <c r="G25" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/omQ7ECyccKrTF5aLA","IER")</f>
         <v>IER</v>
       </c>
@@ -9921,13 +10056,13 @@
         <v>90</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7">
         <v>1800.0</v>
       </c>
-      <c r="G26" s="28" t="str">
+      <c r="G26" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/cV1K4WCuwjrJYub96","IER")</f>
         <v>IER</v>
       </c>
@@ -9944,13 +10079,13 @@
         <v>90</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7">
         <v>835.0</v>
       </c>
-      <c r="G27" s="28" t="str">
+      <c r="G27" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/ehrPEGV7TCmj3v3o9","IER")</f>
         <v>IER</v>
       </c>
@@ -9967,13 +10102,13 @@
         <v>24</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7">
         <v>660.0</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -9987,13 +10122,13 @@
         <v>90</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7">
         <v>300.0</v>
       </c>
-      <c r="G29" s="27"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -10007,13 +10142,13 @@
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7">
         <v>12550.0</v>
       </c>
-      <c r="G30" s="28" t="str">
+      <c r="G30" s="29" t="str">
         <f>HYPERLINK("https://photos.google.com/photo/AF1QipOrOYNiMK19BlctEFWA-AuJ6dhDQcJBJAf8JLmK","IER")</f>
         <v>IER</v>
       </c>
@@ -10030,13 +10165,13 @@
         <v>18</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7">
         <v>7200.0</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -10050,13 +10185,13 @@
         <v>18</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
         <v>5300.0</v>
       </c>
-      <c r="G32" s="28" t="str">
+      <c r="G32" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/jCSW5jdiYYmHyH3b7","IER")</f>
         <v>IER</v>
       </c>
@@ -10073,13 +10208,13 @@
         <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7">
         <v>150.0</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -10093,13 +10228,13 @@
         <v>18</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7">
         <v>50700.0</v>
       </c>
-      <c r="G34" s="28" t="str">
+      <c r="G34" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/PZbfY4AafiuXzVYUA","IER")</f>
         <v>IER</v>
       </c>
@@ -10116,13 +10251,13 @@
         <v>18</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
         <v>800.0</v>
       </c>
-      <c r="G35" s="29" t="str">
+      <c r="G35" s="30" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/HRZv9KVxFNucGdVz9","IER")</f>
         <v>IER</v>
       </c>
@@ -10139,13 +10274,13 @@
         <v>18</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7">
         <v>8500.0</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -10159,13 +10294,13 @@
         <v>18</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
         <v>600.0</v>
       </c>
-      <c r="G37" s="31"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -10179,13 +10314,13 @@
         <v>18</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7">
         <v>1700.0</v>
       </c>
-      <c r="G38" s="28" t="str">
+      <c r="G38" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/TV4169JxEBJNbTbT8","IER")</f>
         <v>IER</v>
       </c>
@@ -10202,13 +10337,13 @@
         <v>18</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7">
         <v>180.0</v>
       </c>
-      <c r="G39" s="28" t="str">
+      <c r="G39" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/wRFJeZkctZJWBhJK7","IER")</f>
         <v>IER</v>
       </c>
@@ -10225,14 +10360,14 @@
         <v>18</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7">
         <v>5400.0</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>179</v>
+      <c r="G40" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="H40" s="11"/>
     </row>
@@ -10247,13 +10382,13 @@
         <v>18</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7">
         <v>2500.0</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="11"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -10267,13 +10402,13 @@
         <v>18</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7">
         <v>1270.0</v>
       </c>
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -10287,14 +10422,14 @@
         <v>18</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="7">
         <f>100+60+20+55</f>
         <v>235</v>
       </c>
-      <c r="G43" s="27"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -10308,13 +10443,13 @@
         <v>18</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7">
         <v>260.0</v>
       </c>
-      <c r="G44" s="27"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="11"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -10328,13 +10463,13 @@
         <v>18</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7">
         <v>1200.0</v>
       </c>
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="11"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -10347,14 +10482,14 @@
       <c r="C46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>185</v>
+      <c r="D46" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7">
         <v>1280.0</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="11"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -10367,14 +10502,14 @@
       <c r="C47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="32" t="s">
-        <v>186</v>
+      <c r="D47" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7">
         <v>3600.0</v>
       </c>
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="11"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -10387,14 +10522,14 @@
       <c r="C48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>187</v>
+      <c r="D48" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7">
         <v>100.0</v>
       </c>
-      <c r="G48" s="27"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="11"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -10407,14 +10542,14 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>188</v>
+      <c r="D49" s="33" t="s">
+        <v>190</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7">
         <v>185.0</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="11"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -10427,14 +10562,14 @@
       <c r="C50" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="32" t="s">
-        <v>189</v>
+      <c r="D50" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7">
         <v>200.0</v>
       </c>
-      <c r="G50" s="27"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -10447,14 +10582,14 @@
       <c r="C51" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>190</v>
+      <c r="D51" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7">
         <v>800.0</v>
       </c>
-      <c r="G51" s="27"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="11"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -10467,14 +10602,14 @@
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="32" t="s">
-        <v>191</v>
+      <c r="D52" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7">
         <v>520.0</v>
       </c>
-      <c r="G52" s="27"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="11"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -10487,14 +10622,14 @@
       <c r="C53" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>192</v>
+      <c r="D53" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7">
         <v>530.0</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="11"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -10507,14 +10642,14 @@
       <c r="C54" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="32" t="s">
-        <v>193</v>
+      <c r="D54" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7">
         <v>150.0</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="11"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -10527,14 +10662,14 @@
       <c r="C55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>194</v>
+      <c r="D55" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7">
         <v>460.0</v>
       </c>
-      <c r="G55" s="27"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="11"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -10547,14 +10682,14 @@
       <c r="C56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="32" t="s">
-        <v>195</v>
+      <c r="D56" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7">
         <v>3800.0</v>
       </c>
-      <c r="G56" s="27"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="11"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -10567,14 +10702,14 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>196</v>
+      <c r="D57" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7">
         <v>4920.0</v>
       </c>
-      <c r="G57" s="27"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="11"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -10587,14 +10722,14 @@
       <c r="C58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>197</v>
+      <c r="D58" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7">
         <v>700.0</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="11"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -10607,14 +10742,14 @@
       <c r="C59" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>198</v>
+      <c r="D59" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7">
         <v>3800.0</v>
       </c>
-      <c r="G59" s="27"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="11"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -10627,14 +10762,14 @@
       <c r="C60" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>199</v>
+      <c r="D60" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7">
         <v>800.0</v>
       </c>
-      <c r="G60" s="27"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="11"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -10647,14 +10782,14 @@
       <c r="C61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>200</v>
+      <c r="D61" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7">
         <v>70.0</v>
       </c>
-      <c r="G61" s="27"/>
+      <c r="G61" s="28"/>
       <c r="H61" s="11"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -10667,14 +10802,14 @@
       <c r="C62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="32" t="s">
-        <v>147</v>
+      <c r="D62" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7">
         <v>310.0</v>
       </c>
-      <c r="G62" s="27"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="11"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -10687,14 +10822,14 @@
       <c r="C63" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="32" t="s">
-        <v>201</v>
+      <c r="D63" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7">
         <v>3200.0</v>
       </c>
-      <c r="G63" s="27"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="11"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -10707,14 +10842,14 @@
       <c r="C64" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="32" t="s">
-        <v>176</v>
+      <c r="D64" s="33" t="s">
+        <v>178</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7">
         <v>1000.0</v>
       </c>
-      <c r="G64" s="27"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="11"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -10727,14 +10862,14 @@
       <c r="C65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="32" t="s">
-        <v>202</v>
+      <c r="D65" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7">
         <v>5800.0</v>
       </c>
-      <c r="G65" s="28" t="str">
+      <c r="G65" s="29" t="str">
         <f>HYPERLINK("https://drive.google.com/file/d/0B8G7H671wjDqT0ZZU25iTFFPdi1wbndoekh1WXk4cmFERzFr/view?usp=sharing","IER")</f>
         <v>IER</v>
       </c>
@@ -10750,14 +10885,14 @@
       <c r="C66" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="32" t="s">
-        <v>203</v>
+      <c r="D66" s="33" t="s">
+        <v>205</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7">
         <v>150.0</v>
       </c>
-      <c r="G66" s="28" t="str">
+      <c r="G66" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/WFv5sXDJQWJ6RzB37","IER")</f>
         <v>IER</v>
       </c>
@@ -10774,13 +10909,13 @@
         <v>32</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7">
         <v>150.0</v>
       </c>
-      <c r="G67" s="27"/>
+      <c r="G67" s="28"/>
       <c r="H67" s="11"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -10794,13 +10929,13 @@
         <v>90</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7">
         <v>5600.0</v>
       </c>
-      <c r="G68" s="28" t="str">
+      <c r="G68" s="29" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1jhDsMfe8OsQxCzx_gO2Qv1-Dg2pglH8__A","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10817,13 +10952,13 @@
         <v>90</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7">
         <v>10000.0</v>
       </c>
-      <c r="G69" s="27"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="11"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -10837,14 +10972,14 @@
         <v>18</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7">
         <v>37600.0</v>
       </c>
-      <c r="G70" s="27" t="s">
-        <v>208</v>
+      <c r="G70" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="H70" s="11"/>
     </row>
@@ -10858,14 +10993,14 @@
       <c r="C71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="32" t="s">
-        <v>209</v>
+      <c r="D71" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7">
         <v>450.0</v>
       </c>
-      <c r="G71" s="28" t="str">
+      <c r="G71" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/swLHyG2B9z55JKL58","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10881,14 +11016,14 @@
       <c r="C72" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="32" t="s">
-        <v>210</v>
+      <c r="D72" s="33" t="s">
+        <v>212</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7">
         <v>3200.0</v>
       </c>
-      <c r="G72" s="28" t="str">
+      <c r="G72" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/yX5spQFaD92RsSQi6","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10904,14 +11039,14 @@
       <c r="C73" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="32" t="s">
-        <v>211</v>
+      <c r="D73" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7">
         <v>750.0</v>
       </c>
-      <c r="G73" s="28" t="str">
+      <c r="G73" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/Yq3ZNy2dgfuutJyG6","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10927,14 +11062,14 @@
       <c r="C74" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="32" t="s">
-        <v>212</v>
+      <c r="D74" s="33" t="s">
+        <v>214</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7">
         <v>10800.0</v>
       </c>
-      <c r="G74" s="28" t="str">
+      <c r="G74" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/oBWCntJaUYxg33V67","UNT")</f>
         <v>UNT</v>
       </c>
@@ -10950,15 +11085,15 @@
       <c r="C75" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="32" t="s">
-        <v>213</v>
+      <c r="D75" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7">
         <v>0.0</v>
       </c>
-      <c r="G75" s="27" t="s">
-        <v>214</v>
+      <c r="G75" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="H75" s="11"/>
     </row>
@@ -10972,15 +11107,15 @@
       <c r="C76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="32" t="s">
-        <v>215</v>
+      <c r="D76" s="33" t="s">
+        <v>217</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7">
         <v>0.0</v>
       </c>
-      <c r="G76" s="27" t="s">
-        <v>214</v>
+      <c r="G76" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -10994,15 +11129,15 @@
       <c r="C77" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="32" t="s">
-        <v>216</v>
+      <c r="D77" s="33" t="s">
+        <v>218</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7">
         <v>0.0</v>
       </c>
-      <c r="G77" s="27" t="s">
-        <v>214</v>
+      <c r="G77" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="H77" s="11"/>
     </row>
@@ -11016,15 +11151,15 @@
       <c r="C78" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="32" t="s">
-        <v>217</v>
+      <c r="D78" s="33" t="s">
+        <v>219</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7">
         <v>0.0</v>
       </c>
-      <c r="G78" s="27" t="s">
-        <v>214</v>
+      <c r="G78" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -11038,15 +11173,15 @@
       <c r="C79" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="32" t="s">
-        <v>218</v>
+      <c r="D79" s="33" t="s">
+        <v>220</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7">
         <v>0.0</v>
       </c>
-      <c r="G79" s="27" t="s">
-        <v>214</v>
+      <c r="G79" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="H79" s="11"/>
     </row>
@@ -11061,13 +11196,13 @@
         <v>18</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7">
         <v>2168.0</v>
       </c>
-      <c r="G80" s="28" t="str">
+      <c r="G80" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/BhWMeSjpLvXY5Mko6","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11084,13 +11219,13 @@
         <v>18</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7">
         <v>2065.0</v>
       </c>
-      <c r="G81" s="29" t="str">
+      <c r="G81" s="30" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/G9F6g4uyX93UNCs66","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11107,13 +11242,13 @@
         <v>18</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7">
         <v>1520.0</v>
       </c>
-      <c r="G82" s="30"/>
+      <c r="G82" s="31"/>
       <c r="H82" s="11"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -11127,13 +11262,13 @@
         <v>18</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7">
         <v>800.0</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="31"/>
       <c r="H83" s="11"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -11147,13 +11282,13 @@
         <v>18</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7">
         <v>2180.0</v>
       </c>
-      <c r="G84" s="30"/>
+      <c r="G84" s="31"/>
       <c r="H84" s="11"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -11167,13 +11302,13 @@
         <v>18</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="7">
         <v>9070.0</v>
       </c>
-      <c r="G85" s="31"/>
+      <c r="G85" s="32"/>
       <c r="H85" s="11"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -11187,13 +11322,13 @@
         <v>90</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7">
         <v>900.0</v>
       </c>
-      <c r="G86" s="28" t="str">
+      <c r="G86" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/n6jAibAkoi7HTdCx8","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11210,13 +11345,13 @@
         <v>90</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7">
         <v>5200.0</v>
       </c>
-      <c r="G87" s="28" t="str">
+      <c r="G87" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/44pDpg71heDhgvMVA","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11233,13 +11368,13 @@
         <v>90</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7">
         <v>1000.0</v>
       </c>
-      <c r="G88" s="27"/>
+      <c r="G88" s="28"/>
       <c r="H88" s="11"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -11253,13 +11388,13 @@
         <v>90</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7">
         <v>1170.0</v>
       </c>
-      <c r="G89" s="27"/>
+      <c r="G89" s="28"/>
       <c r="H89" s="11"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -11273,13 +11408,13 @@
         <v>90</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7">
         <v>700.0</v>
       </c>
-      <c r="G90" s="28" t="str">
+      <c r="G90" s="29" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=148UATkkq956fybqOkKqsCkM53BOX6fV_","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11296,13 +11431,13 @@
         <v>18</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7">
         <v>720.0</v>
       </c>
-      <c r="G91" s="27"/>
+      <c r="G91" s="28"/>
       <c r="H91" s="11"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -11316,13 +11451,13 @@
         <v>18</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7">
         <v>1500.0</v>
       </c>
-      <c r="G92" s="27"/>
+      <c r="G92" s="28"/>
       <c r="H92" s="11"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -11336,13 +11471,13 @@
         <v>32</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7">
         <v>465.0</v>
       </c>
-      <c r="G93" s="28" t="str">
+      <c r="G93" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/h2xCKq6yp5g2H4A49","IER")</f>
         <v>IER</v>
       </c>
@@ -11359,13 +11494,13 @@
         <v>32</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7">
         <v>900.0</v>
       </c>
-      <c r="G94" s="27"/>
+      <c r="G94" s="28"/>
       <c r="H94" s="11"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -11379,13 +11514,13 @@
         <v>32</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7">
         <v>500.0</v>
       </c>
-      <c r="G95" s="27"/>
+      <c r="G95" s="28"/>
       <c r="H95" s="11"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -11399,13 +11534,13 @@
         <v>32</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7">
         <v>400.0</v>
       </c>
-      <c r="G96" s="27"/>
+      <c r="G96" s="28"/>
       <c r="H96" s="11"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -11419,13 +11554,13 @@
         <v>32</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7">
         <v>1615.0</v>
       </c>
-      <c r="G97" s="28" t="str">
+      <c r="G97" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/LnAuamqkfLzf6aLE6","boleta")</f>
         <v>boleta</v>
       </c>
@@ -11442,13 +11577,13 @@
         <v>18</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7">
         <v>2079.0</v>
       </c>
-      <c r="G98" s="27"/>
+      <c r="G98" s="28"/>
       <c r="H98" s="11"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -11462,13 +11597,13 @@
         <v>80</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7">
         <v>10000.0</v>
       </c>
-      <c r="G99" s="28" t="str">
+      <c r="G99" s="29" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1rq1--luAvAKP_n_1WtGhzJKafNaVZLD1","Compra dolar")</f>
         <v>Compra dolar</v>
       </c>
@@ -11485,13 +11620,13 @@
         <v>18</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7">
         <v>3770.0</v>
       </c>
-      <c r="G100" s="28" t="str">
+      <c r="G100" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/QuBWn4cPFByedqVq5","IER")</f>
         <v>IER</v>
       </c>
@@ -11508,14 +11643,14 @@
         <v>18</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <v>685.0</v>
       </c>
-      <c r="G101" s="27" t="s">
-        <v>237</v>
+      <c r="G101" s="28" t="s">
+        <v>239</v>
       </c>
       <c r="H101" s="11"/>
     </row>
@@ -11530,13 +11665,13 @@
         <v>18</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7">
         <v>9590.0</v>
       </c>
-      <c r="G102" s="28" t="str">
+      <c r="G102" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/Nx2eNxC7Uup6gbWX6","boleta")</f>
         <v>boleta</v>
       </c>
@@ -11553,13 +11688,13 @@
         <v>32</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7">
         <v>950.0</v>
       </c>
-      <c r="G103" s="28" t="str">
+      <c r="G103" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/9YSKz6GEMWjofXvY9","IER")</f>
         <v>IER</v>
       </c>
@@ -11576,13 +11711,13 @@
         <v>17</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7">
         <v>1200.0</v>
       </c>
-      <c r="G104" s="28" t="str">
+      <c r="G104" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/GmEE43dbhnZyPpns9","IER")</f>
         <v>IER</v>
       </c>
@@ -11599,15 +11734,15 @@
         <v>18</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="F105" s="7">
         <v>27500.0</v>
       </c>
-      <c r="G105" s="28" t="str">
+      <c r="G105" s="29" t="str">
         <f>HYPERLINK("https://drive.google.com/file/d/0B8G7H671wjDqNTNiMTV4dm5LN1JtWE5YdndXQXZZUTQyY0tZ/view?usp=sharing","CCT")</f>
         <v>CCT</v>
       </c>
@@ -11624,13 +11759,13 @@
         <v>18</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="7">
         <v>1150.0</v>
       </c>
-      <c r="G106" s="28" t="str">
+      <c r="G106" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/rEbKaQcSEfmzJrMg9","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11647,13 +11782,13 @@
         <v>18</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="7">
         <v>600.0</v>
       </c>
-      <c r="G107" s="28" t="str">
+      <c r="G107" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/TywNNqGCAgLCYYX1A","IER")</f>
         <v>IER</v>
       </c>
@@ -11670,13 +11805,13 @@
         <v>18</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="7">
         <v>600.0</v>
       </c>
-      <c r="G108" s="28" t="str">
+      <c r="G108" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/RAhKLCSj3YGbsBcb8","IER")</f>
         <v>IER</v>
       </c>
@@ -11693,13 +11828,13 @@
         <v>18</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="7">
         <v>2200.0</v>
       </c>
-      <c r="G109" s="27"/>
+      <c r="G109" s="28"/>
       <c r="H109" s="11"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -11713,13 +11848,13 @@
         <v>80</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="7">
         <v>27500.0</v>
       </c>
-      <c r="G110" s="28" t="str">
+      <c r="G110" s="29" t="str">
         <f>HYPERLINK("https://drive.google.com/file/d/1rq1--luAvAKP_n_1WtGhzJKafNaVZLD1/view?usp=sharing","Dolares compra")</f>
         <v>Dolares compra</v>
       </c>
@@ -11736,13 +11871,13 @@
         <v>18</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="7">
         <v>951.0</v>
       </c>
-      <c r="G111" s="28" t="str">
+      <c r="G111" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/T7sfMrjDToHKSVWi7","IER")</f>
         <v>IER</v>
       </c>
@@ -11759,13 +11894,13 @@
         <v>18</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="7">
         <v>850.0</v>
       </c>
-      <c r="G112" s="28" t="str">
+      <c r="G112" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/p747qGPtiygGVpTg9","UNT")</f>
         <v>UNT</v>
       </c>
@@ -11782,13 +11917,13 @@
         <v>18</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="7">
         <v>1500.0</v>
       </c>
-      <c r="G113" s="27"/>
+      <c r="G113" s="28"/>
       <c r="H113" s="11"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -11802,13 +11937,13 @@
         <v>18</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="7">
         <v>200.0</v>
       </c>
-      <c r="G114" s="27"/>
+      <c r="G114" s="28"/>
       <c r="H114" s="11"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -11822,13 +11957,13 @@
         <v>18</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="7">
         <v>950.0</v>
       </c>
-      <c r="G115" s="28" t="str">
+      <c r="G115" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/wJv3XLTZyV1ivRNi7","IER")</f>
         <v>IER</v>
       </c>
@@ -11845,13 +11980,13 @@
         <v>18</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="7">
         <v>1300.0</v>
       </c>
-      <c r="G116" s="28" t="str">
+      <c r="G116" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/ej3Sd6SSRyYPF5yn6","IER")</f>
         <v>IER</v>
       </c>
@@ -11868,16 +12003,16 @@
         <v>17</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F117" s="7">
         <f>6000+4662</f>
         <v>10662</v>
       </c>
-      <c r="G117" s="27"/>
+      <c r="G117" s="28"/>
       <c r="H117" s="11"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -11891,14 +12026,14 @@
         <v>90</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="7">
         <f>300+75+40</f>
         <v>415</v>
       </c>
-      <c r="G118" s="27"/>
+      <c r="G118" s="28"/>
       <c r="H118" s="11"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -11912,13 +12047,13 @@
         <v>18</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="7">
         <v>295.0</v>
       </c>
-      <c r="G119" s="27"/>
+      <c r="G119" s="28"/>
       <c r="H119" s="11"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
@@ -11932,13 +12067,13 @@
         <v>18</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7">
         <v>17600.0</v>
       </c>
-      <c r="G120" s="28" t="str">
+      <c r="G120" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/gcYx42a5yyVhpWP37","IER")</f>
         <v>IER</v>
       </c>
@@ -11955,15 +12090,15 @@
         <v>18</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F121" s="7">
         <v>12500.0</v>
       </c>
-      <c r="G121" s="28" t="str">
+      <c r="G121" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/3UuKz8b8jb1oR2t89","IER")</f>
         <v>IER</v>
       </c>
@@ -11980,13 +12115,13 @@
         <v>18</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="7">
         <v>1700.0</v>
       </c>
-      <c r="G122" s="27"/>
+      <c r="G122" s="28"/>
       <c r="H122" s="11"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -12000,15 +12135,15 @@
         <v>18</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F123" s="7">
         <v>5500.0</v>
       </c>
-      <c r="G123" s="28" t="str">
+      <c r="G123" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/2ib9AP8pM4UyYYkj7","IER")</f>
         <v>IER</v>
       </c>
@@ -12025,13 +12160,13 @@
         <v>18</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="7">
         <v>200.0</v>
       </c>
-      <c r="G124" s="28" t="str">
+      <c r="G124" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/JtG7trrw5rT1muQi9","IER")</f>
         <v>IER</v>
       </c>
@@ -12048,13 +12183,13 @@
         <v>90</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="7">
         <v>200.0</v>
       </c>
-      <c r="G125" s="28" t="str">
+      <c r="G125" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/s1coEpaSJoiBMvqu9","IER")</f>
         <v>IER</v>
       </c>
@@ -12071,15 +12206,15 @@
         <v>18</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F126" s="7">
         <v>5970.0</v>
       </c>
-      <c r="G126" s="28" t="str">
+      <c r="G126" s="29" t="str">
         <f>HYPERLINK("https://photos.app.goo.gl/w3EX7ZAqEZRvKF6x5","IER")</f>
         <v>IER</v>
       </c>
@@ -12096,13 +12231,13 @@
         <v>18</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="7">
         <v>500.0</v>
       </c>
-      <c r="G127" s="27"/>
+      <c r="G127" s="28"/>
       <c r="H127" s="11"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
@@ -12116,13 +12251,13 @@
         <v>18</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="7">
         <v>500.0</v>
       </c>
-      <c r="G128" s="27"/>
+      <c r="G128" s="28"/>
       <c r="H128" s="11"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
@@ -12136,13 +12271,13 @@
         <v>18</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="7">
         <v>1800.0</v>
       </c>
-      <c r="G129" s="27"/>
+      <c r="G129" s="28"/>
       <c r="H129" s="11"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
@@ -12156,13 +12291,13 @@
         <v>18</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7">
         <v>2000.0</v>
       </c>
-      <c r="G130" s="27"/>
+      <c r="G130" s="28"/>
       <c r="H130" s="11"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
@@ -12176,13 +12311,13 @@
         <v>18</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="7">
         <v>400.0</v>
       </c>
-      <c r="G131" s="27"/>
+      <c r="G131" s="28"/>
       <c r="H131" s="11"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -12196,13 +12331,13 @@
         <v>18</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="7">
         <v>20000.0</v>
       </c>
-      <c r="G132" s="27"/>
+      <c r="G132" s="28"/>
       <c r="H132" s="11"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
@@ -12216,13 +12351,13 @@
         <v>18</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="7">
         <v>10000.0</v>
       </c>
-      <c r="G133" s="27"/>
+      <c r="G133" s="28"/>
       <c r="H133" s="11"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
@@ -12236,16 +12371,16 @@
         <v>24</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F134" s="7">
         <v>22000.0</v>
       </c>
-      <c r="G134" s="34" t="s">
-        <v>268</v>
+      <c r="G134" s="35" t="s">
+        <v>270</v>
       </c>
       <c r="H134" s="11"/>
     </row>
@@ -12260,15 +12395,15 @@
         <v>24</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F135" s="7">
         <v>28576.0</v>
       </c>
-      <c r="G135" s="27"/>
+      <c r="G135" s="28"/>
       <c r="H135" s="11"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
@@ -12282,14 +12417,14 @@
         <v>24</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="7">
         <v>14000.0</v>
       </c>
-      <c r="G136" s="27" t="s">
-        <v>272</v>
+      <c r="G136" s="28" t="s">
+        <v>274</v>
       </c>
       <c r="H136" s="11"/>
     </row>
@@ -12301,19 +12436,19 @@
         <v>2021.0</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F137" s="7">
         <v>12000.0</v>
       </c>
-      <c r="G137" s="27" t="s">
-        <v>276</v>
+      <c r="G137" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="H137" s="11"/>
     </row>
@@ -12328,15 +12463,15 @@
         <v>90</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F138" s="7">
         <v>1500.0</v>
       </c>
-      <c r="G138" s="27"/>
+      <c r="G138" s="28"/>
       <c r="H138" s="11"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
@@ -12350,14 +12485,14 @@
         <v>24</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="7">
         <v>1600.0</v>
       </c>
-      <c r="G139" s="34" t="s">
-        <v>279</v>
+      <c r="G139" s="35" t="s">
+        <v>281</v>
       </c>
       <c r="H139" s="11"/>
     </row>
@@ -12372,15 +12507,15 @@
         <v>24</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F140" s="7">
         <v>2300.0</v>
       </c>
-      <c r="G140" s="27"/>
+      <c r="G140" s="28"/>
       <c r="H140" s="11"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -12394,16 +12529,16 @@
         <v>90</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F141" s="7">
         <v>13400.0</v>
       </c>
-      <c r="G141" s="34" t="s">
-        <v>284</v>
+      <c r="G141" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="H141" s="11"/>
     </row>
@@ -12415,19 +12550,19 @@
         <v>2021.0</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E142" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="F142" s="7">
         <v>11284.0</v>
       </c>
-      <c r="G142" s="34" t="s">
-        <v>288</v>
+      <c r="G142" s="35" t="s">
+        <v>290</v>
       </c>
       <c r="H142" s="11"/>
     </row>
@@ -12439,19 +12574,19 @@
         <v>2021.0</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E143" s="36" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="E143" s="37" t="s">
+        <v>292</v>
       </c>
       <c r="F143" s="7">
         <v>25249.0</v>
       </c>
-      <c r="G143" s="34" t="s">
-        <v>291</v>
+      <c r="G143" s="35" t="s">
+        <v>293</v>
       </c>
       <c r="H143" s="11"/>
     </row>
@@ -12466,13 +12601,13 @@
         <v>90</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E144" s="37"/>
+        <v>294</v>
+      </c>
+      <c r="E144" s="38"/>
       <c r="F144" s="7">
         <v>1000.0</v>
       </c>
-      <c r="G144" s="27"/>
+      <c r="G144" s="28"/>
       <c r="H144" s="11"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
@@ -12486,14 +12621,14 @@
         <v>90</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="7">
         <v>17200.0</v>
       </c>
-      <c r="G145" s="34" t="s">
-        <v>294</v>
+      <c r="G145" s="35" t="s">
+        <v>296</v>
       </c>
       <c r="H145" s="11"/>
     </row>
@@ -12508,14 +12643,14 @@
         <v>90</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="7">
         <v>426.0</v>
       </c>
-      <c r="G146" s="34" t="s">
-        <v>296</v>
+      <c r="G146" s="35" t="s">
+        <v>298</v>
       </c>
       <c r="H146" s="11"/>
     </row>
@@ -12530,14 +12665,14 @@
         <v>90</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="7">
         <v>15000.0</v>
       </c>
-      <c r="G147" s="34" t="s">
-        <v>298</v>
+      <c r="G147" s="35" t="s">
+        <v>300</v>
       </c>
       <c r="H147" s="11"/>
     </row>
@@ -12552,14 +12687,14 @@
         <v>80</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="7">
         <v>758.0</v>
       </c>
-      <c r="G148" s="34" t="s">
-        <v>300</v>
+      <c r="G148" s="35" t="s">
+        <v>302</v>
       </c>
       <c r="H148" s="11"/>
     </row>
@@ -12574,14 +12709,14 @@
         <v>18</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="7">
         <v>12000.0</v>
       </c>
-      <c r="G149" s="34" t="s">
-        <v>302</v>
+      <c r="G149" s="35" t="s">
+        <v>304</v>
       </c>
       <c r="H149" s="11"/>
     </row>
@@ -12596,14 +12731,14 @@
         <v>18</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="7">
         <v>3420.0</v>
       </c>
-      <c r="G150" s="34" t="s">
-        <v>304</v>
+      <c r="G150" s="35" t="s">
+        <v>306</v>
       </c>
       <c r="H150" s="11"/>
     </row>
@@ -12618,13 +12753,13 @@
         <v>18</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="7">
         <v>60000.0</v>
       </c>
-      <c r="G151" s="27"/>
+      <c r="G151" s="28"/>
       <c r="H151" s="11"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
@@ -12638,13 +12773,13 @@
         <v>18</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F152" s="7"/>
-      <c r="G152" s="27"/>
+      <c r="G152" s="28"/>
       <c r="H152" s="11"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
@@ -12658,16 +12793,16 @@
         <v>32</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F153" s="7">
         <v>8055.0</v>
       </c>
-      <c r="G153" s="28" t="s">
-        <v>310</v>
+      <c r="G153" s="29" t="s">
+        <v>312</v>
       </c>
       <c r="H153" s="11"/>
     </row>
@@ -12682,16 +12817,16 @@
         <v>32</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F154" s="7">
         <v>600.0</v>
       </c>
-      <c r="G154" s="28" t="s">
-        <v>313</v>
+      <c r="G154" s="29" t="s">
+        <v>315</v>
       </c>
       <c r="H154" s="11"/>
     </row>
@@ -12706,16 +12841,16 @@
         <v>32</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F155" s="7">
         <v>23000.0</v>
       </c>
-      <c r="G155" s="28" t="s">
-        <v>316</v>
+      <c r="G155" s="29" t="s">
+        <v>318</v>
       </c>
       <c r="H155" s="11"/>
     </row>
@@ -12730,16 +12865,16 @@
         <v>32</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F156" s="7">
         <v>23000.0</v>
       </c>
-      <c r="G156" s="28" t="s">
-        <v>317</v>
+      <c r="G156" s="29" t="s">
+        <v>319</v>
       </c>
       <c r="H156" s="11"/>
     </row>
@@ -12754,13 +12889,13 @@
         <v>32</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="7">
         <v>16000.0</v>
       </c>
-      <c r="G157" s="27"/>
+      <c r="G157" s="28"/>
       <c r="H157" s="11"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
@@ -12774,13 +12909,13 @@
         <v>32</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E158" s="11"/>
       <c r="F158" s="7">
         <v>16300.0</v>
       </c>
-      <c r="G158" s="27"/>
+      <c r="G158" s="28"/>
       <c r="H158" s="11"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
@@ -12794,13 +12929,13 @@
         <v>32</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E159" s="11"/>
       <c r="F159" s="7">
         <v>3200.0</v>
       </c>
-      <c r="G159" s="27"/>
+      <c r="G159" s="28"/>
       <c r="H159" s="11"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
@@ -12811,10 +12946,10 @@
         <v>2023.0</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E160" s="11"/>
       <c r="F160" s="17">
@@ -12834,7 +12969,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="17">
@@ -12844,7 +12979,7 @@
       <c r="H161" s="11"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="38">
+      <c r="A162" s="39">
         <v>45166.0</v>
       </c>
       <c r="B162" s="20">
@@ -12854,14 +12989,14 @@
         <v>80</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F162" s="20">
         <v>24150.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="38">
+      <c r="A163" s="39">
         <v>45166.0</v>
       </c>
       <c r="B163" s="20">
@@ -12871,14 +13006,14 @@
         <v>80</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F163" s="20">
         <v>6000.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="38">
+      <c r="A164" s="39">
         <v>45166.0</v>
       </c>
       <c r="B164" s="20">
@@ -12888,14 +13023,14 @@
         <v>32</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F164" s="20">
         <v>6500.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="38">
+      <c r="A165" s="39">
         <v>45190.0</v>
       </c>
       <c r="B165" s="20">
@@ -12905,14 +13040,14 @@
         <v>18</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F165" s="20">
         <v>54200.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="38">
+      <c r="A166" s="39">
         <v>45216.0</v>
       </c>
       <c r="B166" s="20">
@@ -12922,17 +13057,17 @@
         <v>32</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F166" s="20">
         <v>30000.0</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="38">
+      <c r="A167" s="39">
         <v>45218.0</v>
       </c>
       <c r="B167" s="20">
@@ -12942,17 +13077,17 @@
         <v>32</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F167" s="20">
         <v>10500.0</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="38">
+      <c r="A168" s="39">
         <v>45222.0</v>
       </c>
       <c r="B168" s="20">
@@ -12962,14 +13097,14 @@
         <v>18</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F168" s="20">
         <v>100000.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="38">
+      <c r="A169" s="39">
         <v>45229.0</v>
       </c>
       <c r="B169" s="20">
@@ -12979,581 +13114,609 @@
         <v>32</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F169" s="20">
         <v>8190.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="22"/>
+      <c r="A170" s="39">
+        <v>45236.0</v>
+      </c>
+      <c r="B170" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" s="20">
+        <v>25000.0</v>
+      </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="22"/>
+      <c r="A171" s="39">
+        <v>45237.0</v>
+      </c>
+      <c r="B171" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F171" s="20">
+        <v>6500.0</v>
+      </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="22"/>
+      <c r="A172" s="23"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="22"/>
+      <c r="A173" s="23"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="22"/>
+      <c r="A174" s="23"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="22"/>
+      <c r="A175" s="23"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="22"/>
+      <c r="A176" s="23"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="22"/>
+      <c r="A177" s="23"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="22"/>
+      <c r="A178" s="23"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="22"/>
+      <c r="A179" s="23"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="22"/>
+      <c r="A180" s="23"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="22"/>
+      <c r="A181" s="23"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="22"/>
+      <c r="A182" s="23"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="22"/>
+      <c r="A183" s="23"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="22"/>
+      <c r="A184" s="23"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="22"/>
+      <c r="A185" s="23"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="22"/>
+      <c r="A186" s="23"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="22"/>
+      <c r="A187" s="23"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="22"/>
+      <c r="A188" s="23"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="22"/>
+      <c r="A189" s="23"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="22"/>
+      <c r="A190" s="23"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="22"/>
+      <c r="A191" s="23"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="22"/>
+      <c r="A192" s="23"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="22"/>
+      <c r="A193" s="23"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="22"/>
+      <c r="A194" s="23"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="22"/>
+      <c r="A195" s="23"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="22"/>
+      <c r="A196" s="23"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="22"/>
+      <c r="A197" s="23"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="22"/>
+      <c r="A198" s="23"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="22"/>
+      <c r="A199" s="23"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="23"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="22"/>
+      <c r="A201" s="23"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="22"/>
+      <c r="A202" s="23"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="22"/>
+      <c r="A203" s="23"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="22"/>
+      <c r="A204" s="23"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="22"/>
+      <c r="A205" s="23"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="22"/>
+      <c r="A206" s="23"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="22"/>
+      <c r="A207" s="23"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="22"/>
+      <c r="A208" s="23"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="22"/>
+      <c r="A209" s="23"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="22"/>
+      <c r="A210" s="23"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="22"/>
+      <c r="A211" s="23"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="22"/>
+      <c r="A212" s="23"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="22"/>
+      <c r="A213" s="23"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="22"/>
+      <c r="A214" s="23"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="22"/>
+      <c r="A215" s="23"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="22"/>
+      <c r="A216" s="23"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="22"/>
+      <c r="A217" s="23"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="22"/>
+      <c r="A218" s="23"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="22"/>
+      <c r="A219" s="23"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="22"/>
+      <c r="A220" s="23"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="22"/>
+      <c r="A221" s="23"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="22"/>
+      <c r="A222" s="23"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="22"/>
+      <c r="A223" s="23"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="22"/>
+      <c r="A224" s="23"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="22"/>
+      <c r="A225" s="23"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="22"/>
+      <c r="A226" s="23"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="22"/>
+      <c r="A227" s="23"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="22"/>
+      <c r="A228" s="23"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="22"/>
+      <c r="A229" s="23"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="22"/>
+      <c r="A230" s="23"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="22"/>
+      <c r="A231" s="23"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="22"/>
+      <c r="A232" s="23"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="22"/>
+      <c r="A233" s="23"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="22"/>
+      <c r="A234" s="23"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="22"/>
+      <c r="A235" s="23"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="22"/>
+      <c r="A236" s="23"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="22"/>
+      <c r="A237" s="23"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="22"/>
+      <c r="A238" s="23"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="22"/>
+      <c r="A239" s="23"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="22"/>
+      <c r="A240" s="23"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="22"/>
+      <c r="A241" s="23"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="22"/>
+      <c r="A242" s="23"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="22"/>
+      <c r="A243" s="23"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="22"/>
+      <c r="A244" s="23"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="22"/>
+      <c r="A245" s="23"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="22"/>
+      <c r="A246" s="23"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="22"/>
+      <c r="A247" s="23"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="22"/>
+      <c r="A248" s="23"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="22"/>
+      <c r="A249" s="23"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="22"/>
+      <c r="A250" s="23"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="22"/>
+      <c r="A251" s="23"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="22"/>
+      <c r="A252" s="23"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="22"/>
+      <c r="A253" s="23"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="22"/>
+      <c r="A254" s="23"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="22"/>
+      <c r="A255" s="23"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="22"/>
+      <c r="A256" s="23"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="22"/>
+      <c r="A257" s="23"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="22"/>
+      <c r="A258" s="23"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="22"/>
+      <c r="A259" s="23"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="22"/>
+      <c r="A260" s="23"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="22"/>
+      <c r="A261" s="23"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="22"/>
+      <c r="A262" s="23"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="22"/>
+      <c r="A263" s="23"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="22"/>
+      <c r="A264" s="23"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="22"/>
+      <c r="A265" s="23"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="22"/>
+      <c r="A266" s="23"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="22"/>
+      <c r="A267" s="23"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="22"/>
+      <c r="A268" s="23"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="22"/>
+      <c r="A269" s="23"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="22"/>
+      <c r="A270" s="23"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="22"/>
+      <c r="A271" s="23"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="22"/>
+      <c r="A272" s="23"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="22"/>
+      <c r="A273" s="23"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="22"/>
+      <c r="A274" s="23"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="22"/>
+      <c r="A275" s="23"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="22"/>
+      <c r="A276" s="23"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="22"/>
+      <c r="A277" s="23"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="22"/>
+      <c r="A278" s="23"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="22"/>
+      <c r="A279" s="23"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="22"/>
+      <c r="A280" s="23"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="22"/>
+      <c r="A281" s="23"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="22"/>
+      <c r="A282" s="23"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="22"/>
+      <c r="A283" s="23"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="22"/>
+      <c r="A284" s="23"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="22"/>
+      <c r="A285" s="23"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="22"/>
+      <c r="A286" s="23"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="22"/>
+      <c r="A287" s="23"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="22"/>
+      <c r="A288" s="23"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="22"/>
+      <c r="A289" s="23"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="22"/>
+      <c r="A290" s="23"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="22"/>
+      <c r="A291" s="23"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="22"/>
+      <c r="A292" s="23"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="22"/>
+      <c r="A293" s="23"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="22"/>
+      <c r="A294" s="23"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="22"/>
+      <c r="A295" s="23"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="22"/>
+      <c r="A296" s="23"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="22"/>
+      <c r="A297" s="23"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="22"/>
+      <c r="A298" s="23"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="22"/>
+      <c r="A299" s="23"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="22"/>
+      <c r="A300" s="23"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="22"/>
+      <c r="A301" s="23"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="22"/>
+      <c r="A302" s="23"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="22"/>
+      <c r="A303" s="23"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="22"/>
+      <c r="A304" s="23"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="22"/>
+      <c r="A305" s="23"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="22"/>
+      <c r="A306" s="23"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="22"/>
+      <c r="A307" s="23"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="22"/>
+      <c r="A308" s="23"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="22"/>
+      <c r="A309" s="23"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="22"/>
+      <c r="A310" s="23"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="22"/>
+      <c r="A311" s="23"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="22"/>
+      <c r="A312" s="23"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="22"/>
+      <c r="A313" s="23"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="22"/>
+      <c r="A314" s="23"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="22"/>
+      <c r="A315" s="23"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="22"/>
+      <c r="A316" s="23"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="22"/>
+      <c r="A317" s="23"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="22"/>
+      <c r="A318" s="23"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="22"/>
+      <c r="A319" s="23"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="22"/>
+      <c r="A320" s="23"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="22"/>
+      <c r="A321" s="23"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="22"/>
+      <c r="A322" s="23"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="22"/>
+      <c r="A323" s="23"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="22"/>
+      <c r="A324" s="23"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="22"/>
+      <c r="A325" s="23"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="22"/>
+      <c r="A326" s="23"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="22"/>
+      <c r="A327" s="23"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="22"/>
+      <c r="A328" s="23"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="22"/>
+      <c r="A329" s="23"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="22"/>
+      <c r="A330" s="23"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="22"/>
+      <c r="A331" s="23"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="22"/>
+      <c r="A332" s="23"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="22"/>
+      <c r="A333" s="23"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="22"/>
+      <c r="A334" s="23"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="22"/>
+      <c r="A335" s="23"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="22"/>
+      <c r="A336" s="23"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="22"/>
+      <c r="A337" s="23"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="22"/>
+      <c r="A338" s="23"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="22"/>
+      <c r="A339" s="23"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="22"/>
+      <c r="A340" s="23"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="22"/>
+      <c r="A341" s="23"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="22"/>
+      <c r="A342" s="23"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="22"/>
+      <c r="A343" s="23"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="22"/>
+      <c r="A344" s="23"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="22"/>
+      <c r="A345" s="23"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="22"/>
+      <c r="A346" s="23"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="22"/>
+      <c r="A347" s="23"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="22"/>
+      <c r="A348" s="23"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="22"/>
+      <c r="A349" s="23"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="22"/>
+      <c r="A350" s="23"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="22"/>
+      <c r="A351" s="23"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="22"/>
+      <c r="A352" s="23"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="22"/>
+      <c r="A353" s="23"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="22"/>
+      <c r="A354" s="23"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="22"/>
+      <c r="A355" s="23"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="22"/>
+      <c r="A356" s="23"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="22"/>
+      <c r="A357" s="23"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="22"/>
+      <c r="A358" s="23"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="22"/>
+      <c r="A359" s="23"/>
     </row>
     <row r="360" ht="15.75" customHeight="1"/>
     <row r="361" ht="15.75" customHeight="1"/>
@@ -14237,13 +14400,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -14251,10 +14414,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="39">
-        <v>44896.0</v>
+        <v>326</v>
+      </c>
+      <c r="C2" s="40">
+        <v>45603.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -14262,7 +14425,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C3" s="40">
         <v>45291.0</v>
@@ -14273,7 +14436,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C4" s="41">
         <v>45394.0</v>
@@ -14284,7 +14447,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C5" s="40">
         <v>45534.0</v>
@@ -14295,7 +14458,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C6" s="42">
         <v>41343.0</v>
@@ -14306,7 +14469,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C7" s="40">
         <v>45534.0</v>
@@ -14317,7 +14480,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C8" s="43">
         <v>45323.0</v>
@@ -14328,7 +14491,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C9" s="41">
         <v>45394.0</v>
@@ -14339,7 +14502,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C10" s="44">
         <v>45534.0</v>
@@ -14350,7 +14513,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C11" s="42">
         <v>40822.0</v>
@@ -15367,22 +15530,22 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -15390,7 +15553,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C2" s="8">
         <v>45028.0</v>
@@ -15410,7 +15573,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C3" s="18">
         <v>45229.0</v>
@@ -15426,7 +15589,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>17</v>
@@ -15442,7 +15605,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
@@ -15458,7 +15621,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
@@ -15474,7 +15637,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>17</v>
@@ -15490,7 +15653,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>17</v>
@@ -15506,7 +15669,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>17</v>
@@ -15518,848 +15681,848 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="F47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="22"/>
-      <c r="F49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="22"/>
-      <c r="F52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="F55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="22"/>
-      <c r="F56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="22"/>
-      <c r="F57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="22"/>
-      <c r="F58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="F58" s="23"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="F59" s="23"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="22"/>
-      <c r="F60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="22"/>
-      <c r="F61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="22"/>
-      <c r="F62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="22"/>
-      <c r="F64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="22"/>
-      <c r="F65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="F65" s="23"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="22"/>
-      <c r="F66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="F66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="22"/>
-      <c r="F67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="F67" s="23"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="C68" s="23"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="22"/>
-      <c r="F69" s="22"/>
+      <c r="C69" s="23"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="22"/>
-      <c r="F70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="C71" s="23"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="22"/>
-      <c r="F73" s="22"/>
+      <c r="C73" s="23"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="22"/>
-      <c r="F74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="F74" s="23"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="22"/>
-      <c r="F75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="22"/>
-      <c r="F76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="F76" s="23"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="22"/>
-      <c r="F77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="F77" s="23"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="22"/>
-      <c r="F78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="F78" s="23"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="22"/>
-      <c r="F79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="F79" s="23"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="22"/>
-      <c r="F80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="22"/>
-      <c r="F81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="22"/>
-      <c r="F82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="F82" s="23"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="22"/>
-      <c r="F83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="F83" s="23"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="22"/>
-      <c r="F84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="F84" s="23"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="22"/>
-      <c r="F85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="22"/>
-      <c r="F86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="F86" s="23"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="22"/>
-      <c r="F87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="F87" s="23"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="22"/>
-      <c r="F88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="F88" s="23"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="22"/>
-      <c r="F89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="F89" s="23"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="22"/>
-      <c r="F90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="F90" s="23"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="22"/>
-      <c r="F91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="F91" s="23"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="22"/>
-      <c r="F92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="22"/>
-      <c r="F93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="F93" s="23"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="22"/>
-      <c r="F94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="22"/>
-      <c r="F95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="F95" s="23"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="22"/>
-      <c r="F96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="F96" s="23"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="22"/>
-      <c r="F97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="F97" s="23"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="22"/>
-      <c r="F98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="F98" s="23"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="22"/>
-      <c r="F99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="F99" s="23"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="22"/>
-      <c r="F100" s="22"/>
+      <c r="C100" s="23"/>
+      <c r="F100" s="23"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="22"/>
-      <c r="F101" s="22"/>
+      <c r="C101" s="23"/>
+      <c r="F101" s="23"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="22"/>
-      <c r="F102" s="22"/>
+      <c r="C102" s="23"/>
+      <c r="F102" s="23"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="22"/>
-      <c r="F103" s="22"/>
+      <c r="C103" s="23"/>
+      <c r="F103" s="23"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="22"/>
-      <c r="F104" s="22"/>
+      <c r="C104" s="23"/>
+      <c r="F104" s="23"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="22"/>
-      <c r="F105" s="22"/>
+      <c r="C105" s="23"/>
+      <c r="F105" s="23"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="22"/>
-      <c r="F106" s="22"/>
+      <c r="C106" s="23"/>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="22"/>
-      <c r="F107" s="22"/>
+      <c r="C107" s="23"/>
+      <c r="F107" s="23"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="22"/>
-      <c r="F108" s="22"/>
+      <c r="C108" s="23"/>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="22"/>
-      <c r="F109" s="22"/>
+      <c r="C109" s="23"/>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="22"/>
-      <c r="F110" s="22"/>
+      <c r="C110" s="23"/>
+      <c r="F110" s="23"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="22"/>
-      <c r="F111" s="22"/>
+      <c r="C111" s="23"/>
+      <c r="F111" s="23"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="22"/>
-      <c r="F112" s="22"/>
+      <c r="C112" s="23"/>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="22"/>
-      <c r="F113" s="22"/>
+      <c r="C113" s="23"/>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="22"/>
-      <c r="F114" s="22"/>
+      <c r="C114" s="23"/>
+      <c r="F114" s="23"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="22"/>
-      <c r="F115" s="22"/>
+      <c r="C115" s="23"/>
+      <c r="F115" s="23"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="22"/>
-      <c r="F116" s="22"/>
+      <c r="C116" s="23"/>
+      <c r="F116" s="23"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="22"/>
-      <c r="F117" s="22"/>
+      <c r="C117" s="23"/>
+      <c r="F117" s="23"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="22"/>
-      <c r="F118" s="22"/>
+      <c r="C118" s="23"/>
+      <c r="F118" s="23"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="22"/>
-      <c r="F119" s="22"/>
+      <c r="C119" s="23"/>
+      <c r="F119" s="23"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="22"/>
-      <c r="F120" s="22"/>
+      <c r="C120" s="23"/>
+      <c r="F120" s="23"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="22"/>
-      <c r="F121" s="22"/>
+      <c r="C121" s="23"/>
+      <c r="F121" s="23"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="22"/>
-      <c r="F122" s="22"/>
+      <c r="C122" s="23"/>
+      <c r="F122" s="23"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="22"/>
-      <c r="F123" s="22"/>
+      <c r="C123" s="23"/>
+      <c r="F123" s="23"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="22"/>
-      <c r="F124" s="22"/>
+      <c r="C124" s="23"/>
+      <c r="F124" s="23"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="22"/>
-      <c r="F125" s="22"/>
+      <c r="C125" s="23"/>
+      <c r="F125" s="23"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="22"/>
-      <c r="F126" s="22"/>
+      <c r="C126" s="23"/>
+      <c r="F126" s="23"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="22"/>
-      <c r="F127" s="22"/>
+      <c r="C127" s="23"/>
+      <c r="F127" s="23"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="22"/>
-      <c r="F128" s="22"/>
+      <c r="C128" s="23"/>
+      <c r="F128" s="23"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="22"/>
-      <c r="F129" s="22"/>
+      <c r="C129" s="23"/>
+      <c r="F129" s="23"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="22"/>
-      <c r="F130" s="22"/>
+      <c r="C130" s="23"/>
+      <c r="F130" s="23"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="22"/>
-      <c r="F131" s="22"/>
+      <c r="C131" s="23"/>
+      <c r="F131" s="23"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="22"/>
-      <c r="F132" s="22"/>
+      <c r="C132" s="23"/>
+      <c r="F132" s="23"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="22"/>
-      <c r="F133" s="22"/>
+      <c r="C133" s="23"/>
+      <c r="F133" s="23"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="22"/>
-      <c r="F134" s="22"/>
+      <c r="C134" s="23"/>
+      <c r="F134" s="23"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="22"/>
-      <c r="F135" s="22"/>
+      <c r="C135" s="23"/>
+      <c r="F135" s="23"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="22"/>
-      <c r="F136" s="22"/>
+      <c r="C136" s="23"/>
+      <c r="F136" s="23"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="22"/>
-      <c r="F137" s="22"/>
+      <c r="C137" s="23"/>
+      <c r="F137" s="23"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="22"/>
-      <c r="F138" s="22"/>
+      <c r="C138" s="23"/>
+      <c r="F138" s="23"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="22"/>
-      <c r="F139" s="22"/>
+      <c r="C139" s="23"/>
+      <c r="F139" s="23"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="22"/>
-      <c r="F140" s="22"/>
+      <c r="C140" s="23"/>
+      <c r="F140" s="23"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="22"/>
-      <c r="F141" s="22"/>
+      <c r="C141" s="23"/>
+      <c r="F141" s="23"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="22"/>
-      <c r="F142" s="22"/>
+      <c r="C142" s="23"/>
+      <c r="F142" s="23"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="22"/>
-      <c r="F143" s="22"/>
+      <c r="C143" s="23"/>
+      <c r="F143" s="23"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="22"/>
-      <c r="F144" s="22"/>
+      <c r="C144" s="23"/>
+      <c r="F144" s="23"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="22"/>
-      <c r="F145" s="22"/>
+      <c r="C145" s="23"/>
+      <c r="F145" s="23"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="22"/>
-      <c r="F146" s="22"/>
+      <c r="C146" s="23"/>
+      <c r="F146" s="23"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="22"/>
-      <c r="F147" s="22"/>
+      <c r="C147" s="23"/>
+      <c r="F147" s="23"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="22"/>
-      <c r="F148" s="22"/>
+      <c r="C148" s="23"/>
+      <c r="F148" s="23"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="22"/>
-      <c r="F149" s="22"/>
+      <c r="C149" s="23"/>
+      <c r="F149" s="23"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="22"/>
-      <c r="F150" s="22"/>
+      <c r="C150" s="23"/>
+      <c r="F150" s="23"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="22"/>
-      <c r="F151" s="22"/>
+      <c r="C151" s="23"/>
+      <c r="F151" s="23"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="22"/>
-      <c r="F152" s="22"/>
+      <c r="C152" s="23"/>
+      <c r="F152" s="23"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="22"/>
-      <c r="F153" s="22"/>
+      <c r="C153" s="23"/>
+      <c r="F153" s="23"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="22"/>
-      <c r="F154" s="22"/>
+      <c r="C154" s="23"/>
+      <c r="F154" s="23"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="22"/>
-      <c r="F155" s="22"/>
+      <c r="C155" s="23"/>
+      <c r="F155" s="23"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="22"/>
-      <c r="F156" s="22"/>
+      <c r="C156" s="23"/>
+      <c r="F156" s="23"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="22"/>
-      <c r="F157" s="22"/>
+      <c r="C157" s="23"/>
+      <c r="F157" s="23"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="22"/>
-      <c r="F158" s="22"/>
+      <c r="C158" s="23"/>
+      <c r="F158" s="23"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="22"/>
-      <c r="F159" s="22"/>
+      <c r="C159" s="23"/>
+      <c r="F159" s="23"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="22"/>
-      <c r="F160" s="22"/>
+      <c r="C160" s="23"/>
+      <c r="F160" s="23"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="22"/>
-      <c r="F161" s="22"/>
+      <c r="C161" s="23"/>
+      <c r="F161" s="23"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="22"/>
-      <c r="F162" s="22"/>
+      <c r="C162" s="23"/>
+      <c r="F162" s="23"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="22"/>
-      <c r="F163" s="22"/>
+      <c r="C163" s="23"/>
+      <c r="F163" s="23"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="22"/>
-      <c r="F164" s="22"/>
+      <c r="C164" s="23"/>
+      <c r="F164" s="23"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="22"/>
-      <c r="F165" s="22"/>
+      <c r="C165" s="23"/>
+      <c r="F165" s="23"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="22"/>
-      <c r="F166" s="22"/>
+      <c r="C166" s="23"/>
+      <c r="F166" s="23"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="22"/>
-      <c r="F167" s="22"/>
+      <c r="C167" s="23"/>
+      <c r="F167" s="23"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="22"/>
-      <c r="F168" s="22"/>
+      <c r="C168" s="23"/>
+      <c r="F168" s="23"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="22"/>
-      <c r="F169" s="22"/>
+      <c r="C169" s="23"/>
+      <c r="F169" s="23"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="22"/>
-      <c r="F170" s="22"/>
+      <c r="C170" s="23"/>
+      <c r="F170" s="23"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="22"/>
-      <c r="F171" s="22"/>
+      <c r="C171" s="23"/>
+      <c r="F171" s="23"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="22"/>
-      <c r="F172" s="22"/>
+      <c r="C172" s="23"/>
+      <c r="F172" s="23"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="22"/>
-      <c r="F173" s="22"/>
+      <c r="C173" s="23"/>
+      <c r="F173" s="23"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="22"/>
-      <c r="F174" s="22"/>
+      <c r="C174" s="23"/>
+      <c r="F174" s="23"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="22"/>
-      <c r="F175" s="22"/>
+      <c r="C175" s="23"/>
+      <c r="F175" s="23"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="22"/>
-      <c r="F176" s="22"/>
+      <c r="C176" s="23"/>
+      <c r="F176" s="23"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="22"/>
-      <c r="F177" s="22"/>
+      <c r="C177" s="23"/>
+      <c r="F177" s="23"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="22"/>
-      <c r="F178" s="22"/>
+      <c r="C178" s="23"/>
+      <c r="F178" s="23"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="22"/>
-      <c r="F179" s="22"/>
+      <c r="C179" s="23"/>
+      <c r="F179" s="23"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="22"/>
-      <c r="F180" s="22"/>
+      <c r="C180" s="23"/>
+      <c r="F180" s="23"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="22"/>
-      <c r="F181" s="22"/>
+      <c r="C181" s="23"/>
+      <c r="F181" s="23"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="22"/>
-      <c r="F182" s="22"/>
+      <c r="C182" s="23"/>
+      <c r="F182" s="23"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="22"/>
-      <c r="F183" s="22"/>
+      <c r="C183" s="23"/>
+      <c r="F183" s="23"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="22"/>
-      <c r="F184" s="22"/>
+      <c r="C184" s="23"/>
+      <c r="F184" s="23"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="22"/>
-      <c r="F185" s="22"/>
+      <c r="C185" s="23"/>
+      <c r="F185" s="23"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="22"/>
-      <c r="F186" s="22"/>
+      <c r="C186" s="23"/>
+      <c r="F186" s="23"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="22"/>
-      <c r="F187" s="22"/>
+      <c r="C187" s="23"/>
+      <c r="F187" s="23"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="22"/>
-      <c r="F188" s="22"/>
+      <c r="C188" s="23"/>
+      <c r="F188" s="23"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="22"/>
-      <c r="F189" s="22"/>
+      <c r="C189" s="23"/>
+      <c r="F189" s="23"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="22"/>
-      <c r="F190" s="22"/>
+      <c r="C190" s="23"/>
+      <c r="F190" s="23"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="22"/>
-      <c r="F191" s="22"/>
+      <c r="C191" s="23"/>
+      <c r="F191" s="23"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="22"/>
-      <c r="F192" s="22"/>
+      <c r="C192" s="23"/>
+      <c r="F192" s="23"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="22"/>
-      <c r="F193" s="22"/>
+      <c r="C193" s="23"/>
+      <c r="F193" s="23"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="22"/>
-      <c r="F194" s="22"/>
+      <c r="C194" s="23"/>
+      <c r="F194" s="23"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="22"/>
-      <c r="F195" s="22"/>
+      <c r="C195" s="23"/>
+      <c r="F195" s="23"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="22"/>
-      <c r="F196" s="22"/>
+      <c r="C196" s="23"/>
+      <c r="F196" s="23"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="22"/>
-      <c r="F197" s="22"/>
+      <c r="C197" s="23"/>
+      <c r="F197" s="23"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="22"/>
-      <c r="F198" s="22"/>
+      <c r="C198" s="23"/>
+      <c r="F198" s="23"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="22"/>
-      <c r="F199" s="22"/>
+      <c r="C199" s="23"/>
+      <c r="F199" s="23"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="22"/>
-      <c r="F200" s="22"/>
+      <c r="C200" s="23"/>
+      <c r="F200" s="23"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="22"/>
-      <c r="F201" s="22"/>
+      <c r="C201" s="23"/>
+      <c r="F201" s="23"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="22"/>
-      <c r="F202" s="22"/>
+      <c r="C202" s="23"/>
+      <c r="F202" s="23"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="22"/>
-      <c r="F203" s="22"/>
+      <c r="C203" s="23"/>
+      <c r="F203" s="23"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="22"/>
-      <c r="F204" s="22"/>
+      <c r="C204" s="23"/>
+      <c r="F204" s="23"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="22"/>
-      <c r="F205" s="22"/>
+      <c r="C205" s="23"/>
+      <c r="F205" s="23"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="22"/>
-      <c r="F206" s="22"/>
+      <c r="C206" s="23"/>
+      <c r="F206" s="23"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="22"/>
-      <c r="F207" s="22"/>
+      <c r="C207" s="23"/>
+      <c r="F207" s="23"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="22"/>
-      <c r="F208" s="22"/>
+      <c r="C208" s="23"/>
+      <c r="F208" s="23"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="22"/>
-      <c r="F209" s="22"/>
+      <c r="C209" s="23"/>
+      <c r="F209" s="23"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="22"/>
-      <c r="F210" s="22"/>
+      <c r="C210" s="23"/>
+      <c r="F210" s="23"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="22"/>
-      <c r="F211" s="22"/>
+      <c r="C211" s="23"/>
+      <c r="F211" s="23"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="22"/>
-      <c r="F212" s="22"/>
+      <c r="C212" s="23"/>
+      <c r="F212" s="23"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="22"/>
-      <c r="F213" s="22"/>
+      <c r="C213" s="23"/>
+      <c r="F213" s="23"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="22"/>
-      <c r="F214" s="22"/>
+      <c r="C214" s="23"/>
+      <c r="F214" s="23"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="22"/>
-      <c r="F215" s="22"/>
+      <c r="C215" s="23"/>
+      <c r="F215" s="23"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="22"/>
-      <c r="F216" s="22"/>
+      <c r="C216" s="23"/>
+      <c r="F216" s="23"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="22"/>
-      <c r="F217" s="22"/>
+      <c r="C217" s="23"/>
+      <c r="F217" s="23"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="22"/>
-      <c r="F218" s="22"/>
+      <c r="C218" s="23"/>
+      <c r="F218" s="23"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="22"/>
-      <c r="F219" s="22"/>
+      <c r="C219" s="23"/>
+      <c r="F219" s="23"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="22"/>
-      <c r="F220" s="22"/>
+      <c r="C220" s="23"/>
+      <c r="F220" s="23"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -17162,156 +17325,156 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="45" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="45" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="46" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="45" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="46" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -1429,11 +1429,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6541,7 +6541,7 @@
         <v>9000.0</v>
       </c>
       <c r="K128" s="10">
-        <f t="shared" ref="K128:K149" si="5">I128-J128</f>
+        <f t="shared" ref="K128:K158" si="5">I128-J128</f>
         <v>0</v>
       </c>
       <c r="L128" s="11"/>
@@ -7359,7 +7359,10 @@
         <v>26455.0</v>
       </c>
       <c r="J150" s="6"/>
-      <c r="K150" s="21"/>
+      <c r="K150" s="10">
+        <f t="shared" si="5"/>
+        <v>26455</v>
+      </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="20" t="s">
@@ -7392,7 +7395,10 @@
       <c r="J151" s="20">
         <v>39682.5</v>
       </c>
-      <c r="K151" s="21"/>
+      <c r="K151" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="20" t="s">
@@ -7423,7 +7429,10 @@
         <v>26455.0</v>
       </c>
       <c r="J152" s="6"/>
-      <c r="K152" s="21"/>
+      <c r="K152" s="10">
+        <f t="shared" si="5"/>
+        <v>26455</v>
+      </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="20" t="s">
@@ -7456,7 +7465,10 @@
       <c r="J153" s="20">
         <v>52910.0</v>
       </c>
-      <c r="K153" s="21"/>
+      <c r="K153" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="20" t="s">
@@ -7489,7 +7501,10 @@
       <c r="J154" s="20">
         <v>44880.0</v>
       </c>
-      <c r="K154" s="21"/>
+      <c r="K154" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="20" t="s">
@@ -7520,7 +7535,10 @@
         <v>44880.0</v>
       </c>
       <c r="J155" s="6"/>
-      <c r="K155" s="21"/>
+      <c r="K155" s="10">
+        <f t="shared" si="5"/>
+        <v>44880</v>
+      </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="20" t="s">
@@ -7550,10 +7568,13 @@
       <c r="I156" s="20">
         <v>95755.0</v>
       </c>
-      <c r="J156" s="22">
+      <c r="J156" s="21">
         <v>95755.0</v>
       </c>
-      <c r="K156" s="21"/>
+      <c r="K156" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="20" t="s">
@@ -7586,7 +7607,10 @@
       <c r="J157" s="20">
         <v>91245.0</v>
       </c>
-      <c r="K157" s="21"/>
+      <c r="K157" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="20" t="s">
@@ -7614,1223 +7638,1226 @@
         <v>0.0</v>
       </c>
       <c r="J158" s="6"/>
-      <c r="K158" s="21"/>
+      <c r="K158" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
       <c r="J159" s="6"/>
-      <c r="K159" s="21"/>
+      <c r="K159" s="23"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
       <c r="J160" s="6"/>
-      <c r="K160" s="21"/>
+      <c r="K160" s="23"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
       <c r="J161" s="6"/>
-      <c r="K161" s="21"/>
+      <c r="K161" s="23"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
       <c r="J162" s="6"/>
-      <c r="K162" s="21"/>
+      <c r="K162" s="23"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
       <c r="J163" s="6"/>
-      <c r="K163" s="21"/>
+      <c r="K163" s="23"/>
       <c r="U163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="E164" s="23"/>
-      <c r="F164" s="23"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
       <c r="J164" s="6"/>
-      <c r="K164" s="21"/>
+      <c r="K164" s="23"/>
       <c r="U164" s="13"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="E165" s="23"/>
-      <c r="F165" s="23"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
       <c r="J165" s="6"/>
-      <c r="K165" s="21"/>
+      <c r="K165" s="23"/>
       <c r="U165" s="13"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="E166" s="23"/>
-      <c r="F166" s="23"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
       <c r="J166" s="6"/>
-      <c r="K166" s="21"/>
+      <c r="K166" s="23"/>
       <c r="U166" s="13"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="E167" s="23"/>
-      <c r="F167" s="23"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
       <c r="J167" s="6"/>
-      <c r="K167" s="21"/>
+      <c r="K167" s="23"/>
       <c r="U167" s="13"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="E168" s="23"/>
-      <c r="F168" s="23"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
       <c r="J168" s="6"/>
-      <c r="K168" s="21"/>
+      <c r="K168" s="23"/>
       <c r="U168" s="13"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="E169" s="23"/>
-      <c r="F169" s="23"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
       <c r="J169" s="6"/>
-      <c r="K169" s="21"/>
+      <c r="K169" s="23"/>
       <c r="U169" s="13"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
       <c r="J170" s="6"/>
-      <c r="K170" s="21"/>
+      <c r="K170" s="23"/>
       <c r="U170" s="13"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="E171" s="23"/>
-      <c r="F171" s="23"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
       <c r="J171" s="6"/>
-      <c r="K171" s="21"/>
+      <c r="K171" s="23"/>
       <c r="U171" s="13"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="E172" s="23"/>
-      <c r="F172" s="23"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
       <c r="J172" s="6"/>
-      <c r="K172" s="21"/>
+      <c r="K172" s="23"/>
       <c r="U172" s="13"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="E173" s="23"/>
-      <c r="F173" s="23"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
       <c r="J173" s="6"/>
-      <c r="K173" s="21"/>
+      <c r="K173" s="23"/>
       <c r="U173" s="13"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="E174" s="23"/>
-      <c r="F174" s="23"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
       <c r="J174" s="6"/>
-      <c r="K174" s="21"/>
+      <c r="K174" s="23"/>
       <c r="U174" s="13"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="E175" s="23"/>
-      <c r="F175" s="23"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
       <c r="J175" s="6"/>
-      <c r="K175" s="21"/>
+      <c r="K175" s="23"/>
       <c r="U175" s="13"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="E176" s="23"/>
-      <c r="F176" s="23"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
       <c r="J176" s="6"/>
-      <c r="K176" s="21"/>
+      <c r="K176" s="23"/>
       <c r="U176" s="13"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="E177" s="23"/>
-      <c r="F177" s="23"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
       <c r="J177" s="6"/>
-      <c r="K177" s="21"/>
+      <c r="K177" s="23"/>
       <c r="U177" s="13"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="E178" s="23"/>
-      <c r="F178" s="23"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
       <c r="J178" s="6"/>
-      <c r="K178" s="21"/>
+      <c r="K178" s="23"/>
       <c r="U178" s="13"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="E179" s="23"/>
-      <c r="F179" s="23"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
       <c r="J179" s="6"/>
-      <c r="K179" s="21"/>
+      <c r="K179" s="23"/>
       <c r="U179" s="13"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="E180" s="23"/>
-      <c r="F180" s="23"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
       <c r="J180" s="6"/>
-      <c r="K180" s="21"/>
+      <c r="K180" s="23"/>
       <c r="U180" s="13"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="E181" s="23"/>
-      <c r="F181" s="23"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
       <c r="J181" s="6"/>
-      <c r="K181" s="21"/>
+      <c r="K181" s="23"/>
       <c r="U181" s="13"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="E182" s="23"/>
-      <c r="F182" s="23"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
       <c r="J182" s="6"/>
-      <c r="K182" s="21"/>
+      <c r="K182" s="23"/>
       <c r="U182" s="13"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="E183" s="23"/>
-      <c r="F183" s="23"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
       <c r="J183" s="6"/>
-      <c r="K183" s="21"/>
+      <c r="K183" s="23"/>
       <c r="U183" s="13"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="E184" s="23"/>
-      <c r="F184" s="23"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
       <c r="J184" s="6"/>
-      <c r="K184" s="21"/>
+      <c r="K184" s="23"/>
       <c r="U184" s="13"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="E185" s="23"/>
-      <c r="F185" s="23"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
       <c r="J185" s="6"/>
-      <c r="K185" s="21"/>
+      <c r="K185" s="23"/>
       <c r="U185" s="13"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="E186" s="23"/>
-      <c r="F186" s="23"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
       <c r="J186" s="6"/>
-      <c r="K186" s="21"/>
+      <c r="K186" s="23"/>
       <c r="U186" s="13"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="E187" s="23"/>
-      <c r="F187" s="23"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
       <c r="J187" s="6"/>
-      <c r="K187" s="21"/>
+      <c r="K187" s="23"/>
       <c r="U187" s="13"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="E188" s="23"/>
-      <c r="F188" s="23"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
       <c r="J188" s="6"/>
-      <c r="K188" s="21"/>
+      <c r="K188" s="23"/>
       <c r="U188" s="13"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="E189" s="23"/>
-      <c r="F189" s="23"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
       <c r="J189" s="6"/>
-      <c r="K189" s="21"/>
+      <c r="K189" s="23"/>
       <c r="U189" s="13"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="E190" s="23"/>
-      <c r="F190" s="23"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
       <c r="J190" s="6"/>
-      <c r="K190" s="21"/>
+      <c r="K190" s="23"/>
       <c r="U190" s="13"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="E191" s="23"/>
-      <c r="F191" s="23"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
       <c r="J191" s="6"/>
-      <c r="K191" s="21"/>
+      <c r="K191" s="23"/>
       <c r="U191" s="13"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="E192" s="23"/>
-      <c r="F192" s="23"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
       <c r="J192" s="6"/>
-      <c r="K192" s="21"/>
+      <c r="K192" s="23"/>
       <c r="U192" s="13"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="E193" s="23"/>
-      <c r="F193" s="23"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
       <c r="J193" s="6"/>
-      <c r="K193" s="21"/>
+      <c r="K193" s="23"/>
       <c r="U193" s="13"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="E194" s="23"/>
-      <c r="F194" s="23"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
       <c r="J194" s="6"/>
-      <c r="K194" s="21"/>
+      <c r="K194" s="23"/>
       <c r="U194" s="13"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="E195" s="23"/>
-      <c r="F195" s="23"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
       <c r="J195" s="6"/>
-      <c r="K195" s="21"/>
+      <c r="K195" s="23"/>
       <c r="U195" s="13"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="E196" s="23"/>
-      <c r="F196" s="23"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
       <c r="J196" s="6"/>
-      <c r="K196" s="21"/>
+      <c r="K196" s="23"/>
       <c r="U196" s="13"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="E197" s="23"/>
-      <c r="F197" s="23"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
       <c r="J197" s="6"/>
-      <c r="K197" s="21"/>
+      <c r="K197" s="23"/>
       <c r="U197" s="13"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="E198" s="23"/>
-      <c r="F198" s="23"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
       <c r="J198" s="6"/>
-      <c r="K198" s="21"/>
+      <c r="K198" s="23"/>
       <c r="U198" s="13"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="E199" s="23"/>
-      <c r="F199" s="23"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
       <c r="J199" s="6"/>
-      <c r="K199" s="21"/>
+      <c r="K199" s="23"/>
       <c r="U199" s="13"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="E200" s="23"/>
-      <c r="F200" s="23"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
       <c r="J200" s="6"/>
-      <c r="K200" s="21"/>
+      <c r="K200" s="23"/>
       <c r="U200" s="13"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="E201" s="23"/>
-      <c r="F201" s="23"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
       <c r="J201" s="6"/>
-      <c r="K201" s="21"/>
+      <c r="K201" s="23"/>
       <c r="U201" s="13"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="E202" s="23"/>
-      <c r="F202" s="23"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
       <c r="J202" s="6"/>
-      <c r="K202" s="21"/>
+      <c r="K202" s="23"/>
       <c r="U202" s="13"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
       <c r="J203" s="6"/>
-      <c r="K203" s="21"/>
+      <c r="K203" s="23"/>
       <c r="U203" s="13"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="E204" s="23"/>
-      <c r="F204" s="23"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
       <c r="J204" s="6"/>
-      <c r="K204" s="21"/>
+      <c r="K204" s="23"/>
       <c r="U204" s="13"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="E205" s="23"/>
-      <c r="F205" s="23"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
       <c r="J205" s="6"/>
-      <c r="K205" s="21"/>
+      <c r="K205" s="23"/>
       <c r="U205" s="13"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="E206" s="23"/>
-      <c r="F206" s="23"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
       <c r="J206" s="6"/>
-      <c r="K206" s="21"/>
+      <c r="K206" s="23"/>
       <c r="U206" s="13"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="E207" s="23"/>
-      <c r="F207" s="23"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
       <c r="J207" s="6"/>
-      <c r="K207" s="21"/>
+      <c r="K207" s="23"/>
       <c r="U207" s="13"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="E208" s="23"/>
-      <c r="F208" s="23"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
       <c r="J208" s="6"/>
-      <c r="K208" s="21"/>
+      <c r="K208" s="23"/>
       <c r="U208" s="13"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="E209" s="23"/>
-      <c r="F209" s="23"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
       <c r="J209" s="6"/>
-      <c r="K209" s="21"/>
+      <c r="K209" s="23"/>
       <c r="U209" s="13"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="E210" s="23"/>
-      <c r="F210" s="23"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
       <c r="J210" s="6"/>
-      <c r="K210" s="21"/>
+      <c r="K210" s="23"/>
       <c r="U210" s="13"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="E211" s="23"/>
-      <c r="F211" s="23"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
       <c r="J211" s="6"/>
-      <c r="K211" s="21"/>
+      <c r="K211" s="23"/>
       <c r="U211" s="13"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="E212" s="23"/>
-      <c r="F212" s="23"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
       <c r="J212" s="6"/>
-      <c r="K212" s="21"/>
+      <c r="K212" s="23"/>
       <c r="U212" s="13"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="E213" s="23"/>
-      <c r="F213" s="23"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
       <c r="J213" s="6"/>
-      <c r="K213" s="21"/>
+      <c r="K213" s="23"/>
       <c r="U213" s="13"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="E214" s="23"/>
-      <c r="F214" s="23"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
       <c r="J214" s="6"/>
-      <c r="K214" s="21"/>
+      <c r="K214" s="23"/>
       <c r="U214" s="13"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="E215" s="23"/>
-      <c r="F215" s="23"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
       <c r="J215" s="6"/>
-      <c r="K215" s="21"/>
+      <c r="K215" s="23"/>
       <c r="U215" s="13"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="E216" s="23"/>
-      <c r="F216" s="23"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
       <c r="J216" s="6"/>
-      <c r="K216" s="21"/>
+      <c r="K216" s="23"/>
       <c r="U216" s="13"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="E217" s="23"/>
-      <c r="F217" s="23"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
       <c r="J217" s="6"/>
-      <c r="K217" s="21"/>
+      <c r="K217" s="23"/>
       <c r="U217" s="13"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="E218" s="23"/>
-      <c r="F218" s="23"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
       <c r="J218" s="6"/>
-      <c r="K218" s="21"/>
+      <c r="K218" s="23"/>
       <c r="U218" s="13"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="E219" s="23"/>
-      <c r="F219" s="23"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
       <c r="J219" s="6"/>
-      <c r="K219" s="21"/>
+      <c r="K219" s="23"/>
       <c r="U219" s="13"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="E220" s="23"/>
-      <c r="F220" s="23"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
       <c r="J220" s="6"/>
-      <c r="K220" s="21"/>
+      <c r="K220" s="23"/>
       <c r="U220" s="13"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="E221" s="23"/>
-      <c r="F221" s="23"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
       <c r="J221" s="6"/>
-      <c r="K221" s="21"/>
+      <c r="K221" s="23"/>
       <c r="U221" s="13"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="E222" s="23"/>
-      <c r="F222" s="23"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="22"/>
       <c r="J222" s="6"/>
-      <c r="K222" s="21"/>
+      <c r="K222" s="23"/>
       <c r="U222" s="13"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="E223" s="23"/>
-      <c r="F223" s="23"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
       <c r="J223" s="6"/>
-      <c r="K223" s="21"/>
+      <c r="K223" s="23"/>
       <c r="U223" s="13"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="E224" s="23"/>
-      <c r="F224" s="23"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
       <c r="J224" s="6"/>
-      <c r="K224" s="21"/>
+      <c r="K224" s="23"/>
       <c r="U224" s="13"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="E225" s="23"/>
-      <c r="F225" s="23"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
       <c r="J225" s="6"/>
-      <c r="K225" s="21"/>
+      <c r="K225" s="23"/>
       <c r="U225" s="13"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="E226" s="23"/>
-      <c r="F226" s="23"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
       <c r="J226" s="6"/>
-      <c r="K226" s="21"/>
+      <c r="K226" s="23"/>
       <c r="U226" s="13"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="E227" s="23"/>
-      <c r="F227" s="23"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
       <c r="J227" s="6"/>
-      <c r="K227" s="21"/>
+      <c r="K227" s="23"/>
       <c r="U227" s="13"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="E228" s="23"/>
-      <c r="F228" s="23"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
       <c r="J228" s="6"/>
-      <c r="K228" s="21"/>
+      <c r="K228" s="23"/>
       <c r="U228" s="13"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="E229" s="23"/>
-      <c r="F229" s="23"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="22"/>
       <c r="J229" s="6"/>
-      <c r="K229" s="21"/>
+      <c r="K229" s="23"/>
       <c r="U229" s="13"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="E230" s="23"/>
-      <c r="F230" s="23"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
       <c r="J230" s="6"/>
-      <c r="K230" s="21"/>
+      <c r="K230" s="23"/>
       <c r="U230" s="13"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="E231" s="23"/>
-      <c r="F231" s="23"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
       <c r="J231" s="6"/>
-      <c r="K231" s="21"/>
+      <c r="K231" s="23"/>
       <c r="U231" s="13"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="E232" s="23"/>
-      <c r="F232" s="23"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
       <c r="J232" s="6"/>
-      <c r="K232" s="21"/>
+      <c r="K232" s="23"/>
       <c r="U232" s="13"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="E233" s="23"/>
-      <c r="F233" s="23"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="22"/>
       <c r="J233" s="6"/>
-      <c r="K233" s="21"/>
+      <c r="K233" s="23"/>
       <c r="U233" s="13"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="E234" s="23"/>
-      <c r="F234" s="23"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
       <c r="J234" s="6"/>
-      <c r="K234" s="21"/>
+      <c r="K234" s="23"/>
       <c r="U234" s="13"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="E235" s="23"/>
-      <c r="F235" s="23"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
       <c r="J235" s="6"/>
-      <c r="K235" s="21"/>
+      <c r="K235" s="23"/>
       <c r="U235" s="13"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="E236" s="23"/>
-      <c r="F236" s="23"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
       <c r="J236" s="6"/>
-      <c r="K236" s="21"/>
+      <c r="K236" s="23"/>
       <c r="U236" s="13"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="E237" s="23"/>
-      <c r="F237" s="23"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22"/>
       <c r="J237" s="6"/>
-      <c r="K237" s="21"/>
+      <c r="K237" s="23"/>
       <c r="U237" s="13"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="E238" s="23"/>
-      <c r="F238" s="23"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
       <c r="J238" s="6"/>
-      <c r="K238" s="21"/>
+      <c r="K238" s="23"/>
       <c r="U238" s="13"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="E239" s="23"/>
-      <c r="F239" s="23"/>
+      <c r="E239" s="22"/>
+      <c r="F239" s="22"/>
       <c r="J239" s="6"/>
-      <c r="K239" s="21"/>
+      <c r="K239" s="23"/>
       <c r="U239" s="13"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="E240" s="23"/>
-      <c r="F240" s="23"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
       <c r="J240" s="6"/>
-      <c r="K240" s="21"/>
+      <c r="K240" s="23"/>
       <c r="U240" s="13"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="E241" s="23"/>
-      <c r="F241" s="23"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="22"/>
       <c r="J241" s="6"/>
-      <c r="K241" s="21"/>
+      <c r="K241" s="23"/>
       <c r="U241" s="13"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="E242" s="23"/>
-      <c r="F242" s="23"/>
+      <c r="E242" s="22"/>
+      <c r="F242" s="22"/>
       <c r="J242" s="6"/>
-      <c r="K242" s="21"/>
+      <c r="K242" s="23"/>
       <c r="U242" s="13"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="E243" s="23"/>
-      <c r="F243" s="23"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="22"/>
       <c r="J243" s="6"/>
-      <c r="K243" s="21"/>
+      <c r="K243" s="23"/>
       <c r="U243" s="13"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="E244" s="23"/>
-      <c r="F244" s="23"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22"/>
       <c r="J244" s="6"/>
-      <c r="K244" s="21"/>
+      <c r="K244" s="23"/>
       <c r="U244" s="13"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="E245" s="23"/>
-      <c r="F245" s="23"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22"/>
       <c r="J245" s="6"/>
-      <c r="K245" s="21"/>
+      <c r="K245" s="23"/>
       <c r="U245" s="13"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="E246" s="23"/>
-      <c r="F246" s="23"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="22"/>
       <c r="J246" s="6"/>
-      <c r="K246" s="21"/>
+      <c r="K246" s="23"/>
       <c r="U246" s="13"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="E247" s="23"/>
-      <c r="F247" s="23"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="22"/>
       <c r="J247" s="6"/>
-      <c r="K247" s="21"/>
+      <c r="K247" s="23"/>
       <c r="U247" s="13"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="E248" s="23"/>
-      <c r="F248" s="23"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="22"/>
       <c r="J248" s="6"/>
-      <c r="K248" s="21"/>
+      <c r="K248" s="23"/>
       <c r="U248" s="13"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="E249" s="23"/>
-      <c r="F249" s="23"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="22"/>
       <c r="J249" s="6"/>
-      <c r="K249" s="21"/>
+      <c r="K249" s="23"/>
       <c r="U249" s="13"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="E250" s="23"/>
-      <c r="F250" s="23"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="22"/>
       <c r="J250" s="6"/>
-      <c r="K250" s="21"/>
+      <c r="K250" s="23"/>
       <c r="U250" s="13"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="E251" s="23"/>
-      <c r="F251" s="23"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="22"/>
       <c r="J251" s="6"/>
-      <c r="K251" s="21"/>
+      <c r="K251" s="23"/>
       <c r="U251" s="13"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="E252" s="23"/>
-      <c r="F252" s="23"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="22"/>
       <c r="J252" s="6"/>
-      <c r="K252" s="21"/>
+      <c r="K252" s="23"/>
       <c r="U252" s="13"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="E253" s="23"/>
-      <c r="F253" s="23"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="22"/>
       <c r="J253" s="6"/>
-      <c r="K253" s="21"/>
+      <c r="K253" s="23"/>
       <c r="U253" s="13"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="E254" s="23"/>
-      <c r="F254" s="23"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="22"/>
       <c r="J254" s="6"/>
-      <c r="K254" s="21"/>
+      <c r="K254" s="23"/>
       <c r="U254" s="13"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="E255" s="23"/>
-      <c r="F255" s="23"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="22"/>
       <c r="J255" s="6"/>
-      <c r="K255" s="21"/>
+      <c r="K255" s="23"/>
       <c r="U255" s="13"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="E256" s="23"/>
-      <c r="F256" s="23"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
       <c r="J256" s="6"/>
-      <c r="K256" s="21"/>
+      <c r="K256" s="23"/>
       <c r="U256" s="13"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="E257" s="23"/>
-      <c r="F257" s="23"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="22"/>
       <c r="J257" s="6"/>
-      <c r="K257" s="21"/>
+      <c r="K257" s="23"/>
       <c r="U257" s="13"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="E258" s="23"/>
-      <c r="F258" s="23"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22"/>
       <c r="J258" s="6"/>
-      <c r="K258" s="21"/>
+      <c r="K258" s="23"/>
       <c r="U258" s="13"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="E259" s="23"/>
-      <c r="F259" s="23"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22"/>
       <c r="J259" s="6"/>
-      <c r="K259" s="21"/>
+      <c r="K259" s="23"/>
       <c r="U259" s="13"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="E260" s="23"/>
-      <c r="F260" s="23"/>
+      <c r="E260" s="22"/>
+      <c r="F260" s="22"/>
       <c r="J260" s="6"/>
-      <c r="K260" s="21"/>
+      <c r="K260" s="23"/>
       <c r="U260" s="13"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="E261" s="23"/>
-      <c r="F261" s="23"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
       <c r="J261" s="6"/>
-      <c r="K261" s="21"/>
+      <c r="K261" s="23"/>
       <c r="U261" s="13"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="E262" s="23"/>
-      <c r="F262" s="23"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="22"/>
       <c r="J262" s="6"/>
-      <c r="K262" s="21"/>
+      <c r="K262" s="23"/>
       <c r="U262" s="13"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="E263" s="23"/>
-      <c r="F263" s="23"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
       <c r="J263" s="6"/>
-      <c r="K263" s="21"/>
+      <c r="K263" s="23"/>
       <c r="U263" s="13"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="E264" s="23"/>
-      <c r="F264" s="23"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="22"/>
       <c r="J264" s="6"/>
-      <c r="K264" s="21"/>
+      <c r="K264" s="23"/>
       <c r="U264" s="13"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="E265" s="23"/>
-      <c r="F265" s="23"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="22"/>
       <c r="J265" s="6"/>
-      <c r="K265" s="21"/>
+      <c r="K265" s="23"/>
       <c r="U265" s="13"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="E266" s="23"/>
-      <c r="F266" s="23"/>
+      <c r="E266" s="22"/>
+      <c r="F266" s="22"/>
       <c r="J266" s="6"/>
-      <c r="K266" s="21"/>
+      <c r="K266" s="23"/>
       <c r="U266" s="13"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="E267" s="23"/>
-      <c r="F267" s="23"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="22"/>
       <c r="J267" s="6"/>
-      <c r="K267" s="21"/>
+      <c r="K267" s="23"/>
       <c r="U267" s="13"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="E268" s="23"/>
-      <c r="F268" s="23"/>
+      <c r="E268" s="22"/>
+      <c r="F268" s="22"/>
       <c r="J268" s="6"/>
-      <c r="K268" s="21"/>
+      <c r="K268" s="23"/>
       <c r="U268" s="13"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="E269" s="23"/>
-      <c r="F269" s="23"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
       <c r="J269" s="6"/>
-      <c r="K269" s="21"/>
+      <c r="K269" s="23"/>
       <c r="U269" s="13"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="E270" s="23"/>
-      <c r="F270" s="23"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
       <c r="J270" s="6"/>
-      <c r="K270" s="21"/>
+      <c r="K270" s="23"/>
       <c r="U270" s="13"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="E271" s="23"/>
-      <c r="F271" s="23"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="22"/>
       <c r="J271" s="6"/>
-      <c r="K271" s="21"/>
+      <c r="K271" s="23"/>
       <c r="U271" s="13"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="E272" s="23"/>
-      <c r="F272" s="23"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
       <c r="J272" s="6"/>
-      <c r="K272" s="21"/>
+      <c r="K272" s="23"/>
       <c r="U272" s="13"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="E273" s="23"/>
-      <c r="F273" s="23"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
       <c r="J273" s="6"/>
-      <c r="K273" s="21"/>
+      <c r="K273" s="23"/>
       <c r="U273" s="13"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="E274" s="23"/>
-      <c r="F274" s="23"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="22"/>
       <c r="J274" s="6"/>
-      <c r="K274" s="21"/>
+      <c r="K274" s="23"/>
       <c r="U274" s="13"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="E275" s="23"/>
-      <c r="F275" s="23"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="22"/>
       <c r="J275" s="6"/>
-      <c r="K275" s="21"/>
+      <c r="K275" s="23"/>
       <c r="U275" s="13"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="E276" s="23"/>
-      <c r="F276" s="23"/>
+      <c r="E276" s="22"/>
+      <c r="F276" s="22"/>
       <c r="J276" s="6"/>
-      <c r="K276" s="21"/>
+      <c r="K276" s="23"/>
       <c r="U276" s="13"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="E277" s="23"/>
-      <c r="F277" s="23"/>
+      <c r="E277" s="22"/>
+      <c r="F277" s="22"/>
       <c r="J277" s="6"/>
-      <c r="K277" s="21"/>
+      <c r="K277" s="23"/>
       <c r="U277" s="13"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="E278" s="23"/>
-      <c r="F278" s="23"/>
+      <c r="E278" s="22"/>
+      <c r="F278" s="22"/>
       <c r="J278" s="6"/>
-      <c r="K278" s="21"/>
+      <c r="K278" s="23"/>
       <c r="U278" s="13"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="E279" s="23"/>
-      <c r="F279" s="23"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="22"/>
       <c r="J279" s="6"/>
-      <c r="K279" s="21"/>
+      <c r="K279" s="23"/>
       <c r="U279" s="13"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="E280" s="23"/>
-      <c r="F280" s="23"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="22"/>
       <c r="J280" s="6"/>
-      <c r="K280" s="21"/>
+      <c r="K280" s="23"/>
       <c r="U280" s="13"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="E281" s="23"/>
-      <c r="F281" s="23"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="22"/>
       <c r="J281" s="6"/>
-      <c r="K281" s="21"/>
+      <c r="K281" s="23"/>
       <c r="U281" s="13"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="E282" s="23"/>
-      <c r="F282" s="23"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="22"/>
       <c r="J282" s="6"/>
-      <c r="K282" s="21"/>
+      <c r="K282" s="23"/>
       <c r="U282" s="13"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="E283" s="23"/>
-      <c r="F283" s="23"/>
+      <c r="E283" s="22"/>
+      <c r="F283" s="22"/>
       <c r="J283" s="6"/>
-      <c r="K283" s="21"/>
+      <c r="K283" s="23"/>
       <c r="U283" s="13"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="E284" s="23"/>
-      <c r="F284" s="23"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="22"/>
       <c r="J284" s="6"/>
-      <c r="K284" s="21"/>
+      <c r="K284" s="23"/>
       <c r="U284" s="13"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="E285" s="23"/>
-      <c r="F285" s="23"/>
+      <c r="E285" s="22"/>
+      <c r="F285" s="22"/>
       <c r="J285" s="6"/>
-      <c r="K285" s="21"/>
+      <c r="K285" s="23"/>
       <c r="U285" s="13"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="E286" s="23"/>
-      <c r="F286" s="23"/>
+      <c r="E286" s="22"/>
+      <c r="F286" s="22"/>
       <c r="J286" s="6"/>
-      <c r="K286" s="21"/>
+      <c r="K286" s="23"/>
       <c r="U286" s="13"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="E287" s="23"/>
-      <c r="F287" s="23"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="22"/>
       <c r="J287" s="6"/>
-      <c r="K287" s="21"/>
+      <c r="K287" s="23"/>
       <c r="U287" s="13"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="E288" s="23"/>
-      <c r="F288" s="23"/>
+      <c r="E288" s="22"/>
+      <c r="F288" s="22"/>
       <c r="J288" s="6"/>
-      <c r="K288" s="21"/>
+      <c r="K288" s="23"/>
       <c r="U288" s="13"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="E289" s="23"/>
-      <c r="F289" s="23"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="22"/>
       <c r="J289" s="6"/>
-      <c r="K289" s="21"/>
+      <c r="K289" s="23"/>
       <c r="U289" s="13"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="E290" s="23"/>
-      <c r="F290" s="23"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22"/>
       <c r="J290" s="6"/>
-      <c r="K290" s="21"/>
+      <c r="K290" s="23"/>
       <c r="U290" s="13"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="E291" s="23"/>
-      <c r="F291" s="23"/>
+      <c r="E291" s="22"/>
+      <c r="F291" s="22"/>
       <c r="J291" s="6"/>
-      <c r="K291" s="21"/>
+      <c r="K291" s="23"/>
       <c r="U291" s="13"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="E292" s="23"/>
-      <c r="F292" s="23"/>
+      <c r="E292" s="22"/>
+      <c r="F292" s="22"/>
       <c r="J292" s="6"/>
-      <c r="K292" s="21"/>
+      <c r="K292" s="23"/>
       <c r="U292" s="13"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="E293" s="23"/>
-      <c r="F293" s="23"/>
+      <c r="E293" s="22"/>
+      <c r="F293" s="22"/>
       <c r="J293" s="6"/>
-      <c r="K293" s="21"/>
+      <c r="K293" s="23"/>
       <c r="U293" s="13"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="E294" s="23"/>
-      <c r="F294" s="23"/>
+      <c r="E294" s="22"/>
+      <c r="F294" s="22"/>
       <c r="J294" s="6"/>
-      <c r="K294" s="21"/>
+      <c r="K294" s="23"/>
       <c r="U294" s="13"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="E295" s="23"/>
-      <c r="F295" s="23"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="22"/>
       <c r="J295" s="6"/>
-      <c r="K295" s="21"/>
+      <c r="K295" s="23"/>
       <c r="U295" s="13"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="E296" s="23"/>
-      <c r="F296" s="23"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="22"/>
       <c r="J296" s="6"/>
-      <c r="K296" s="21"/>
+      <c r="K296" s="23"/>
       <c r="U296" s="13"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="E297" s="23"/>
-      <c r="F297" s="23"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="22"/>
       <c r="J297" s="6"/>
-      <c r="K297" s="21"/>
+      <c r="K297" s="23"/>
       <c r="U297" s="13"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="E298" s="23"/>
-      <c r="F298" s="23"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
       <c r="J298" s="6"/>
-      <c r="K298" s="21"/>
+      <c r="K298" s="23"/>
       <c r="U298" s="13"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="E299" s="23"/>
-      <c r="F299" s="23"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="22"/>
       <c r="J299" s="6"/>
-      <c r="K299" s="21"/>
+      <c r="K299" s="23"/>
       <c r="U299" s="13"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="E300" s="23"/>
-      <c r="F300" s="23"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
       <c r="J300" s="6"/>
-      <c r="K300" s="21"/>
+      <c r="K300" s="23"/>
       <c r="U300" s="13"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="E301" s="23"/>
-      <c r="F301" s="23"/>
+      <c r="E301" s="22"/>
+      <c r="F301" s="22"/>
       <c r="J301" s="6"/>
-      <c r="K301" s="21"/>
+      <c r="K301" s="23"/>
       <c r="U301" s="13"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="E302" s="23"/>
-      <c r="F302" s="23"/>
+      <c r="E302" s="22"/>
+      <c r="F302" s="22"/>
       <c r="J302" s="6"/>
-      <c r="K302" s="21"/>
+      <c r="K302" s="23"/>
       <c r="U302" s="13"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="E303" s="23"/>
-      <c r="F303" s="23"/>
+      <c r="E303" s="22"/>
+      <c r="F303" s="22"/>
       <c r="J303" s="6"/>
-      <c r="K303" s="21"/>
+      <c r="K303" s="23"/>
       <c r="U303" s="13"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="E304" s="23"/>
-      <c r="F304" s="23"/>
+      <c r="E304" s="22"/>
+      <c r="F304" s="22"/>
       <c r="J304" s="6"/>
-      <c r="K304" s="21"/>
+      <c r="K304" s="23"/>
       <c r="U304" s="13"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="E305" s="23"/>
-      <c r="F305" s="23"/>
+      <c r="E305" s="22"/>
+      <c r="F305" s="22"/>
       <c r="J305" s="6"/>
-      <c r="K305" s="21"/>
+      <c r="K305" s="23"/>
       <c r="U305" s="13"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="E306" s="23"/>
-      <c r="F306" s="23"/>
+      <c r="E306" s="22"/>
+      <c r="F306" s="22"/>
       <c r="J306" s="6"/>
-      <c r="K306" s="21"/>
+      <c r="K306" s="23"/>
       <c r="U306" s="13"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="E307" s="23"/>
-      <c r="F307" s="23"/>
+      <c r="E307" s="22"/>
+      <c r="F307" s="22"/>
       <c r="J307" s="6"/>
-      <c r="K307" s="21"/>
+      <c r="K307" s="23"/>
       <c r="U307" s="13"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="E308" s="23"/>
-      <c r="F308" s="23"/>
-      <c r="K308" s="21"/>
+      <c r="E308" s="22"/>
+      <c r="F308" s="22"/>
+      <c r="K308" s="23"/>
       <c r="U308" s="13"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="E309" s="23"/>
-      <c r="F309" s="23"/>
-      <c r="K309" s="21"/>
+      <c r="E309" s="22"/>
+      <c r="F309" s="22"/>
+      <c r="K309" s="23"/>
       <c r="U309" s="13"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="E310" s="23"/>
-      <c r="F310" s="23"/>
-      <c r="K310" s="21"/>
+      <c r="E310" s="22"/>
+      <c r="F310" s="22"/>
+      <c r="K310" s="23"/>
       <c r="U310" s="13"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="E311" s="23"/>
-      <c r="F311" s="23"/>
+      <c r="E311" s="22"/>
+      <c r="F311" s="22"/>
       <c r="U311" s="13"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="E312" s="23"/>
-      <c r="F312" s="23"/>
+      <c r="E312" s="22"/>
+      <c r="F312" s="22"/>
       <c r="U312" s="13"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="E313" s="23"/>
-      <c r="F313" s="23"/>
+      <c r="E313" s="22"/>
+      <c r="F313" s="22"/>
       <c r="U313" s="13"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="E314" s="23"/>
-      <c r="F314" s="23"/>
+      <c r="E314" s="22"/>
+      <c r="F314" s="22"/>
       <c r="U314" s="13"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="E315" s="23"/>
-      <c r="F315" s="23"/>
+      <c r="E315" s="22"/>
+      <c r="F315" s="22"/>
       <c r="U315" s="13"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="E316" s="23"/>
-      <c r="F316" s="23"/>
+      <c r="E316" s="22"/>
+      <c r="F316" s="22"/>
       <c r="U316" s="13"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="E317" s="23"/>
-      <c r="F317" s="23"/>
+      <c r="E317" s="22"/>
+      <c r="F317" s="22"/>
       <c r="U317" s="13"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="E318" s="23"/>
-      <c r="F318" s="23"/>
+      <c r="E318" s="22"/>
+      <c r="F318" s="22"/>
       <c r="U318" s="13"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="E319" s="23"/>
-      <c r="F319" s="23"/>
+      <c r="E319" s="22"/>
+      <c r="F319" s="22"/>
       <c r="U319" s="13"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="E320" s="23"/>
-      <c r="F320" s="23"/>
+      <c r="E320" s="22"/>
+      <c r="F320" s="22"/>
       <c r="U320" s="13"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="E321" s="23"/>
-      <c r="F321" s="23"/>
+      <c r="E321" s="22"/>
+      <c r="F321" s="22"/>
       <c r="U321" s="13"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="E322" s="23"/>
-      <c r="F322" s="23"/>
+      <c r="E322" s="22"/>
+      <c r="F322" s="22"/>
       <c r="U322" s="13"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="E323" s="23"/>
-      <c r="F323" s="23"/>
+      <c r="E323" s="22"/>
+      <c r="F323" s="22"/>
       <c r="U323" s="13"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="E324" s="23"/>
-      <c r="F324" s="23"/>
+      <c r="E324" s="22"/>
+      <c r="F324" s="22"/>
       <c r="U324" s="13"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="E325" s="23"/>
-      <c r="F325" s="23"/>
+      <c r="E325" s="22"/>
+      <c r="F325" s="22"/>
       <c r="U325" s="13"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="E326" s="23"/>
-      <c r="F326" s="23"/>
+      <c r="E326" s="22"/>
+      <c r="F326" s="22"/>
       <c r="U326" s="13"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="E327" s="23"/>
-      <c r="F327" s="23"/>
+      <c r="E327" s="22"/>
+      <c r="F327" s="22"/>
       <c r="U327" s="13"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="E328" s="23"/>
-      <c r="F328" s="23"/>
+      <c r="E328" s="22"/>
+      <c r="F328" s="22"/>
       <c r="U328" s="13"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="E329" s="23"/>
-      <c r="F329" s="23"/>
+      <c r="E329" s="22"/>
+      <c r="F329" s="22"/>
       <c r="U329" s="13"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="E330" s="23"/>
-      <c r="F330" s="23"/>
+      <c r="E330" s="22"/>
+      <c r="F330" s="22"/>
       <c r="U330" s="13"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="E331" s="23"/>
-      <c r="F331" s="23"/>
+      <c r="E331" s="22"/>
+      <c r="F331" s="22"/>
       <c r="U331" s="13"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="E332" s="23"/>
-      <c r="F332" s="23"/>
+      <c r="E332" s="22"/>
+      <c r="F332" s="22"/>
       <c r="U332" s="13"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="E333" s="23"/>
-      <c r="F333" s="23"/>
+      <c r="E333" s="22"/>
+      <c r="F333" s="22"/>
       <c r="U333" s="13"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="E334" s="23"/>
-      <c r="F334" s="23"/>
+      <c r="E334" s="22"/>
+      <c r="F334" s="22"/>
       <c r="U334" s="13"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="E335" s="23"/>
-      <c r="F335" s="23"/>
+      <c r="E335" s="22"/>
+      <c r="F335" s="22"/>
       <c r="U335" s="13"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="E336" s="23"/>
-      <c r="F336" s="23"/>
+      <c r="E336" s="22"/>
+      <c r="F336" s="22"/>
       <c r="U336" s="13"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="E337" s="23"/>
-      <c r="F337" s="23"/>
+      <c r="E337" s="22"/>
+      <c r="F337" s="22"/>
       <c r="U337" s="13"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="E338" s="23"/>
-      <c r="F338" s="23"/>
+      <c r="E338" s="22"/>
+      <c r="F338" s="22"/>
       <c r="U338" s="13"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="E339" s="23"/>
-      <c r="F339" s="23"/>
+      <c r="E339" s="22"/>
+      <c r="F339" s="22"/>
       <c r="U339" s="13"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="E340" s="23"/>
-      <c r="F340" s="23"/>
+      <c r="E340" s="22"/>
+      <c r="F340" s="22"/>
       <c r="U340" s="13"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="E341" s="23"/>
-      <c r="F341" s="23"/>
+      <c r="E341" s="22"/>
+      <c r="F341" s="22"/>
       <c r="U341" s="13"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="E342" s="23"/>
-      <c r="F342" s="23"/>
+      <c r="E342" s="22"/>
+      <c r="F342" s="22"/>
       <c r="U342" s="13"/>
     </row>
     <row r="343" ht="15.75" customHeight="1"/>
@@ -13155,568 +13182,568 @@
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="22"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="22"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="22"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="22"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="22"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="22"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="22"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="22"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="22"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="22"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="22"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="22"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="22"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="22"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="22"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="22"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="22"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="22"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="22"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="22"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="22"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="22"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="22"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="22"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="22"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="22"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="22"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="22"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="22"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="22"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="23"/>
+      <c r="A221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="23"/>
+      <c r="A222" s="22"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="23"/>
+      <c r="A223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="23"/>
+      <c r="A224" s="22"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="23"/>
+      <c r="A225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="23"/>
+      <c r="A226" s="22"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="23"/>
+      <c r="A227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="23"/>
+      <c r="A228" s="22"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="23"/>
+      <c r="A229" s="22"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="23"/>
+      <c r="A230" s="22"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="23"/>
+      <c r="A231" s="22"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="23"/>
+      <c r="A232" s="22"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="23"/>
+      <c r="A233" s="22"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="23"/>
+      <c r="A234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="23"/>
+      <c r="A235" s="22"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="23"/>
+      <c r="A236" s="22"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="23"/>
+      <c r="A237" s="22"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="23"/>
+      <c r="A238" s="22"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="23"/>
+      <c r="A239" s="22"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="23"/>
+      <c r="A240" s="22"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="23"/>
+      <c r="A241" s="22"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="23"/>
+      <c r="A242" s="22"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="23"/>
+      <c r="A243" s="22"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="23"/>
+      <c r="A244" s="22"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="23"/>
+      <c r="A245" s="22"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="23"/>
+      <c r="A246" s="22"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="23"/>
+      <c r="A247" s="22"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="23"/>
+      <c r="A248" s="22"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="23"/>
+      <c r="A249" s="22"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="23"/>
+      <c r="A250" s="22"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="23"/>
+      <c r="A251" s="22"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="23"/>
+      <c r="A252" s="22"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="23"/>
+      <c r="A253" s="22"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="23"/>
+      <c r="A254" s="22"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="23"/>
+      <c r="A255" s="22"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="23"/>
+      <c r="A256" s="22"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="23"/>
+      <c r="A257" s="22"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="23"/>
+      <c r="A258" s="22"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="23"/>
+      <c r="A259" s="22"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="23"/>
+      <c r="A260" s="22"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="23"/>
+      <c r="A261" s="22"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="23"/>
+      <c r="A262" s="22"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="23"/>
+      <c r="A263" s="22"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="23"/>
+      <c r="A264" s="22"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="23"/>
+      <c r="A265" s="22"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="23"/>
+      <c r="A266" s="22"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="23"/>
+      <c r="A267" s="22"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="23"/>
+      <c r="A268" s="22"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="23"/>
+      <c r="A269" s="22"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="23"/>
+      <c r="A270" s="22"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="23"/>
+      <c r="A271" s="22"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="23"/>
+      <c r="A272" s="22"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="23"/>
+      <c r="A273" s="22"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="23"/>
+      <c r="A274" s="22"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="23"/>
+      <c r="A275" s="22"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="23"/>
+      <c r="A276" s="22"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="23"/>
+      <c r="A277" s="22"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="23"/>
+      <c r="A278" s="22"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="23"/>
+      <c r="A279" s="22"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="23"/>
+      <c r="A280" s="22"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="23"/>
+      <c r="A281" s="22"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="23"/>
+      <c r="A282" s="22"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="23"/>
+      <c r="A283" s="22"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="23"/>
+      <c r="A284" s="22"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="23"/>
+      <c r="A285" s="22"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="23"/>
+      <c r="A286" s="22"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="23"/>
+      <c r="A287" s="22"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="23"/>
+      <c r="A288" s="22"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="23"/>
+      <c r="A289" s="22"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="23"/>
+      <c r="A290" s="22"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="23"/>
+      <c r="A291" s="22"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="23"/>
+      <c r="A292" s="22"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="23"/>
+      <c r="A293" s="22"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="23"/>
+      <c r="A294" s="22"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="23"/>
+      <c r="A295" s="22"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="23"/>
+      <c r="A296" s="22"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="23"/>
+      <c r="A297" s="22"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="23"/>
+      <c r="A298" s="22"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="23"/>
+      <c r="A299" s="22"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="23"/>
+      <c r="A300" s="22"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="23"/>
+      <c r="A301" s="22"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="23"/>
+      <c r="A302" s="22"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="23"/>
+      <c r="A303" s="22"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="23"/>
+      <c r="A304" s="22"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="23"/>
+      <c r="A305" s="22"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="23"/>
+      <c r="A306" s="22"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="23"/>
+      <c r="A307" s="22"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="23"/>
+      <c r="A308" s="22"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="23"/>
+      <c r="A309" s="22"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="23"/>
+      <c r="A310" s="22"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="23"/>
+      <c r="A311" s="22"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="23"/>
+      <c r="A312" s="22"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="23"/>
+      <c r="A313" s="22"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="23"/>
+      <c r="A314" s="22"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="23"/>
+      <c r="A315" s="22"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="23"/>
+      <c r="A316" s="22"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="23"/>
+      <c r="A317" s="22"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="23"/>
+      <c r="A318" s="22"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="23"/>
+      <c r="A319" s="22"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="23"/>
+      <c r="A320" s="22"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="23"/>
+      <c r="A321" s="22"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="23"/>
+      <c r="A322" s="22"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="23"/>
+      <c r="A323" s="22"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="23"/>
+      <c r="A324" s="22"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="23"/>
+      <c r="A325" s="22"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="23"/>
+      <c r="A326" s="22"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="23"/>
+      <c r="A327" s="22"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="23"/>
+      <c r="A328" s="22"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="23"/>
+      <c r="A329" s="22"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="23"/>
+      <c r="A330" s="22"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="23"/>
+      <c r="A331" s="22"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="23"/>
+      <c r="A332" s="22"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="23"/>
+      <c r="A333" s="22"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="23"/>
+      <c r="A334" s="22"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="23"/>
+      <c r="A335" s="22"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="23"/>
+      <c r="A336" s="22"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="23"/>
+      <c r="A337" s="22"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="23"/>
+      <c r="A338" s="22"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="23"/>
+      <c r="A339" s="22"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="23"/>
+      <c r="A340" s="22"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="23"/>
+      <c r="A341" s="22"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="23"/>
+      <c r="A342" s="22"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="23"/>
+      <c r="A343" s="22"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="23"/>
+      <c r="A344" s="22"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="23"/>
+      <c r="A345" s="22"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="23"/>
+      <c r="A346" s="22"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="23"/>
+      <c r="A347" s="22"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="23"/>
+      <c r="A348" s="22"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="23"/>
+      <c r="A349" s="22"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="23"/>
+      <c r="A350" s="22"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="23"/>
+      <c r="A351" s="22"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="23"/>
+      <c r="A352" s="22"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="23"/>
+      <c r="A353" s="22"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="23"/>
+      <c r="A354" s="22"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="23"/>
+      <c r="A355" s="22"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="23"/>
+      <c r="A356" s="22"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="23"/>
+      <c r="A357" s="22"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="23"/>
+      <c r="A358" s="22"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="23"/>
+      <c r="A359" s="22"/>
     </row>
     <row r="360" ht="15.75" customHeight="1"/>
     <row r="361" ht="15.75" customHeight="1"/>
@@ -15681,848 +15708,848 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="23"/>
-      <c r="F28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="23"/>
-      <c r="F33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="23"/>
-      <c r="F34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="23"/>
-      <c r="F40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="23"/>
-      <c r="F43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="23"/>
-      <c r="F44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="23"/>
-      <c r="F47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="23"/>
-      <c r="F56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="23"/>
-      <c r="F57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="23"/>
-      <c r="F58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="23"/>
-      <c r="F59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="23"/>
-      <c r="F61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="23"/>
-      <c r="F62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="23"/>
-      <c r="F64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="23"/>
-      <c r="F66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="23"/>
-      <c r="F68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="23"/>
-      <c r="F69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="23"/>
-      <c r="F71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="23"/>
-      <c r="F73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="23"/>
-      <c r="F74" s="23"/>
+      <c r="C74" s="22"/>
+      <c r="F74" s="22"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="23"/>
-      <c r="F75" s="23"/>
+      <c r="C75" s="22"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="23"/>
-      <c r="F76" s="23"/>
+      <c r="C76" s="22"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="23"/>
-      <c r="F77" s="23"/>
+      <c r="C77" s="22"/>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="23"/>
-      <c r="F78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="F78" s="22"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="23"/>
-      <c r="F79" s="23"/>
+      <c r="C79" s="22"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="23"/>
-      <c r="F80" s="23"/>
+      <c r="C80" s="22"/>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="23"/>
-      <c r="F81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="23"/>
-      <c r="F82" s="23"/>
+      <c r="C82" s="22"/>
+      <c r="F82" s="22"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="23"/>
-      <c r="F83" s="23"/>
+      <c r="C83" s="22"/>
+      <c r="F83" s="22"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="23"/>
-      <c r="F84" s="23"/>
+      <c r="C84" s="22"/>
+      <c r="F84" s="22"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="23"/>
-      <c r="F85" s="23"/>
+      <c r="C85" s="22"/>
+      <c r="F85" s="22"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="23"/>
-      <c r="F86" s="23"/>
+      <c r="C86" s="22"/>
+      <c r="F86" s="22"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="23"/>
-      <c r="F87" s="23"/>
+      <c r="C87" s="22"/>
+      <c r="F87" s="22"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="23"/>
-      <c r="F88" s="23"/>
+      <c r="C88" s="22"/>
+      <c r="F88" s="22"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="23"/>
-      <c r="F89" s="23"/>
+      <c r="C89" s="22"/>
+      <c r="F89" s="22"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="23"/>
-      <c r="F90" s="23"/>
+      <c r="C90" s="22"/>
+      <c r="F90" s="22"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="23"/>
-      <c r="F91" s="23"/>
+      <c r="C91" s="22"/>
+      <c r="F91" s="22"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="23"/>
-      <c r="F92" s="23"/>
+      <c r="C92" s="22"/>
+      <c r="F92" s="22"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="23"/>
-      <c r="F93" s="23"/>
+      <c r="C93" s="22"/>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="23"/>
-      <c r="F94" s="23"/>
+      <c r="C94" s="22"/>
+      <c r="F94" s="22"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="23"/>
-      <c r="F95" s="23"/>
+      <c r="C95" s="22"/>
+      <c r="F95" s="22"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="23"/>
-      <c r="F96" s="23"/>
+      <c r="C96" s="22"/>
+      <c r="F96" s="22"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="23"/>
-      <c r="F97" s="23"/>
+      <c r="C97" s="22"/>
+      <c r="F97" s="22"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="23"/>
-      <c r="F98" s="23"/>
+      <c r="C98" s="22"/>
+      <c r="F98" s="22"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="23"/>
-      <c r="F99" s="23"/>
+      <c r="C99" s="22"/>
+      <c r="F99" s="22"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="23"/>
-      <c r="F100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="F100" s="22"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="23"/>
-      <c r="F101" s="23"/>
+      <c r="C101" s="22"/>
+      <c r="F101" s="22"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="23"/>
-      <c r="F102" s="23"/>
+      <c r="C102" s="22"/>
+      <c r="F102" s="22"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="23"/>
-      <c r="F103" s="23"/>
+      <c r="C103" s="22"/>
+      <c r="F103" s="22"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="23"/>
-      <c r="F104" s="23"/>
+      <c r="C104" s="22"/>
+      <c r="F104" s="22"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="23"/>
-      <c r="F105" s="23"/>
+      <c r="C105" s="22"/>
+      <c r="F105" s="22"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="23"/>
-      <c r="F106" s="23"/>
+      <c r="C106" s="22"/>
+      <c r="F106" s="22"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="23"/>
-      <c r="F107" s="23"/>
+      <c r="C107" s="22"/>
+      <c r="F107" s="22"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="23"/>
-      <c r="F108" s="23"/>
+      <c r="C108" s="22"/>
+      <c r="F108" s="22"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="23"/>
-      <c r="F109" s="23"/>
+      <c r="C109" s="22"/>
+      <c r="F109" s="22"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="23"/>
-      <c r="F110" s="23"/>
+      <c r="C110" s="22"/>
+      <c r="F110" s="22"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="23"/>
-      <c r="F111" s="23"/>
+      <c r="C111" s="22"/>
+      <c r="F111" s="22"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="23"/>
-      <c r="F112" s="23"/>
+      <c r="C112" s="22"/>
+      <c r="F112" s="22"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="23"/>
-      <c r="F113" s="23"/>
+      <c r="C113" s="22"/>
+      <c r="F113" s="22"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="23"/>
-      <c r="F114" s="23"/>
+      <c r="C114" s="22"/>
+      <c r="F114" s="22"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="23"/>
-      <c r="F115" s="23"/>
+      <c r="C115" s="22"/>
+      <c r="F115" s="22"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="23"/>
-      <c r="F116" s="23"/>
+      <c r="C116" s="22"/>
+      <c r="F116" s="22"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="23"/>
-      <c r="F117" s="23"/>
+      <c r="C117" s="22"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="23"/>
-      <c r="F118" s="23"/>
+      <c r="C118" s="22"/>
+      <c r="F118" s="22"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="23"/>
-      <c r="F119" s="23"/>
+      <c r="C119" s="22"/>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="23"/>
-      <c r="F120" s="23"/>
+      <c r="C120" s="22"/>
+      <c r="F120" s="22"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="23"/>
-      <c r="F121" s="23"/>
+      <c r="C121" s="22"/>
+      <c r="F121" s="22"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="23"/>
-      <c r="F122" s="23"/>
+      <c r="C122" s="22"/>
+      <c r="F122" s="22"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="23"/>
-      <c r="F123" s="23"/>
+      <c r="C123" s="22"/>
+      <c r="F123" s="22"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="23"/>
-      <c r="F124" s="23"/>
+      <c r="C124" s="22"/>
+      <c r="F124" s="22"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="23"/>
-      <c r="F125" s="23"/>
+      <c r="C125" s="22"/>
+      <c r="F125" s="22"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="23"/>
-      <c r="F126" s="23"/>
+      <c r="C126" s="22"/>
+      <c r="F126" s="22"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="23"/>
-      <c r="F127" s="23"/>
+      <c r="C127" s="22"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="23"/>
-      <c r="F128" s="23"/>
+      <c r="C128" s="22"/>
+      <c r="F128" s="22"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="23"/>
-      <c r="F129" s="23"/>
+      <c r="C129" s="22"/>
+      <c r="F129" s="22"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="23"/>
-      <c r="F130" s="23"/>
+      <c r="C130" s="22"/>
+      <c r="F130" s="22"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="23"/>
-      <c r="F131" s="23"/>
+      <c r="C131" s="22"/>
+      <c r="F131" s="22"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="23"/>
-      <c r="F132" s="23"/>
+      <c r="C132" s="22"/>
+      <c r="F132" s="22"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="23"/>
-      <c r="F133" s="23"/>
+      <c r="C133" s="22"/>
+      <c r="F133" s="22"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="23"/>
-      <c r="F134" s="23"/>
+      <c r="C134" s="22"/>
+      <c r="F134" s="22"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="23"/>
-      <c r="F135" s="23"/>
+      <c r="C135" s="22"/>
+      <c r="F135" s="22"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="23"/>
-      <c r="F136" s="23"/>
+      <c r="C136" s="22"/>
+      <c r="F136" s="22"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="23"/>
-      <c r="F137" s="23"/>
+      <c r="C137" s="22"/>
+      <c r="F137" s="22"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="23"/>
-      <c r="F138" s="23"/>
+      <c r="C138" s="22"/>
+      <c r="F138" s="22"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="23"/>
-      <c r="F139" s="23"/>
+      <c r="C139" s="22"/>
+      <c r="F139" s="22"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="23"/>
-      <c r="F140" s="23"/>
+      <c r="C140" s="22"/>
+      <c r="F140" s="22"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="23"/>
-      <c r="F141" s="23"/>
+      <c r="C141" s="22"/>
+      <c r="F141" s="22"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="23"/>
-      <c r="F142" s="23"/>
+      <c r="C142" s="22"/>
+      <c r="F142" s="22"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="23"/>
-      <c r="F143" s="23"/>
+      <c r="C143" s="22"/>
+      <c r="F143" s="22"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="23"/>
-      <c r="F144" s="23"/>
+      <c r="C144" s="22"/>
+      <c r="F144" s="22"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="23"/>
-      <c r="F145" s="23"/>
+      <c r="C145" s="22"/>
+      <c r="F145" s="22"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="23"/>
-      <c r="F146" s="23"/>
+      <c r="C146" s="22"/>
+      <c r="F146" s="22"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="23"/>
-      <c r="F147" s="23"/>
+      <c r="C147" s="22"/>
+      <c r="F147" s="22"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="23"/>
-      <c r="F148" s="23"/>
+      <c r="C148" s="22"/>
+      <c r="F148" s="22"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="23"/>
-      <c r="F149" s="23"/>
+      <c r="C149" s="22"/>
+      <c r="F149" s="22"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="23"/>
-      <c r="F150" s="23"/>
+      <c r="C150" s="22"/>
+      <c r="F150" s="22"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="23"/>
-      <c r="F151" s="23"/>
+      <c r="C151" s="22"/>
+      <c r="F151" s="22"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="23"/>
-      <c r="F152" s="23"/>
+      <c r="C152" s="22"/>
+      <c r="F152" s="22"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="23"/>
-      <c r="F153" s="23"/>
+      <c r="C153" s="22"/>
+      <c r="F153" s="22"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="23"/>
-      <c r="F154" s="23"/>
+      <c r="C154" s="22"/>
+      <c r="F154" s="22"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="23"/>
-      <c r="F155" s="23"/>
+      <c r="C155" s="22"/>
+      <c r="F155" s="22"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="23"/>
-      <c r="F156" s="23"/>
+      <c r="C156" s="22"/>
+      <c r="F156" s="22"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="23"/>
-      <c r="F157" s="23"/>
+      <c r="C157" s="22"/>
+      <c r="F157" s="22"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="23"/>
-      <c r="F158" s="23"/>
+      <c r="C158" s="22"/>
+      <c r="F158" s="22"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="23"/>
-      <c r="F159" s="23"/>
+      <c r="C159" s="22"/>
+      <c r="F159" s="22"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="23"/>
-      <c r="F160" s="23"/>
+      <c r="C160" s="22"/>
+      <c r="F160" s="22"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="23"/>
-      <c r="F161" s="23"/>
+      <c r="C161" s="22"/>
+      <c r="F161" s="22"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="23"/>
-      <c r="F162" s="23"/>
+      <c r="C162" s="22"/>
+      <c r="F162" s="22"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="23"/>
-      <c r="F163" s="23"/>
+      <c r="C163" s="22"/>
+      <c r="F163" s="22"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="23"/>
-      <c r="F164" s="23"/>
+      <c r="C164" s="22"/>
+      <c r="F164" s="22"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="23"/>
-      <c r="F165" s="23"/>
+      <c r="C165" s="22"/>
+      <c r="F165" s="22"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="23"/>
-      <c r="F166" s="23"/>
+      <c r="C166" s="22"/>
+      <c r="F166" s="22"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="23"/>
-      <c r="F167" s="23"/>
+      <c r="C167" s="22"/>
+      <c r="F167" s="22"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="23"/>
-      <c r="F168" s="23"/>
+      <c r="C168" s="22"/>
+      <c r="F168" s="22"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="23"/>
-      <c r="F169" s="23"/>
+      <c r="C169" s="22"/>
+      <c r="F169" s="22"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="23"/>
-      <c r="F170" s="23"/>
+      <c r="C170" s="22"/>
+      <c r="F170" s="22"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="23"/>
-      <c r="F171" s="23"/>
+      <c r="C171" s="22"/>
+      <c r="F171" s="22"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="23"/>
-      <c r="F172" s="23"/>
+      <c r="C172" s="22"/>
+      <c r="F172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="23"/>
-      <c r="F173" s="23"/>
+      <c r="C173" s="22"/>
+      <c r="F173" s="22"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="23"/>
-      <c r="F174" s="23"/>
+      <c r="C174" s="22"/>
+      <c r="F174" s="22"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="23"/>
-      <c r="F175" s="23"/>
+      <c r="C175" s="22"/>
+      <c r="F175" s="22"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="23"/>
-      <c r="F176" s="23"/>
+      <c r="C176" s="22"/>
+      <c r="F176" s="22"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="23"/>
-      <c r="F177" s="23"/>
+      <c r="C177" s="22"/>
+      <c r="F177" s="22"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="23"/>
-      <c r="F178" s="23"/>
+      <c r="C178" s="22"/>
+      <c r="F178" s="22"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="23"/>
-      <c r="F179" s="23"/>
+      <c r="C179" s="22"/>
+      <c r="F179" s="22"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="23"/>
-      <c r="F180" s="23"/>
+      <c r="C180" s="22"/>
+      <c r="F180" s="22"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="23"/>
-      <c r="F181" s="23"/>
+      <c r="C181" s="22"/>
+      <c r="F181" s="22"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="23"/>
-      <c r="F182" s="23"/>
+      <c r="C182" s="22"/>
+      <c r="F182" s="22"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="23"/>
-      <c r="F183" s="23"/>
+      <c r="C183" s="22"/>
+      <c r="F183" s="22"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="23"/>
-      <c r="F184" s="23"/>
+      <c r="C184" s="22"/>
+      <c r="F184" s="22"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="23"/>
-      <c r="F185" s="23"/>
+      <c r="C185" s="22"/>
+      <c r="F185" s="22"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="23"/>
-      <c r="F186" s="23"/>
+      <c r="C186" s="22"/>
+      <c r="F186" s="22"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="23"/>
-      <c r="F187" s="23"/>
+      <c r="C187" s="22"/>
+      <c r="F187" s="22"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="23"/>
-      <c r="F188" s="23"/>
+      <c r="C188" s="22"/>
+      <c r="F188" s="22"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="23"/>
-      <c r="F189" s="23"/>
+      <c r="C189" s="22"/>
+      <c r="F189" s="22"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="23"/>
-      <c r="F190" s="23"/>
+      <c r="C190" s="22"/>
+      <c r="F190" s="22"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="23"/>
-      <c r="F191" s="23"/>
+      <c r="C191" s="22"/>
+      <c r="F191" s="22"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="23"/>
-      <c r="F192" s="23"/>
+      <c r="C192" s="22"/>
+      <c r="F192" s="22"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="23"/>
-      <c r="F193" s="23"/>
+      <c r="C193" s="22"/>
+      <c r="F193" s="22"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="23"/>
-      <c r="F194" s="23"/>
+      <c r="C194" s="22"/>
+      <c r="F194" s="22"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="23"/>
-      <c r="F195" s="23"/>
+      <c r="C195" s="22"/>
+      <c r="F195" s="22"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="23"/>
-      <c r="F196" s="23"/>
+      <c r="C196" s="22"/>
+      <c r="F196" s="22"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="23"/>
-      <c r="F197" s="23"/>
+      <c r="C197" s="22"/>
+      <c r="F197" s="22"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="23"/>
-      <c r="F198" s="23"/>
+      <c r="C198" s="22"/>
+      <c r="F198" s="22"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="23"/>
-      <c r="F199" s="23"/>
+      <c r="C199" s="22"/>
+      <c r="F199" s="22"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="23"/>
-      <c r="F200" s="23"/>
+      <c r="C200" s="22"/>
+      <c r="F200" s="22"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="23"/>
-      <c r="F201" s="23"/>
+      <c r="C201" s="22"/>
+      <c r="F201" s="22"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="23"/>
-      <c r="F202" s="23"/>
+      <c r="C202" s="22"/>
+      <c r="F202" s="22"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="23"/>
-      <c r="F203" s="23"/>
+      <c r="C203" s="22"/>
+      <c r="F203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="23"/>
-      <c r="F204" s="23"/>
+      <c r="C204" s="22"/>
+      <c r="F204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="23"/>
-      <c r="F205" s="23"/>
+      <c r="C205" s="22"/>
+      <c r="F205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="23"/>
-      <c r="F206" s="23"/>
+      <c r="C206" s="22"/>
+      <c r="F206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="23"/>
-      <c r="F207" s="23"/>
+      <c r="C207" s="22"/>
+      <c r="F207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="23"/>
-      <c r="F208" s="23"/>
+      <c r="C208" s="22"/>
+      <c r="F208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="23"/>
-      <c r="F209" s="23"/>
+      <c r="C209" s="22"/>
+      <c r="F209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="23"/>
-      <c r="F210" s="23"/>
+      <c r="C210" s="22"/>
+      <c r="F210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="23"/>
-      <c r="F211" s="23"/>
+      <c r="C211" s="22"/>
+      <c r="F211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="23"/>
-      <c r="F212" s="23"/>
+      <c r="C212" s="22"/>
+      <c r="F212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="23"/>
-      <c r="F213" s="23"/>
+      <c r="C213" s="22"/>
+      <c r="F213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="23"/>
-      <c r="F214" s="23"/>
+      <c r="C214" s="22"/>
+      <c r="F214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="23"/>
-      <c r="F215" s="23"/>
+      <c r="C215" s="22"/>
+      <c r="F215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="23"/>
-      <c r="F216" s="23"/>
+      <c r="C216" s="22"/>
+      <c r="F216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="23"/>
-      <c r="F217" s="23"/>
+      <c r="C217" s="22"/>
+      <c r="F217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="23"/>
-      <c r="F218" s="23"/>
+      <c r="C218" s="22"/>
+      <c r="F218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="23"/>
-      <c r="F219" s="23"/>
+      <c r="C219" s="22"/>
+      <c r="F219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="23"/>
-      <c r="F220" s="23"/>
+      <c r="C220" s="22"/>
+      <c r="F220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/cuentas_y_plazos_vehiculos_IER.xlsx
+++ b/cuentas_y_plazos_vehiculos_IER.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="dTiPhSRaOPPddKf80d/FSETynhroJkbTfTjGE0+72bU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="iDjBDSj0dPaZq0ailZ5LG4423jZyENXXXVGMTP1vh5w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="370">
   <si>
     <t>usuario</t>
   </si>
@@ -1851,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="6">
-        <f>SUM(J2:J1000)</f>
+        <f>SUM(J2:J1001)</f>
         <v>1316272.05</v>
       </c>
       <c r="O2" s="6">
@@ -6541,7 +6541,7 @@
         <v>9000.0</v>
       </c>
       <c r="K128" s="10">
-        <f t="shared" ref="K128:K158" si="5">I128-J128</f>
+        <f t="shared" ref="K128:K157" si="5">I128-J128</f>
         <v>0</v>
       </c>
       <c r="L128" s="11"/>
@@ -7614,40 +7614,63 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="20">
+        <v>2023.0</v>
+      </c>
+      <c r="E158" s="18">
+        <v>45286.0</v>
+      </c>
+      <c r="F158" s="18">
+        <v>45289.0</v>
+      </c>
+      <c r="G158" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="I158" s="20"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="10"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B158" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="20">
+      <c r="B159" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="20">
         <v>2024.0</v>
       </c>
-      <c r="E158" s="18">
+      <c r="E159" s="18">
         <v>45292.0</v>
       </c>
-      <c r="F158" s="18">
+      <c r="F159" s="18">
         <v>45292.0</v>
       </c>
-      <c r="G158" s="20" t="s">
+      <c r="G159" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H158" s="20">
+      <c r="H159" s="20">
         <v>0.0</v>
       </c>
-      <c r="J158" s="6"/>
-      <c r="K158" s="10">
-        <f t="shared" si="5"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="10">
+        <f>I159-J159</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="23"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="E160" s="22"/>
@@ -7672,7 +7695,6 @@
       <c r="F163" s="22"/>
       <c r="J163" s="6"/>
       <c r="K163" s="23"/>
-      <c r="U163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="E164" s="22"/>
@@ -8685,6 +8707,7 @@
     <row r="308" ht="15.75" customHeight="1">
       <c r="E308" s="22"/>
       <c r="F308" s="22"/>
+      <c r="J308" s="6"/>
       <c r="K308" s="23"/>
       <c r="U308" s="13"/>
     </row>
@@ -8703,6 +8726,7 @@
     <row r="311" ht="15.75" customHeight="1">
       <c r="E311" s="22"/>
       <c r="F311" s="22"/>
+      <c r="K311" s="23"/>
       <c r="U311" s="13"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
@@ -8860,7 +8884,11 @@
       <c r="F342" s="22"/>
       <c r="U342" s="13"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="E343" s="22"/>
+      <c r="F343" s="22"/>
+      <c r="U343" s="13"/>
+    </row>
     <row r="344" ht="15.75" customHeight="1"/>
     <row r="345" ht="15.75" customHeight="1"/>
     <row r="346" ht="15.75" customHeight="1"/>
@@ -9517,13 +9545,14 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152 J155:J156 J158:J999">
+  <conditionalFormatting sqref="J2:J108 K2:K1000 J113:J124 J128:J143 J145:J147 J150 J152 J155:J156 J159:J1000">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J108 K2:K999 J113:J124 J128:J143 J145:J147 J150 J152 J155:J156 J158:J999">
+  <conditionalFormatting sqref="J2:J108 K2:K1000 J113:J124 J128:J143 J145:J147 J150 J152 J155:J156 J159:J1000">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
